--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11006" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11028" uniqueCount="1788">
   <si>
     <t>id</t>
   </si>
@@ -5785,8 +5785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="C86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10384,10 +10384,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11587,6 +11587,160 @@
       </c>
       <c r="D85" s="1" t="s">
         <v>1675</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>99</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>99</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>99</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>99</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>99</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>99</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>99</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>99</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>99</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>99</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -12005,7 +12159,7 @@
   <dimension ref="A1:G1068"/>
   <sheetViews>
     <sheetView topLeftCell="A1058" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1062" sqref="D1062"/>
+      <selection activeCell="B1065" sqref="B1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37238,7 +37392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -57014,7 +57168,7 @@
   <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11237" uniqueCount="1839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11237" uniqueCount="1838">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -643,7 +643,7 @@
     <t xml:space="preserve">Manjar de coco</t>
   </si>
   <si>
-    <t xml:space="preserve">recipes/south-america/brazil/manjar-de-coco</t>
+    <t xml:space="preserve">recipes/south-america/brazil/manjar-de-coco-coconut-pudding</t>
   </si>
   <si>
     <t xml:space="preserve">brazil</t>
@@ -655,7 +655,7 @@
     <t xml:space="preserve">Panquecas de doce de leite</t>
   </si>
   <si>
-    <t xml:space="preserve">recipes/south-america/argentina/panquecas-de-doce-de-leite</t>
+    <t xml:space="preserve">recipes/south-america/argentina/panquecas-de-doce-de-leite-pancakes-with-caramelized-milk</t>
   </si>
   <si>
     <t xml:space="preserve">argentina</t>
@@ -865,10 +865,10 @@
     <t xml:space="preserve">bell pepper; rice</t>
   </si>
   <si>
-    <t xml:space="preserve">Karamellata stin Kalamata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recipes/world-fusion/karamellata-stin-kalamata</t>
+    <t xml:space="preserve">Karamellisierte Petersilienwurzeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recipes/europe/germany/karamellisierte-petersilienwurzeln-caramelized-beet-roots-carrots-and-sweet-potatoes</t>
   </si>
   <si>
     <t xml:space="preserve">germany</t>
@@ -5011,9 +5011,6 @@
     <t xml:space="preserve">radice bianca</t>
   </si>
   <si>
-    <t xml:space="preserve">Caramellata di Kalamata</t>
-  </si>
-  <si>
     <t xml:space="preserve">rape rosse; patate dolci; radici bianche</t>
   </si>
   <si>
@@ -5410,7 +5407,7 @@
     <t xml:space="preserve">it/ricette/fusion/crescione-romagnolo-con-ripieno-di-samosa/</t>
   </si>
   <si>
-    <t xml:space="preserve">it/ricette/fusion/caramellata-di-kalamata/</t>
+    <t xml:space="preserve">it/ricette/europa/germania/karamellisierte-petersilienwurzeln-rapa-rossa-carote-patate-dolci-caramellate/</t>
   </si>
   <si>
     <t xml:space="preserve">it/ricette/fusion/il-sig-testa-di-limone/</t>
@@ -5714,27 +5711,27 @@
   </sheetPr>
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C85" activeCellId="0" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.8744939271255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="92.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="93.1943319838057"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -9992,15 +9989,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>750</v>
@@ -10017,7 +10014,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10028,7 +10025,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10039,7 +10036,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10050,7 +10047,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10061,7 +10058,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10072,7 +10069,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10083,7 +10080,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10094,7 +10091,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,7 +10102,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10116,7 +10113,7 @@
         <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10127,7 +10124,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10138,7 +10135,7 @@
         <v>1007</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10149,7 +10146,7 @@
         <v>1151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10160,7 +10157,7 @@
         <v>1145</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10171,7 +10168,7 @@
         <v>649</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10182,7 +10179,7 @@
         <v>1175</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10193,7 +10190,7 @@
         <v>925</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10204,7 +10201,7 @@
         <v>958</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
   </sheetData>
@@ -10231,30 +10228,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1819</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10262,10 +10259,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1821</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1822</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -10279,10 +10276,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1823</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1824</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -10296,10 +10293,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1825</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1826</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -10313,10 +10310,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1827</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1828</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -10330,10 +10327,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1829</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1830</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -10347,10 +10344,10 @@
         <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1831</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1832</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -10377,27 +10374,27 @@
   </sheetPr>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -10509,7 +10506,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
@@ -10551,7 +10548,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>47</v>
@@ -11559,7 +11556,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>18</v>
@@ -11757,14 +11754,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -12171,12 +12168,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -29624,10 +29621,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -34313,9 +34310,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -35311,8 +35308,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -37861,7 +37858,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="1" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -43886,22 +43883,22 @@
   </sheetPr>
   <dimension ref="A1:J925"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A366" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A386" activeCellId="0" sqref="A386"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A756" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B776" activeCellId="0" sqref="B776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="107.117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="108.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -57198,7 +57195,7 @@
         <v>277</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>1659</v>
+        <v>277</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57206,7 +57203,7 @@
         <v>280</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57214,7 +57211,7 @@
         <v>498</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57230,7 +57227,7 @@
         <v>283</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57238,7 +57235,7 @@
         <v>612</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57246,7 +57243,7 @@
         <v>613</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57254,7 +57251,7 @@
         <v>709</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57270,7 +57267,7 @@
         <v>615</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57278,7 +57275,7 @@
         <v>614</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57286,7 +57283,7 @@
         <v>618</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57294,7 +57291,7 @@
         <v>617</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57302,7 +57299,7 @@
         <v>616</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57310,7 +57307,7 @@
         <v>710</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57326,7 +57323,7 @@
         <v>288</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57334,7 +57331,7 @@
         <v>711</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57342,7 +57339,7 @@
         <v>291</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57358,7 +57355,7 @@
         <v>620</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57366,7 +57363,7 @@
         <v>619</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57382,7 +57379,7 @@
         <v>294</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57390,7 +57387,7 @@
         <v>621</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57406,7 +57403,7 @@
         <v>297</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57414,7 +57411,7 @@
         <v>622</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57430,7 +57427,7 @@
         <v>712</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57438,7 +57435,7 @@
         <v>624</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57446,7 +57443,7 @@
         <v>623</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57454,7 +57451,7 @@
         <v>625</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57470,7 +57467,7 @@
         <v>303</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57478,7 +57475,7 @@
         <v>626</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57486,7 +57483,7 @@
         <v>627</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57494,7 +57491,7 @@
         <v>628</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57510,7 +57507,7 @@
         <v>629</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57518,7 +57515,7 @@
         <v>630</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57526,7 +57523,7 @@
         <v>631</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57534,7 +57531,7 @@
         <v>632</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57550,7 +57547,7 @@
         <v>308</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57558,7 +57555,7 @@
         <v>633</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57574,7 +57571,7 @@
         <v>635</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57582,7 +57579,7 @@
         <v>637</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57590,7 +57587,7 @@
         <v>350</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57598,7 +57595,7 @@
         <v>638</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57606,7 +57603,7 @@
         <v>636</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57614,7 +57611,7 @@
         <v>713</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57630,7 +57627,7 @@
         <v>75</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57646,7 +57643,7 @@
         <v>232</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57654,7 +57651,7 @@
         <v>219</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57662,7 +57659,7 @@
         <v>215</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57670,7 +57667,7 @@
         <v>226</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57678,7 +57675,7 @@
         <v>222</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57686,7 +57683,7 @@
         <v>150</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57694,7 +57691,7 @@
         <v>237</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57702,7 +57699,7 @@
         <v>244</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57710,7 +57707,7 @@
         <v>229</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57718,7 +57715,7 @@
         <v>241</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57726,7 +57723,7 @@
         <v>129</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57734,7 +57731,7 @@
         <v>126</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57742,7 +57739,7 @@
         <v>192</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57750,7 +57747,7 @@
         <v>211</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57758,7 +57755,7 @@
         <v>89</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57766,7 +57763,7 @@
         <v>146</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57774,7 +57771,7 @@
         <v>96</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57782,7 +57779,7 @@
         <v>200</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57790,7 +57787,7 @@
         <v>197</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57798,7 +57795,7 @@
         <v>93</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57806,7 +57803,7 @@
         <v>144</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57814,7 +57811,7 @@
         <v>110</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57822,7 +57819,7 @@
         <v>154</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57830,7 +57827,7 @@
         <v>182</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57838,7 +57835,7 @@
         <v>290</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57846,7 +57843,7 @@
         <v>188</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57854,7 +57851,7 @@
         <v>119</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57862,7 +57859,7 @@
         <v>76</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57870,7 +57867,7 @@
         <v>293</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57878,7 +57875,7 @@
         <v>116</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57886,7 +57883,7 @@
         <v>299</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57894,7 +57891,7 @@
         <v>185</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57902,7 +57899,7 @@
         <v>190</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57910,7 +57907,7 @@
         <v>80</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57918,7 +57915,7 @@
         <v>296</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57926,7 +57923,7 @@
         <v>282</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57934,7 +57931,7 @@
         <v>261</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57942,7 +57939,7 @@
         <v>248</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57950,7 +57947,7 @@
         <v>287</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57958,7 +57955,7 @@
         <v>254</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57966,7 +57963,7 @@
         <v>251</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57974,7 +57971,7 @@
         <v>256</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57982,7 +57979,7 @@
         <v>258</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57990,7 +57987,7 @@
         <v>302</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57998,7 +57995,7 @@
         <v>310</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58006,7 +58003,7 @@
         <v>194</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58014,7 +58011,7 @@
         <v>235</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58022,7 +58019,7 @@
         <v>179</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58030,7 +58027,7 @@
         <v>157</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58038,7 +58035,7 @@
         <v>177</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58046,7 +58043,7 @@
         <v>46</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58054,7 +58051,7 @@
         <v>57</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58062,7 +58059,7 @@
         <v>87</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58070,15 +58067,15 @@
         <v>275</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B886" s="1" t="s">
         <v>1756</v>
-      </c>
-      <c r="B886" s="1" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58086,7 +58083,7 @@
         <v>50</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58094,7 +58091,7 @@
         <v>285</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58102,7 +58099,7 @@
         <v>67</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58110,7 +58107,7 @@
         <v>106</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58118,7 +58115,7 @@
         <v>113</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58126,7 +58123,7 @@
         <v>54</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58134,7 +58131,7 @@
         <v>24</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58142,7 +58139,7 @@
         <v>59</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58150,7 +58147,7 @@
         <v>33</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58158,7 +58155,7 @@
         <v>73</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58166,7 +58163,7 @@
         <v>43</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58174,7 +58171,7 @@
         <v>166</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58182,7 +58179,7 @@
         <v>172</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58190,7 +58187,7 @@
         <v>40</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58198,7 +58195,7 @@
         <v>108</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58206,7 +58203,7 @@
         <v>36</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58214,7 +58211,7 @@
         <v>83</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58222,7 +58219,7 @@
         <v>163</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58230,7 +58227,7 @@
         <v>99</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58238,7 +58235,7 @@
         <v>17</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58246,7 +58243,7 @@
         <v>305</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58254,7 +58251,7 @@
         <v>307</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58262,7 +58259,7 @@
         <v>103</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58270,7 +58267,7 @@
         <v>174</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58278,7 +58275,7 @@
         <v>30</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58286,7 +58283,7 @@
         <v>70</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58294,7 +58291,7 @@
         <v>160</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58302,7 +58299,7 @@
         <v>63</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58310,7 +58307,7 @@
         <v>207</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58318,7 +58315,7 @@
         <v>203</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58326,7 +58323,7 @@
         <v>267</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58334,7 +58331,7 @@
         <v>264</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58342,7 +58339,7 @@
         <v>136</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58350,7 +58347,7 @@
         <v>122</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58358,7 +58355,7 @@
         <v>278</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58366,7 +58363,7 @@
         <v>272</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58374,7 +58371,7 @@
         <v>141</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58382,7 +58379,7 @@
         <v>138</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58390,7 +58387,7 @@
         <v>132</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
   </sheetData>
@@ -58411,27 +58408,27 @@
   </sheetPr>
   <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58442,7 +58439,7 @@
         <v>1189</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58454,7 +58451,7 @@
         <v>1191</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58466,7 +58463,7 @@
         <v>1193</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58478,7 +58475,7 @@
         <v>1195</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58490,7 +58487,7 @@
         <v>1197</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58502,7 +58499,7 @@
         <v>1199</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58514,7 +58511,7 @@
         <v>1201</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58526,7 +58523,7 @@
         <v>1203</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58538,7 +58535,7 @@
         <v>1205</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58550,7 +58547,7 @@
         <v>1207</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58562,7 +58559,7 @@
         <v>1209</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58574,7 +58571,7 @@
         <v>1211</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58586,7 +58583,7 @@
         <v>1213</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58598,7 +58595,7 @@
         <v>1215</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58610,7 +58607,7 @@
         <v>1217</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58622,7 +58619,7 @@
         <v>1218</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58634,7 +58631,7 @@
         <v>1220</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58646,7 +58643,7 @@
         <v>1222</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58658,7 +58655,7 @@
         <v>1224</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58670,7 +58667,7 @@
         <v>1226</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58682,7 +58679,7 @@
         <v>1228</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58694,7 +58691,7 @@
         <v>1230</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58706,7 +58703,7 @@
         <v>1232</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58718,7 +58715,7 @@
         <v>1234</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58730,7 +58727,7 @@
         <v>1236</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58742,7 +58739,7 @@
         <v>1238</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58754,7 +58751,7 @@
         <v>1240</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58766,7 +58763,7 @@
         <v>1242</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58778,7 +58775,7 @@
         <v>1244</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58790,7 +58787,7 @@
         <v>1246</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58802,7 +58799,7 @@
         <v>1248</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58814,7 +58811,7 @@
         <v>1250</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58826,7 +58823,7 @@
         <v>1252</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58838,7 +58835,7 @@
         <v>1254</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58850,7 +58847,7 @@
         <v>1256</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58862,7 +58859,7 @@
         <v>1258</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58874,7 +58871,7 @@
         <v>1260</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58886,7 +58883,7 @@
         <v>1262</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58898,7 +58895,7 @@
         <v>1264</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58910,7 +58907,7 @@
         <v>1266</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58922,7 +58919,7 @@
         <v>1268</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58934,7 +58931,7 @@
         <v>1270</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58946,7 +58943,7 @@
         <v>1272</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58958,7 +58955,7 @@
         <v>1274</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58970,7 +58967,7 @@
         <v>1276</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58982,7 +58979,7 @@
         <v>1278</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58994,7 +58991,7 @@
         <v>1280</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59006,7 +59003,7 @@
         <v>1282</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59018,7 +59015,7 @@
         <v>1284</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59030,7 +59027,7 @@
         <v>1286</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59042,7 +59039,7 @@
         <v>1288</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59054,7 +59051,7 @@
         <v>1290</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59066,7 +59063,7 @@
         <v>1292</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59078,7 +59075,7 @@
         <v>1294</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59090,7 +59087,7 @@
         <v>1296</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59102,7 +59099,7 @@
         <v>1298</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59114,7 +59111,7 @@
         <v>1300</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59126,7 +59123,7 @@
         <v>1302</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59138,7 +59135,7 @@
         <v>1304</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59150,7 +59147,7 @@
         <v>1306</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59162,7 +59159,7 @@
         <v>1308</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59174,7 +59171,7 @@
         <v>1310</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59186,7 +59183,7 @@
         <v>1312</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59198,7 +59195,7 @@
         <v>1314</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59210,7 +59207,7 @@
         <v>1316</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59222,7 +59219,7 @@
         <v>1318</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59234,7 +59231,7 @@
         <v>1320</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59246,7 +59243,7 @@
         <v>1322</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59258,7 +59255,7 @@
         <v>1324</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59270,7 +59267,7 @@
         <v>1326</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59282,7 +59279,7 @@
         <v>1328</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59294,7 +59291,7 @@
         <v>1330</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59306,7 +59303,7 @@
         <v>1332</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59318,7 +59315,7 @@
         <v>1334</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59330,7 +59327,7 @@
         <v>1336</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59342,7 +59339,7 @@
         <v>1338</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59354,7 +59351,7 @@
         <v>1340</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59366,7 +59363,7 @@
         <v>1342</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59378,7 +59375,7 @@
         <v>1344</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59390,7 +59387,7 @@
         <v>1346</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59402,7 +59399,7 @@
         <v>1348</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59414,7 +59411,7 @@
         <v>1350</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59426,7 +59423,7 @@
         <v>1352</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59438,7 +59435,7 @@
         <v>1354</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59450,7 +59447,7 @@
         <v>1356</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59462,7 +59459,7 @@
         <v>1358</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59474,7 +59471,7 @@
         <v>1360</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59486,7 +59483,7 @@
         <v>1362</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59498,7 +59495,7 @@
         <v>1364</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59510,7 +59507,7 @@
         <v>1366</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59522,7 +59519,7 @@
         <v>1368</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59534,7 +59531,7 @@
         <v>1370</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59546,7 +59543,7 @@
         <v>1372</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59558,7 +59555,7 @@
         <v>1374</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59570,7 +59567,7 @@
         <v>1376</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59582,7 +59579,7 @@
         <v>1378</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59594,7 +59591,7 @@
         <v>1380</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59606,7 +59603,7 @@
         <v>1382</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59618,7 +59615,7 @@
         <v>1384</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59630,7 +59627,7 @@
         <v>1386</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59642,7 +59639,7 @@
         <v>1388</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59654,7 +59651,7 @@
         <v>1390</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59666,7 +59663,7 @@
         <v>1392</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59678,7 +59675,7 @@
         <v>1394</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59690,7 +59687,7 @@
         <v>1396</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59702,7 +59699,7 @@
         <v>1398</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59714,7 +59711,7 @@
         <v>1400</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59726,7 +59723,7 @@
         <v>1402</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59738,7 +59735,7 @@
         <v>1404</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59750,7 +59747,7 @@
         <v>1406</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59762,7 +59759,7 @@
         <v>1408</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59774,7 +59771,7 @@
         <v>1410</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59786,7 +59783,7 @@
         <v>1412</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59798,7 +59795,7 @@
         <v>1414</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59810,7 +59807,7 @@
         <v>1416</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59822,7 +59819,7 @@
         <v>1418</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59834,7 +59831,7 @@
         <v>1420</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59846,7 +59843,7 @@
         <v>1422</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59858,7 +59855,7 @@
         <v>1424</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59870,7 +59867,7 @@
         <v>1426</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59882,7 +59879,7 @@
         <v>1428</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59894,7 +59891,7 @@
         <v>1430</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59906,7 +59903,7 @@
         <v>1432</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59918,7 +59915,7 @@
         <v>1434</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59930,7 +59927,7 @@
         <v>1436</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59942,7 +59939,7 @@
         <v>1438</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59954,7 +59951,7 @@
         <v>1440</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59966,7 +59963,7 @@
         <v>1442</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59978,7 +59975,7 @@
         <v>1444</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59990,7 +59987,7 @@
         <v>1446</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60002,7 +59999,7 @@
         <v>1448</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60014,7 +60011,7 @@
         <v>1450</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60026,7 +60023,7 @@
         <v>1452</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60038,7 +60035,7 @@
         <v>1454</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60050,7 +60047,7 @@
         <v>1456</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60062,7 +60059,7 @@
         <v>1458</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60074,7 +60071,7 @@
         <v>1460</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60086,7 +60083,7 @@
         <v>1461</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60098,7 +60095,7 @@
         <v>1463</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60110,7 +60107,7 @@
         <v>1465</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60122,7 +60119,7 @@
         <v>1467</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60134,7 +60131,7 @@
         <v>1469</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60146,7 +60143,7 @@
         <v>1471</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60158,7 +60155,7 @@
         <v>1473</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60170,7 +60167,7 @@
         <v>1475</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60182,7 +60179,7 @@
         <v>1477</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60194,7 +60191,7 @@
         <v>1479</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60206,7 +60203,7 @@
         <v>1481</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60218,7 +60215,7 @@
         <v>1483</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60230,7 +60227,7 @@
         <v>1485</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60242,7 +60239,7 @@
         <v>1487</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60254,7 +60251,7 @@
         <v>1489</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60266,7 +60263,7 @@
         <v>1491</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60278,7 +60275,7 @@
         <v>1493</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60290,7 +60287,7 @@
         <v>1495</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60302,7 +60299,7 @@
         <v>1497</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60314,7 +60311,7 @@
         <v>1499</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60326,7 +60323,7 @@
         <v>1501</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60338,7 +60335,7 @@
         <v>1503</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60350,7 +60347,7 @@
         <v>1505</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60362,7 +60359,7 @@
         <v>1507</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60374,7 +60371,7 @@
         <v>1509</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60386,7 +60383,7 @@
         <v>1511</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60398,7 +60395,7 @@
         <v>1513</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60410,7 +60407,7 @@
         <v>1515</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60422,7 +60419,7 @@
         <v>1517</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60434,7 +60431,7 @@
         <v>1519</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60446,7 +60443,7 @@
         <v>1521</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60458,7 +60455,7 @@
         <v>1523</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60470,7 +60467,7 @@
         <v>1525</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60482,7 +60479,7 @@
         <v>1527</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60494,7 +60491,7 @@
         <v>1529</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60506,7 +60503,7 @@
         <v>1531</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60518,7 +60515,7 @@
         <v>1533</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60530,7 +60527,7 @@
         <v>1535</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60542,7 +60539,7 @@
         <v>1537</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60554,7 +60551,7 @@
         <v>1539</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60566,7 +60563,7 @@
         <v>1541</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60578,7 +60575,7 @@
         <v>1543</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60590,7 +60587,7 @@
         <v>1545</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60602,7 +60599,7 @@
         <v>1547</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60614,7 +60611,7 @@
         <v>1549</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60626,7 +60623,7 @@
         <v>1551</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60638,7 +60635,7 @@
         <v>1553</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60650,7 +60647,7 @@
         <v>1555</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60662,7 +60659,7 @@
         <v>1557</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60674,7 +60671,7 @@
         <v>1559</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60686,7 +60683,7 @@
         <v>1561</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60698,7 +60695,7 @@
         <v>1563</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60710,7 +60707,7 @@
         <v>1565</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60722,7 +60719,7 @@
         <v>1567</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60734,7 +60731,7 @@
         <v>1569</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60746,7 +60743,7 @@
         <v>1571</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60758,7 +60755,7 @@
         <v>1573</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60770,7 +60767,7 @@
         <v>1575</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60782,7 +60779,7 @@
         <v>1577</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60794,7 +60791,7 @@
         <v>1579</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60806,7 +60803,7 @@
         <v>1581</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60818,7 +60815,7 @@
         <v>1583</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60830,7 +60827,7 @@
         <v>1585</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60842,7 +60839,7 @@
         <v>1587</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60854,7 +60851,7 @@
         <v>1589</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60866,7 +60863,7 @@
         <v>1591</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60878,7 +60875,7 @@
         <v>1593</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60890,7 +60887,7 @@
         <v>1595</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60902,7 +60899,7 @@
         <v>1597</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60914,7 +60911,7 @@
         <v>1599</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60926,7 +60923,7 @@
         <v>1601</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60938,7 +60935,7 @@
         <v>1603</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60950,7 +60947,7 @@
         <v>1605</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60962,7 +60959,7 @@
         <v>1607</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60974,7 +60971,7 @@
         <v>1609</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60986,7 +60983,7 @@
         <v>1611</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60998,7 +60995,7 @@
         <v>1613</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61010,7 +61007,7 @@
         <v>1615</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61022,7 +61019,7 @@
         <v>1617</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61034,7 +61031,7 @@
         <v>1619</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61046,7 +61043,7 @@
         <v>1621</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61058,7 +61055,7 @@
         <v>1623</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61070,7 +61067,7 @@
         <v>1625</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61082,7 +61079,7 @@
         <v>1627</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61094,7 +61091,7 @@
         <v>1629</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61106,7 +61103,7 @@
         <v>1631</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61118,7 +61115,7 @@
         <v>1633</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61130,7 +61127,7 @@
         <v>1635</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61142,7 +61139,7 @@
         <v>1637</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61154,7 +61151,7 @@
         <v>1639</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11966" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11964" uniqueCount="1944">
   <si>
     <t>id</t>
   </si>
@@ -13182,8 +13182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1182" sqref="F1182"/>
+    <sheetView topLeftCell="A1122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1123" sqref="B1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31339,6 +31339,9 @@
       <c r="C1123" s="1">
         <v>1</v>
       </c>
+      <c r="D1123" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1124" s="1">
@@ -32146,6 +32149,9 @@
       </c>
       <c r="D1182" s="1" t="s">
         <v>323</v>
+      </c>
+      <c r="F1182" s="1" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
@@ -32198,10 +32204,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F392"/>
+  <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35100,19 +35106,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>1938</v>
+        <v>514</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D225">
-        <v>15</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -35120,54 +35120,54 @@
         <v>514</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D226">
+        <v>5</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D227">
-        <v>5</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>458</v>
+        <v>328</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>458</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>584</v>
+        <v>130</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>328</v>
@@ -35178,7 +35178,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>328</v>
@@ -35192,55 +35192,55 @@
         <v>68</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D232">
+        <v>1000</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D233">
-        <v>1000</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>22</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>117</v>
+        <v>1921</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>1921</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D235">
-        <v>10</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -35248,149 +35248,152 @@
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D236">
+        <v>1000</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>233</v>
+        <v>536</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D237">
-        <v>1000</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>545</v>
+        <v>481</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>471</v>
+      <c r="A240" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D240">
+        <v>0.3</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C241" s="2" t="s">
+      <c r="B241" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D241">
-        <v>0.3</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>22</v>
+      <c r="C241" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>391</v>
+        <v>91</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>91</v>
+        <v>344</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D244">
+        <v>1000</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C245" s="1" t="s">
+      <c r="B245" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D245">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B246" s="2" t="s">
+      <c r="A246" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D246">
-        <v>150</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>28</v>
+      <c r="C246" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>300</v>
+        <v>515</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>320</v>
+        <v>471</v>
+      </c>
+      <c r="D247">
+        <v>200</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -35398,40 +35401,37 @@
         <v>515</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>319</v>
+        <v>471</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D248">
-        <v>200</v>
-      </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>471</v>
@@ -35441,25 +35441,25 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>471</v>
+      <c r="A252" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>332</v>
+      <c r="A253" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -35467,24 +35467,30 @@
         <v>582</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D254">
+        <v>20</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C255" s="1" t="s">
+      <c r="A255" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D255">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>28</v>
@@ -35495,13 +35501,13 @@
         <v>327</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D256">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>28</v>
@@ -35512,16 +35518,10 @@
         <v>327</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D257">
-        <v>30</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -35529,24 +35529,30 @@
         <v>327</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D258">
+        <v>10</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C259" s="2" t="s">
+      <c r="B259" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>28</v>
@@ -35556,78 +35562,72 @@
       <c r="A260" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D260">
-        <v>30</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>327</v>
+        <v>609</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
+      </c>
+      <c r="D262">
+        <v>200</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D263">
-        <v>200</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="D264">
+        <v>200</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>600</v>
+        <v>457</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D265">
-        <v>200</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -35635,32 +35635,32 @@
         <v>457</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -35668,32 +35668,32 @@
         <v>508</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D269">
+        <v>20</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D270">
-        <v>20</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>28</v>
+        <v>323</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>323</v>
@@ -35704,100 +35704,100 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>450</v>
+        <v>361</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>471</v>
+      <c r="D273">
+        <v>30</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D274">
-        <v>30</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>22</v>
+      <c r="A274" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="D275">
+        <v>1000</v>
+      </c>
+      <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D276">
-        <v>1000</v>
-      </c>
-      <c r="E276" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B277" s="2" t="s">
+      <c r="A277" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D277">
-        <v>200</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>28</v>
+      <c r="C277" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>142</v>
+        <v>601</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>601</v>
+        <v>498</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>328</v>
@@ -35811,76 +35811,76 @@
         <v>498</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D280">
+        <v>10</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D281">
-        <v>10</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>28</v>
+        <v>447</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>447</v>
+        <v>1920</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D282">
+        <v>10</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>1920</v>
+        <v>359</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D283">
-        <v>10</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>359</v>
+        <v>578</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C285" s="2" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>320</v>
@@ -35891,27 +35891,33 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>399</v>
+        <v>597</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>320</v>
+        <v>471</v>
+      </c>
+      <c r="D287">
+        <v>200</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B288" s="2" t="s">
+      <c r="A288" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>471</v>
+      <c r="C288" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="D288">
         <v>200</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -35919,21 +35925,15 @@
         <v>97</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D289">
-        <v>200</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>97</v>
+        <v>1907</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>328</v>
@@ -35943,14 +35943,20 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B291" s="1" t="s">
+      <c r="A291" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C291" s="1" t="s">
-        <v>328</v>
+      <c r="D291">
+        <v>200</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -35958,21 +35964,15 @@
         <v>55</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D292">
-        <v>200</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>55</v>
+        <v>607</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>328</v>
@@ -35983,59 +35983,65 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>382</v>
+      <c r="A295" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>537</v>
+      <c r="A296" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>380</v>
+      <c r="A297" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C299" s="1" t="s">
+      <c r="B299" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D299">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>28</v>
@@ -36046,13 +36052,13 @@
         <v>330</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D300">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>28</v>
@@ -36062,44 +36068,44 @@
       <c r="A301" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D301">
-        <v>15</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>330</v>
+      <c r="A302" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>606</v>
+        <v>470</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
+      </c>
+      <c r="D304">
+        <v>5</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -36107,74 +36113,74 @@
         <v>470</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D305">
-        <v>5</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>320</v>
+      <c r="A306" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
-        <v>402</v>
+      <c r="A307" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="D308">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D309">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>332</v>
+      <c r="D310">
+        <v>30</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -36182,110 +36188,104 @@
         <v>432</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D311">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B312" s="1" t="s">
+      <c r="A312" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D313">
+        <v>1000</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D312">
-        <v>100</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D314">
-        <v>1000</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>22</v>
+      <c r="C314" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B315" s="2" t="s">
+      <c r="A315" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>512</v>
+        <v>604</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>328</v>
@@ -36296,7 +36296,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>604</v>
+        <v>454</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>328</v>
@@ -36306,93 +36306,99 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B321" s="1" t="s">
+      <c r="A321" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="C321" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B322" s="2" t="s">
+      <c r="A322" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>328</v>
+      <c r="D323">
+        <v>50</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>369</v>
+        <v>610</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D324">
-        <v>50</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>610</v>
+        <v>331</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E325" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="D325">
+        <v>80</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B326" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C326" s="2" t="s">
+      <c r="B326" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D326">
-        <v>80</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>28</v>
+      <c r="C326" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>328</v>
+      <c r="D327">
+        <v>5</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -36400,74 +36406,68 @@
         <v>331</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D328">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C329" s="2" t="s">
+      <c r="A329" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D329">
-        <v>15</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>332</v>
+      <c r="C331" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>473</v>
+        <v>622</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
+      </c>
+      <c r="D332">
+        <v>200</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>622</v>
+        <v>499</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D333">
-        <v>200</v>
+        <v>328</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -36475,38 +36475,44 @@
         <v>499</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D334">
+        <v>250</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C335" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D335">
-        <v>250</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>332</v>
+      <c r="D336">
+        <v>150</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -36514,13 +36520,13 @@
         <v>366</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D337">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>28</v>
@@ -36528,131 +36534,128 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D338">
-        <v>30</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>328</v>
+      <c r="A339" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>323</v>
+      <c r="A340" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D340" t="s">
+        <v>441</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D341" t="s">
-        <v>441</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>441</v>
+      <c r="A341" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="D343">
+        <v>1000</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C344" s="1" t="s">
+      <c r="B344" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D344">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D345">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C346" s="2" t="s">
+      <c r="A346" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D346">
-        <v>30</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>22</v>
+        <v>400</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -36660,13 +36663,16 @@
         <v>564</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>530</v>
+        <v>328</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D347">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -36674,60 +36680,54 @@
         <v>564</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D348">
-        <v>1</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>564</v>
+        <v>448</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D350">
-        <v>1</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>448</v>
+      <c r="A351" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>328</v>
@@ -36741,127 +36741,133 @@
         <v>529</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>328</v>
+        <v>530</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D353">
+        <v>200</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>529</v>
+        <v>360</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>530</v>
+        <v>332</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D354">
-        <v>200</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>332</v>
+      <c r="D355">
+        <v>3</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D356">
-        <v>3</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>375</v>
+      <c r="A357" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>328</v>
+        <v>547</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>320</v>
+      <c r="A359" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>409</v>
+      <c r="A360" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>593</v>
+        <v>1936</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>594</v>
+        <v>323</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>594</v>
+        <v>328</v>
+      </c>
+      <c r="D361">
+        <v>15</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>1936</v>
+        <v>501</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D362">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -36869,41 +36875,41 @@
         <v>501</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D363">
-        <v>1000</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>501</v>
+        <v>1908</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
+      </c>
+      <c r="D364">
+        <v>30</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C365" s="1" t="s">
+      <c r="A365" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D365">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>28</v>
@@ -36914,16 +36920,10 @@
         <v>345</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D366">
-        <v>50</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -36931,20 +36931,26 @@
         <v>345</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D367">
+        <v>10</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C368" s="2" t="s">
+      <c r="B368" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D368">
@@ -36955,37 +36961,37 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>328</v>
+      <c r="A369" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D369">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C370" s="2" t="s">
+      <c r="B370" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D370">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -36993,16 +36999,10 @@
         <v>377</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="D371">
-        <v>1000</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -37010,53 +37010,59 @@
         <v>377</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D372">
+        <v>30</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>377</v>
+        <v>1881</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D373">
-        <v>30</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E373" s="1"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>1881</v>
+        <v>1922</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>328</v>
+        <v>1923</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E374" s="1"/>
+      <c r="D374">
+        <v>200</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>1922</v>
+        <v>603</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1923</v>
+        <v>320</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D375">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>28</v>
@@ -37064,33 +37070,33 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>603</v>
+        <v>404</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D376">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C377" s="1" t="s">
+      <c r="B377" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D377">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>22</v>
@@ -37098,45 +37104,45 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>404</v>
+        <v>538</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D378">
-        <v>30</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E378" s="1"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D379">
+      <c r="C380" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D380">
         <v>200</v>
       </c>
-      <c r="E379" s="1"/>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>471</v>
+      <c r="E380" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -37144,49 +37150,43 @@
         <v>338</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D381">
-        <v>200</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="D382">
+        <v>30</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C383" s="1" t="s">
+      <c r="C384" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D383">
-        <v>30</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -37194,27 +37194,33 @@
         <v>414</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D385">
+        <v>20</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D386">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -37222,70 +37228,53 @@
         <v>517</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D387">
-        <v>1000</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>328</v>
+        <v>594</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>328</v>
+        <v>594</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>595</v>
+        <v>401</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>594</v>
+        <v>320</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>594</v>
+        <v>320</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B391" s="1" t="s">
+      <c r="A391" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C392" s="2" t="s">
+      <c r="C391" s="2" t="s">
         <v>320</v>
       </c>
     </row>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11964" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12034" uniqueCount="1953">
   <si>
     <t>id</t>
   </si>
@@ -5868,6 +5868,33 @@
   </si>
   <si>
     <t>burro vegano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastitsio (baked pasta with minced beef) </t>
+  </si>
+  <si>
+    <t>recipes/mediterranea/greece/pastitsio-baked-pasta-with-minced-beef</t>
+  </si>
+  <si>
+    <t>pasta; beef meat</t>
+  </si>
+  <si>
+    <t>Pasticcio di pasta e carne</t>
+  </si>
+  <si>
+    <t>it/ricette/paesi-mediterranei/grecia/pasticcio-di-pasta-e-carne</t>
+  </si>
+  <si>
+    <t>spaghetti</t>
+  </si>
+  <si>
+    <t>soy strip</t>
+  </si>
+  <si>
+    <t>pasta; carne di manzo</t>
+  </si>
+  <si>
+    <t>carne di soia</t>
   </si>
 </sst>
 </file>
@@ -5878,7 +5905,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5907,6 +5934,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5929,7 +5962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5965,6 +5998,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -6248,10 +6284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="D94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10898,6 +10934,50 @@
       </c>
       <c r="P105" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D106" s="1">
+        <v>70</v>
+      </c>
+      <c r="E106" s="1">
+        <v>6</v>
+      </c>
+      <c r="F106" s="1">
+        <v>4</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -11283,7 +11363,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C106" sqref="C106"/>
@@ -12765,6 +12845,20 @@
       </c>
       <c r="D105" s="1" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>99</v>
+      </c>
+      <c r="B106" s="1">
+        <v>105</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -13180,10 +13274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1185"/>
+  <dimension ref="A1:G1198"/>
   <sheetViews>
-    <sheetView topLeftCell="A1122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1123" sqref="B1123"/>
+    <sheetView topLeftCell="A1181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1195" sqref="B1195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32182,7 +32276,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1185" s="1">
         <v>104</v>
       </c>
@@ -32194,6 +32288,167 @@
       </c>
       <c r="D1185" s="1" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1186" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1186" s="13" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1186" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1187" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1187" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1187" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1188" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1188" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1188" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1188" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1188" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1189" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1189" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1189" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1189" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1190" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1190" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1190" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1190" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1191" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1191" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1192" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1192" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1192" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D1192" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1193" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1193" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1193" s="1">
+        <v>150</v>
+      </c>
+      <c r="D1193" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1194" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1194" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1195" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1195" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1196" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1196" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1197" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1197" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1198" s="1">
+        <v>105</v>
+      </c>
+      <c r="B1198" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1198" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1198" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -32204,10 +32459,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F391"/>
+  <dimension ref="A1:F393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284"/>
+    <sheetView topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35894,30 +36149,24 @@
         <v>597</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>319</v>
+        <v>471</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D287">
-        <v>200</v>
-      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B288" s="1" t="s">
+      <c r="A288" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>328</v>
+      <c r="C288" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D288">
         <v>200</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -35925,15 +36174,21 @@
         <v>97</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D289">
+        <v>200</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>1907</v>
+        <v>97</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>328</v>
@@ -35943,20 +36198,14 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C291" s="2" t="s">
+      <c r="A291" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D291">
-        <v>200</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>28</v>
+      <c r="C291" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -35964,15 +36213,21 @@
         <v>55</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D292">
+        <v>200</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>607</v>
+        <v>55</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>328</v>
@@ -35983,65 +36238,59 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B297" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C297" s="2" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B299" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D298">
+      <c r="D299">
         <v>3</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D299">
-        <v>5</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>28</v>
@@ -36052,13 +36301,13 @@
         <v>330</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D300">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>28</v>
@@ -36068,44 +36317,44 @@
       <c r="A301" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="B301" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D301">
+        <v>15</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>424</v>
+      <c r="A302" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>470</v>
+        <v>606</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D304">
-        <v>5</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -36113,74 +36362,74 @@
         <v>470</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="D305">
+        <v>5</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B307" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C307" s="2" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B308" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D308">
+      <c r="D309">
         <v>1000</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B310" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C310" s="2" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D310">
-        <v>30</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -36188,104 +36437,110 @@
         <v>432</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D311">
+        <v>30</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D312">
         <v>100</v>
       </c>
-      <c r="E311" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
+      <c r="E312" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B313" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C313" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="C314" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D313">
+      <c r="D314">
         <v>1000</v>
       </c>
-      <c r="E313" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
+      <c r="E314" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B315" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C315" s="1" t="s">
+      <c r="C315" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>604</v>
+        <v>512</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>328</v>
@@ -36296,29 +36551,35 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>454</v>
+        <v>1949</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D320">
+        <v>1000</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B321" s="2" t="s">
+      <c r="A321" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>369</v>
+        <v>454</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>328</v>
@@ -36329,139 +36590,136 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>369</v>
+        <v>60</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D323">
-        <v>50</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E324" s="1"/>
+      <c r="A324" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D325">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="A326" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D327">
+        <v>80</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D329">
         <v>5</v>
       </c>
-      <c r="E327" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D328">
-        <v>15</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>546</v>
+      <c r="E329" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="D330">
+        <v>15</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>328</v>
+        <v>546</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D332">
-        <v>200</v>
+      <c r="A332" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>328</v>
@@ -36472,207 +36730,201 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>499</v>
+        <v>622</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D334">
-        <v>250</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D336">
+        <v>250</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B337" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C337" s="1" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D336">
-        <v>150</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D337">
-        <v>30</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D338">
+        <v>150</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B339" s="1" t="s">
+      <c r="A339" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>323</v>
+      <c r="C339" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D339">
+        <v>30</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>633</v>
+        <v>393</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D340" t="s">
-        <v>441</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>625</v>
+        <v>552</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>323</v>
+      <c r="A342" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D342" t="s">
+        <v>441</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D343">
+      <c r="D345">
         <v>1000</v>
       </c>
-      <c r="E343" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
+      <c r="E345" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B346" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C346" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D344">
+      <c r="D346">
         <v>100</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
+      <c r="E346" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B347" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C345" s="2" t="s">
+      <c r="C347" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D345">
+      <c r="D347">
         <v>30</v>
       </c>
-      <c r="E345" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D346">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D347">
-        <v>1</v>
-      </c>
       <c r="E347" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -36680,15 +36932,18 @@
         <v>564</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D348">
+        <v>400</v>
+      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>328</v>
@@ -36704,8 +36959,8 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>448</v>
+      <c r="A350" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>471</v>
@@ -36716,214 +36971,214 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>533</v>
+        <v>448</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>529</v>
+      <c r="A352" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>530</v>
+        <v>328</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D353">
-        <v>200</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D355">
+        <v>200</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="C356" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B357" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C357" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D355">
+      <c r="D357">
         <v>3</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+      <c r="E357" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B358" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C358" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B359" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C359" s="2" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>593</v>
+        <v>547</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>594</v>
+        <v>320</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>594</v>
+        <v>320</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D361">
-        <v>15</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>28</v>
+      <c r="A361" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>518</v>
+        <v>594</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D362">
-        <v>1000</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>22</v>
+        <v>594</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>501</v>
+        <v>1936</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
+      </c>
+      <c r="D363">
+        <v>15</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D364">
+        <v>1000</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
         <v>1908</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D364">
+      <c r="D366">
         <v>30</v>
       </c>
-      <c r="E364" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D365">
-        <v>50</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>328</v>
+      <c r="E366" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -36931,47 +37186,41 @@
         <v>345</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D367">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C368" s="1" t="s">
+      <c r="B368" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D368">
-        <v>10</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>28</v>
+      <c r="C368" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="D369">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>28</v>
@@ -36979,30 +37228,36 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D370">
+        <v>10</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C370" s="1" t="s">
+      <c r="B371" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D370">
-        <v>1000</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>471</v>
+      <c r="D371">
+        <v>200</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -37010,13 +37265,13 @@
         <v>377</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D372">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>22</v>
@@ -37024,150 +37279,150 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>1881</v>
+        <v>377</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E373" s="1"/>
+        <v>471</v>
+      </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>1922</v>
+        <v>377</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1923</v>
+        <v>323</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D374">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>603</v>
+        <v>1881</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D375">
-        <v>100</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E375" s="1"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D376">
+        <v>200</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D377">
+        <v>100</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D376">
+      <c r="D378">
         <v>10</v>
       </c>
-      <c r="E376" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+      <c r="E378" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B379" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C379" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D377">
+      <c r="D379">
         <v>30</v>
       </c>
-      <c r="E377" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D378">
-        <v>200</v>
-      </c>
-      <c r="E378" s="1"/>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>471</v>
+      <c r="E379" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>338</v>
+        <v>538</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D380">
         <v>200</v>
       </c>
-      <c r="E380" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E380" s="1"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B382" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="D382">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>28</v>
@@ -37177,104 +37432,132 @@
       <c r="A383" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="B383" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>414</v>
+        <v>338</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D384">
+        <v>30</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D385">
-        <v>20</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>28</v>
+      <c r="A385" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>518</v>
+        <v>328</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D386">
-        <v>1000</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
+      </c>
+      <c r="D387">
+        <v>20</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>628</v>
+        <v>517</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>328</v>
+        <v>518</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
+      </c>
+      <c r="D388">
+        <v>1000</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>595</v>
+        <v>517</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="B392" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="C392" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B393" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C393" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -37488,10 +37771,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38371,6 +38654,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>105</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -38379,10 +38670,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255"/>
+    <sheetView topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41167,6 +41458,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>105</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C255" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>105</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>105</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -41175,10 +41499,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46479,7 +46803,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>464</v>
+        <v>1950</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>22</v>
@@ -46502,7 +46826,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>22</v>
@@ -46520,18 +46844,18 @@
         <v>28</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>604</v>
+        <v>512</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>22</v>
@@ -46543,81 +46867,81 @@
         <v>28</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G234" s="1" t="s">
+      <c r="B236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G236" s="1" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>610</v>
+        <v>60</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>22</v>
@@ -46632,15 +46956,15 @@
         <v>22</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>22</v>
@@ -46649,7 +46973,7 @@
         <v>22</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>22</v>
@@ -46658,12 +46982,12 @@
         <v>28</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>546</v>
+      <c r="A239" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>22</v>
@@ -46678,15 +47002,15 @@
         <v>22</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>22</v>
@@ -46701,15 +47025,15 @@
         <v>22</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>22</v>
@@ -46727,12 +47051,12 @@
         <v>28</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>622</v>
+      <c r="A242" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>22</v>
@@ -46747,15 +47071,15 @@
         <v>22</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>22</v>
@@ -46778,7 +47102,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>509</v>
+        <v>622</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>22</v>
@@ -46801,122 +47125,122 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G245" s="1" t="s">
+      <c r="B247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G246" s="1" t="s">
+      <c r="B248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G247" s="1" t="s">
+      <c r="B249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>721</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>625</v>
+        <v>552</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>22</v>
@@ -46934,104 +47258,104 @@
         <v>28</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G251" s="1" t="s">
+      <c r="B253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G252" s="1" t="s">
+      <c r="B254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>22</v>
@@ -47054,36 +47378,36 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>529</v>
+        <v>448</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>22</v>
@@ -47099,37 +47423,37 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>360</v>
+      <c r="A258" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
-        <v>375</v>
+      <c r="A259" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>22</v>
@@ -47141,12 +47465,12 @@
         <v>28</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>497</v>
+        <v>360</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>22</v>
@@ -47168,31 +47492,31 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>630</v>
+      <c r="A261" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>547</v>
+      <c r="A262" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>22</v>
@@ -47214,31 +47538,31 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>408</v>
+      <c r="A263" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>593</v>
+        <v>547</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>22</v>
@@ -47253,38 +47577,38 @@
         <v>22</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G264" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G265" s="1" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>22</v>
@@ -47299,15 +47623,15 @@
         <v>22</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>583</v>
+        <v>1936</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>22</v>
@@ -47325,18 +47649,18 @@
         <v>28</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>1908</v>
+        <v>501</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>22</v>
@@ -47352,8 +47676,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>345</v>
+      <c r="A269" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>22</v>
@@ -47371,18 +47695,18 @@
         <v>28</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>377</v>
+      <c r="A270" s="1" t="s">
+        <v>1908</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>22</v>
@@ -47394,12 +47718,12 @@
         <v>28</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>377</v>
+        <v>726</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>1881</v>
+        <v>345</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>22</v>
@@ -47417,12 +47741,12 @@
         <v>28</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>1922</v>
+        <v>377</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>22</v>
@@ -47431,7 +47755,7 @@
         <v>22</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>22</v>
@@ -47440,12 +47764,12 @@
         <v>28</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>730</v>
+        <v>377</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>603</v>
+        <v>1881</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>22</v>
@@ -47468,7 +47792,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>404</v>
+        <v>1922</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>22</v>
@@ -47477,7 +47801,7 @@
         <v>22</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>22</v>
@@ -47486,12 +47810,12 @@
         <v>28</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>538</v>
+      <c r="A275" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>22</v>
@@ -47509,35 +47833,35 @@
         <v>28</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>414</v>
+        <v>538</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>22</v>
@@ -47546,7 +47870,7 @@
         <v>22</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>22</v>
@@ -47555,12 +47879,12 @@
         <v>28</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>517</v>
+      <c r="A278" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>22</v>
@@ -47583,7 +47907,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>628</v>
+        <v>414</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>22</v>
@@ -47606,70 +47930,116 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>595</v>
+        <v>517</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G281" s="1" t="s">
+      <c r="B283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G283" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G282" s="1" t="s">
+      <c r="B284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G284" s="1" t="s">
         <v>720</v>
       </c>
     </row>
@@ -47681,10 +48051,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J978"/>
+  <dimension ref="A1:J983"/>
   <sheetViews>
-    <sheetView topLeftCell="A957" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A978" sqref="A978"/>
+    <sheetView topLeftCell="A962" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A983" sqref="A983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62612,6 +62982,46 @@
       </c>
       <c r="B978" s="1" t="s">
         <v>1943</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>1952</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12481" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12477" uniqueCount="2010">
   <si>
     <t>id</t>
   </si>
@@ -6485,7 +6485,7 @@
   <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13839,7 +13839,7 @@
   <dimension ref="A1:G1281"/>
   <sheetViews>
     <sheetView topLeftCell="A1264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1282" sqref="B1282"/>
+      <selection activeCell="D1273" sqref="D1273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34081,7 +34081,7 @@
         <v>0.5</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1274" spans="1:5" x14ac:dyDescent="0.25">
@@ -34095,7 +34095,7 @@
         <v>0.5</v>
       </c>
       <c r="D1274" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1275" spans="1:5" x14ac:dyDescent="0.25">
@@ -34109,7 +34109,7 @@
         <v>0.25</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1276" spans="1:5" x14ac:dyDescent="0.25">
@@ -34183,10 +34183,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F409"/>
+  <dimension ref="A1:F408"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36810,21 +36810,15 @@
         <v>411</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D201">
-        <v>3</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>332</v>
@@ -36835,7 +36829,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>332</v>
@@ -36846,57 +36840,57 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>422</v>
+        <v>1850</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>1850</v>
+        <v>591</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>602</v>
+        <v>496</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -36904,79 +36898,79 @@
         <v>461</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D209">
+        <v>30</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D210">
-        <v>30</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>28</v>
+      <c r="A210" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="A211" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D212">
+        <v>10</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>527</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="A214" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D214">
-        <v>3</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>28</v>
+      <c r="C214" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -36984,55 +36978,55 @@
         <v>343</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="18" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D216">
-        <v>3</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="C217" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="18" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C218" s="2" t="s">
+      <c r="A218" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D218">
-        <v>20</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>28</v>
+      <c r="C218" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -37040,32 +37034,32 @@
         <v>431</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D219">
+        <v>1000</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D220">
-        <v>1000</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>22</v>
+      <c r="A220" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>1869</v>
+        <v>339</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>320</v>
@@ -37078,29 +37072,35 @@
       <c r="A222" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
+        <v>1899</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>1899</v>
+        <v>364</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>383</v>
+        <v>471</v>
+      </c>
+      <c r="D224">
+        <v>150</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -37108,13 +37108,13 @@
         <v>364</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D225">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>22</v>
@@ -37124,27 +37124,21 @@
       <c r="A226" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D226">
-        <v>30</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>364</v>
+      <c r="A227" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>548</v>
+        <v>381</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>320</v>
@@ -37154,24 +37148,24 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B229" s="1" t="s">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>320</v>
@@ -37182,46 +37176,46 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>320</v>
+        <v>563</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>320</v>
+        <v>563</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>562</v>
+        <v>2003</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>563</v>
+        <v>323</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>563</v>
+        <v>328</v>
+      </c>
+      <c r="D233">
+        <v>20</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>2003</v>
+        <v>440</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D234">
-        <v>20</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>320</v>
@@ -37232,13 +37226,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>567</v>
+        <v>514</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -37246,54 +37240,54 @@
         <v>514</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D238">
-        <v>5</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>458</v>
+        <v>328</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>458</v>
+        <v>328</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>584</v>
+        <v>130</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>328</v>
@@ -37304,7 +37298,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>328</v>
@@ -37318,55 +37312,55 @@
         <v>68</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D243">
+        <v>1000</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D244">
-        <v>1000</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>22</v>
+        <v>424</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>117</v>
+        <v>1919</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
+      </c>
+      <c r="D245">
+        <v>10</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>1919</v>
+        <v>233</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D246">
-        <v>10</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -37374,149 +37368,152 @@
         <v>233</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D247">
+        <v>1000</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>233</v>
+        <v>536</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D248">
-        <v>1000</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>545</v>
+        <v>481</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>471</v>
+      <c r="A251" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D251">
+        <v>0.3</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C252" s="2" t="s">
+      <c r="B252" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D252">
-        <v>0.3</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>22</v>
+      <c r="C252" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>391</v>
+        <v>91</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>91</v>
+        <v>344</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D255">
+        <v>1000</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C256" s="1" t="s">
+      <c r="B256" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D256">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B257" s="2" t="s">
+      <c r="A257" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D257">
-        <v>150</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>28</v>
+      <c r="C257" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>300</v>
+        <v>515</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>320</v>
+        <v>471</v>
+      </c>
+      <c r="D258">
+        <v>200</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -37524,40 +37521,37 @@
         <v>515</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>319</v>
+        <v>471</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D259">
-        <v>200</v>
-      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>471</v>
@@ -37567,25 +37561,25 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>471</v>
+      <c r="A263" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>332</v>
+      <c r="A264" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -37593,24 +37587,30 @@
         <v>582</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D265">
+        <v>20</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C266" s="1" t="s">
+      <c r="A266" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D266">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>28</v>
@@ -37621,13 +37621,13 @@
         <v>327</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D267">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>28</v>
@@ -37638,16 +37638,10 @@
         <v>327</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D268">
-        <v>30</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -37655,24 +37649,30 @@
         <v>327</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D269">
+        <v>10</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C270" s="2" t="s">
+      <c r="B270" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D270">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>28</v>
@@ -37682,78 +37682,72 @@
       <c r="A271" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D271">
-        <v>30</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>327</v>
+        <v>609</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
+      </c>
+      <c r="D273">
+        <v>200</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D274">
-        <v>200</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="D275">
+        <v>200</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>600</v>
+        <v>457</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D276">
-        <v>200</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -37761,32 +37755,32 @@
         <v>457</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -37794,32 +37788,32 @@
         <v>508</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D280">
+        <v>20</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D281">
-        <v>20</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>28</v>
+        <v>323</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>323</v>
@@ -37830,100 +37824,100 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>450</v>
+        <v>361</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>471</v>
+      <c r="D284">
+        <v>30</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D285">
-        <v>30</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>22</v>
+      <c r="A285" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="D286">
+        <v>1000</v>
+      </c>
+      <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D287">
-        <v>1000</v>
-      </c>
-      <c r="E287" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B288" s="2" t="s">
+      <c r="A288" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D288">
-        <v>200</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>28</v>
+      <c r="C288" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>142</v>
+        <v>601</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>601</v>
+        <v>498</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>328</v>
@@ -37937,76 +37931,76 @@
         <v>498</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D291">
+        <v>10</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D292">
-        <v>10</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>28</v>
+        <v>447</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>447</v>
+        <v>1918</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D293">
+        <v>10</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>1918</v>
+        <v>359</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D294">
-        <v>10</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>359</v>
+        <v>578</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C296" s="2" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>320</v>
@@ -38017,13 +38011,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>399</v>
+        <v>597</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -38031,24 +38025,30 @@
         <v>597</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>471</v>
+        <v>319</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>471</v>
       </c>
+      <c r="D299">
+        <v>200</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B300" s="2" t="s">
+      <c r="A300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>471</v>
+      <c r="C300" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="D300">
         <v>200</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -38056,21 +38056,15 @@
         <v>97</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D301">
-        <v>200</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>97</v>
+        <v>1905</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>328</v>
@@ -38080,14 +38074,20 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B303" s="1" t="s">
+      <c r="A303" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C303" s="1" t="s">
-        <v>328</v>
+      <c r="D303">
+        <v>200</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -38095,21 +38095,15 @@
         <v>55</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D304">
-        <v>200</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>55</v>
+        <v>607</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>328</v>
@@ -38120,59 +38114,65 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
-        <v>382</v>
+      <c r="A307" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>537</v>
+      <c r="A308" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>380</v>
+      <c r="A309" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
+      </c>
+      <c r="D310">
+        <v>3</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C311" s="1" t="s">
+      <c r="B311" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D311">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>28</v>
@@ -38183,13 +38183,13 @@
         <v>330</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D312">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>28</v>
@@ -38199,44 +38199,44 @@
       <c r="A313" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B313" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D313">
-        <v>15</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>330</v>
+      <c r="A314" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>606</v>
+        <v>470</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>328</v>
+      </c>
+      <c r="D316">
+        <v>150</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -38244,13 +38244,13 @@
         <v>470</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D317">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>28</v>
@@ -38261,74 +38261,74 @@
         <v>470</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D318">
-        <v>50</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B319" s="1" t="s">
+      <c r="A319" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C320" s="2" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="D321">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D322">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>332</v>
+      <c r="D323">
+        <v>30</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -38336,138 +38336,132 @@
         <v>432</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D324">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B325" s="1" t="s">
+      <c r="A325" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D326">
+        <v>1000</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C325" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D325">
-        <v>100</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D327">
-        <v>1000</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>22</v>
+      <c r="C327" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B328" s="2" t="s">
+      <c r="A328" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>512</v>
+        <v>1947</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D332">
+        <v>1000</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>1947</v>
+        <v>604</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D333">
-        <v>1000</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>604</v>
+        <v>454</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>328</v>
@@ -38477,93 +38471,99 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B335" s="1" t="s">
+      <c r="A335" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C335" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B336" s="2" t="s">
+      <c r="A336" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C336" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>328</v>
+      <c r="D337">
+        <v>50</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>369</v>
+        <v>610</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D338">
-        <v>50</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E338" s="1"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>610</v>
+        <v>331</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E339" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="D339">
+        <v>80</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C340" s="2" t="s">
+      <c r="B340" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D340">
-        <v>80</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>28</v>
+      <c r="C340" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>328</v>
+      <c r="D341">
+        <v>5</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -38571,60 +38571,54 @@
         <v>331</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D342">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C343" s="2" t="s">
+      <c r="A343" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D343">
-        <v>15</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>332</v>
+      <c r="C345" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>473</v>
+        <v>622</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -38632,24 +38626,24 @@
         <v>622</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>471</v>
+        <v>319</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D347">
+        <v>200</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>622</v>
+        <v>499</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D348">
-        <v>200</v>
+        <v>328</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -38657,38 +38651,44 @@
         <v>499</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D349">
+        <v>250</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C350" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D350">
-        <v>250</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>332</v>
+      <c r="D351">
+        <v>150</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -38696,13 +38696,13 @@
         <v>366</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D352">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>28</v>
@@ -38710,131 +38710,128 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D353">
-        <v>30</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>328</v>
+      <c r="A354" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>323</v>
+      <c r="A355" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D355" t="s">
+        <v>441</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D356" t="s">
-        <v>441</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>441</v>
+      <c r="A356" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="D358">
+        <v>1000</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C359" s="1" t="s">
+      <c r="B359" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D359">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D360">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C361" s="2" t="s">
+      <c r="A361" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D361">
-        <v>30</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>22</v>
+        <v>400</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -38842,13 +38839,16 @@
         <v>564</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>530</v>
+        <v>328</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D362">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -38856,60 +38856,54 @@
         <v>564</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D363">
-        <v>1</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>564</v>
+        <v>448</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D365">
-        <v>1</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>448</v>
+      <c r="A366" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>328</v>
@@ -38923,127 +38917,133 @@
         <v>529</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>328</v>
+        <v>530</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D368">
+        <v>200</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>529</v>
+        <v>360</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>530</v>
+        <v>332</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D369">
-        <v>200</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B370" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C370" s="1" t="s">
-        <v>332</v>
+      <c r="D370">
+        <v>3</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D371">
-        <v>3</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
-        <v>375</v>
+      <c r="A372" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>328</v>
+        <v>547</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>320</v>
+      <c r="A374" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>409</v>
+      <c r="A375" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>593</v>
+        <v>1934</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>594</v>
+        <v>323</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>594</v>
+        <v>328</v>
+      </c>
+      <c r="D376">
+        <v>15</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>1934</v>
+        <v>501</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D377">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -39051,41 +39051,41 @@
         <v>501</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D378">
-        <v>1000</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>501</v>
+        <v>1906</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
+      </c>
+      <c r="D379">
+        <v>30</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C380" s="1" t="s">
+      <c r="A380" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D380">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>28</v>
@@ -39096,16 +39096,10 @@
         <v>345</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D381">
-        <v>50</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -39113,20 +39107,26 @@
         <v>345</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D382">
+        <v>10</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C383" s="2" t="s">
+      <c r="B383" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D383">
@@ -39137,37 +39137,37 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>328</v>
+      <c r="A384" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D384">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B385" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C385" s="2" t="s">
+      <c r="B385" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D385">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -39175,16 +39175,10 @@
         <v>377</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="D386">
-        <v>1000</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -39192,53 +39186,59 @@
         <v>377</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D387">
+        <v>30</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>377</v>
+        <v>1879</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D388">
-        <v>30</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E388" s="1"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>1879</v>
+        <v>1920</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>328</v>
+        <v>1921</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E389" s="1"/>
+      <c r="D389">
+        <v>200</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>1920</v>
+        <v>603</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1921</v>
+        <v>320</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D390">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>28</v>
@@ -39246,33 +39246,33 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>603</v>
+        <v>404</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D391">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C392" s="1" t="s">
+      <c r="B392" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D392">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>22</v>
@@ -39280,45 +39280,45 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>404</v>
+        <v>538</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D393">
-        <v>30</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E393" s="1"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D394">
+      <c r="C395" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D395">
         <v>200</v>
       </c>
-      <c r="E394" s="1"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>471</v>
+      <c r="E395" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -39326,66 +39326,60 @@
         <v>338</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D396">
-        <v>200</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="D397">
+        <v>30</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D398">
-        <v>30</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>338</v>
+      <c r="D399">
+        <v>20</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>1993</v>
+        <v>414</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D400">
-        <v>20</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -39393,27 +39387,33 @@
         <v>414</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D401">
+        <v>20</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D402">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -39421,38 +39421,38 @@
         <v>517</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D403">
-        <v>1000</v>
-      </c>
-      <c r="E403" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>328</v>
+        <v>594</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -39460,48 +39460,31 @@
         <v>595</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>332</v>
+        <v>594</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D406">
-        <v>1</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>595</v>
+        <v>401</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>594</v>
+        <v>320</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>594</v>
+        <v>320</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B408" s="1" t="s">
+      <c r="A408" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C408" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C409" s="2" t="s">
+      <c r="C408" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -40656,7 +40639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
@@ -50466,8 +50449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1011"/>
   <sheetViews>
-    <sheetView topLeftCell="A991" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1009" sqref="A1009"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12477" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12582" uniqueCount="2022">
   <si>
     <t>id</t>
   </si>
@@ -6061,6 +6061,42 @@
   </si>
   <si>
     <t>it/ricette/paesi-mediterranei/italia/melanzane-georgiane-alla-armena</t>
+  </si>
+  <si>
+    <t>recipes/asia/pakistan/palak-murgh-pakistani-marinated-chicken-with-basmati-rice</t>
+  </si>
+  <si>
+    <t>Palak murgh (pakistani marinated chicken with basmati rice)</t>
+  </si>
+  <si>
+    <t>mortar</t>
+  </si>
+  <si>
+    <t>removed fat parts; cut into cubes of 3 cm</t>
+  </si>
+  <si>
+    <t>Palak murgh (pollo marinato alla pakistana con riso basmati)</t>
+  </si>
+  <si>
+    <t>it/ricette/asia/pakistan/palak-murgh-pollo-marinato-alla-pakistana-con-riso-basmati</t>
+  </si>
+  <si>
+    <t>rimosso il grasso; tagliato a cubi di 3 cm</t>
+  </si>
+  <si>
+    <t>mortaio</t>
+  </si>
+  <si>
+    <t>3 cm long</t>
+  </si>
+  <si>
+    <t>lunga 3 cm</t>
+  </si>
+  <si>
+    <t>ground fenugreek</t>
+  </si>
+  <si>
+    <t>fieno greco</t>
   </si>
 </sst>
 </file>
@@ -6482,10 +6518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11439,6 +11475,50 @@
         <v>28</v>
       </c>
       <c r="P112" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D113" s="1">
+        <v>60</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1">
+        <v>4</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P113" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11825,10 +11905,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13407,6 +13487,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1">
+        <v>112</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13415,10 +13509,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13828,6 +13922,14 @@
         <v>1992</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13836,10 +13938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1281"/>
+  <dimension ref="A1:G1306"/>
   <sheetViews>
-    <sheetView topLeftCell="A1264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1273" sqref="D1273"/>
+    <sheetView topLeftCell="A1286" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1302" sqref="B1302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34120,10 +34222,10 @@
         <v>336</v>
       </c>
       <c r="C1276" s="1">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1277" spans="1:5" x14ac:dyDescent="0.25">
@@ -34134,7 +34236,7 @@
         <v>2003</v>
       </c>
       <c r="C1277" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1277" s="1" t="s">
         <v>323</v>
@@ -34167,12 +34269,377 @@
         <v>585</v>
       </c>
     </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1281" s="1">
         <v>111</v>
       </c>
       <c r="B1281" s="13" t="s">
         <v>2004</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1282" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1282" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1282" s="1">
+        <v>400</v>
+      </c>
+      <c r="D1282" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1282" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1283" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1283" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1283" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1283" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1284" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1284" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1284" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1284" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1284" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1285" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1285" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1285" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1285" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1285" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1286" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1286" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1286" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1286" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1286" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1287" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1287" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1287" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1287" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1288" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1288" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1288" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1288" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1288" s="13" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1289" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1289" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1289" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1289" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1290" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1290" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1290" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1290" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1291" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1291" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1291" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1291" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1292" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1292" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1292" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1292" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1293" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1293" s="13" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C1293" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1293" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1294" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1294" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1294" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1294" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1295" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1295" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1295" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1295" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1296" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1296" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1296" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1296" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1297" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1297" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1297" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1297" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1297" s="1" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1298" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1298" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1298" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1298" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1299" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1299" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1299" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1299" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1300" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1300" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1300" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1300" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1301" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1301" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1302" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1302" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1302" s="1">
+        <v>250</v>
+      </c>
+      <c r="D1302" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1302" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1303" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1303" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1303" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1303" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1304" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1304" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1304" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1304" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1305" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1305" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1305" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1305" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1305" s="1" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1306" s="1">
+        <v>112</v>
+      </c>
+      <c r="B1306" s="13" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -34183,10 +34650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F408"/>
+  <dimension ref="A1:F411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36419,78 +36886,90 @@
         <v>418</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D171">
+        <v>30</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="C172" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D172">
+        <v>10</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>1970</v>
+        <v>324</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E174" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>420</v>
+        <v>1970</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>468</v>
+        <v>328</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D175">
-        <v>10</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>328</v>
+        <v>468</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>328</v>
+      </c>
+      <c r="D176">
+        <v>10</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -36498,16 +36977,10 @@
         <v>420</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D177">
-        <v>10</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -36515,13 +36988,13 @@
         <v>420</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D178">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>28</v>
@@ -36532,13 +37005,13 @@
         <v>420</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D179">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>28</v>
@@ -36546,19 +37019,24 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>615</v>
+        <v>420</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E180" s="1"/>
+      <c r="D180">
+        <v>100</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>328</v>
@@ -36570,42 +37048,42 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>1954</v>
+        <v>605</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>617</v>
+        <v>1954</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E184" s="1"/>
+        <v>320</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>328</v>
@@ -36617,7 +37095,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>328</v>
@@ -36628,175 +37106,176 @@
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C187" s="2" t="s">
+      <c r="A187" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D187">
-        <v>200</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C187" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D188">
+        <v>200</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D189">
-        <v>30</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>28</v>
+      <c r="C189" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>531</v>
+        <v>336</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D190">
+        <v>30</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>1880</v>
+        <v>427</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D192">
-        <v>50</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>532</v>
+        <v>1880</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D193">
+        <v>50</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>328</v>
+        <v>532</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>342</v>
+        <v>523</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D195">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D196">
         <v>20</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D196">
-        <v>100</v>
-      </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D197">
+        <v>100</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>353</v>
+        <v>524</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>493</v>
+        <v>353</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>332</v>
@@ -36807,7 +37286,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>332</v>
@@ -36818,7 +37297,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>332</v>
@@ -36829,7 +37308,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>332</v>
@@ -36840,29 +37319,29 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>1850</v>
+        <v>2020</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>591</v>
+        <v>422</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>602</v>
+        <v>1850</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>328</v>
@@ -36873,288 +37352,294 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>496</v>
+        <v>591</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>461</v>
+        <v>602</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D209">
-        <v>30</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>320</v>
+      <c r="C210" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D211">
+        <v>30</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D212">
-        <v>10</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>28</v>
+      <c r="A212" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D213">
-        <v>3</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D215">
         <v>3</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="18" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="18" t="s">
         <v>2002</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D217">
+      <c r="D219">
         <v>10</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="E219" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D219">
+      <c r="D221">
         <v>1000</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>320</v>
+      <c r="E221" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
+        <v>1869</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>1899</v>
+        <v>339</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D224">
-        <v>150</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>364</v>
+        <v>1899</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D225">
-        <v>30</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>22</v>
+        <v>383</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="B226" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D226">
+        <v>150</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D227">
+        <v>30</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>320</v>
@@ -37164,141 +37649,135 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>320</v>
+      <c r="A231" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>562</v>
+        <v>439</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>563</v>
+        <v>320</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>563</v>
+        <v>320</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>2003</v>
+        <v>488</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D233">
-        <v>20</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>320</v>
+        <v>563</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>320</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>567</v>
+        <v>2003</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
+      </c>
+      <c r="D235">
+        <v>20</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D237">
-        <v>5</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>458</v>
+        <v>328</v>
+      </c>
+      <c r="D239">
+        <v>5</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>130</v>
+        <v>569</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>68</v>
+        <v>584</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>328</v>
@@ -37309,80 +37788,74 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D243">
-        <v>1000</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>1919</v>
+        <v>68</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D245">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>233</v>
+        <v>1919</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D247">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>536</v>
+        <v>233</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>328</v>
@@ -37393,154 +37866,160 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>545</v>
+        <v>233</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="D249">
+        <v>1000</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D251">
-        <v>0.3</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>22</v>
+      <c r="A251" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B253" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>391</v>
+      <c r="D253">
+        <v>0.3</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C255" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D255">
-        <v>1000</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D256">
-        <v>150</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D257">
+        <v>1000</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>471</v>
+      <c r="C258" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D258">
-        <v>200</v>
+        <v>150</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>515</v>
+        <v>300</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>320</v>
+        <v>471</v>
+      </c>
+      <c r="D260">
+        <v>200</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>471</v>
@@ -37551,83 +38030,71 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>570</v>
+        <v>516</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D265">
+      <c r="D267">
         <v>20</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D266">
-        <v>50</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D267">
-        <v>30</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>28</v>
@@ -37638,10 +38105,16 @@
         <v>327</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>328</v>
+      </c>
+      <c r="D268">
+        <v>50</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -37649,85 +38122,85 @@
         <v>327</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D269">
+        <v>30</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D271">
         <v>10</v>
       </c>
-      <c r="E269" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D270">
-        <v>30</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>327</v>
+      <c r="E271" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>609</v>
+        <v>327</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
+      </c>
+      <c r="D272">
+        <v>30</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D273">
-        <v>200</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>28</v>
+        <v>327</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>328</v>
@@ -37741,216 +38214,222 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>457</v>
+        <v>565</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>457</v>
+        <v>600</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>458</v>
+        <v>328</v>
+      </c>
+      <c r="D277">
+        <v>200</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D280">
-        <v>20</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="D282">
+        <v>20</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B284" s="2" t="s">
+      <c r="A284" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C284" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D284">
-        <v>30</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>22</v>
+      <c r="C284" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>175</v>
+        <v>361</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D286">
+        <v>30</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B287" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C288" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D286">
+      <c r="D288">
         <v>1000</v>
       </c>
-      <c r="E286" s="1"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B289" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C289" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D287">
+      <c r="D289">
         <v>200</v>
       </c>
-      <c r="E287" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>328</v>
+      <c r="E289" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>498</v>
+        <v>142</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>498</v>
+        <v>601</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D291">
-        <v>10</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>447</v>
+        <v>498</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>1918</v>
+        <v>498</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>332</v>
@@ -37967,229 +38446,217 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>320</v>
+        <v>447</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D295">
+        <v>10</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B297" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>597</v>
+        <v>354</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B300" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C301" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D299">
+      <c r="D301">
         <v>200</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D300">
-        <v>200</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>1905</v>
+        <v>97</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D302">
+        <v>200</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C303" s="2" t="s">
+      <c r="A303" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D303">
-        <v>200</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>28</v>
+      <c r="C303" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B304" s="2" t="s">
+      <c r="A304" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>607</v>
+        <v>55</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D305">
+        <v>200</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>382</v>
+        <v>55</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>537</v>
+      <c r="A307" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D310">
+      <c r="D312">
         <v>3</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D311">
-        <v>5</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D312">
-        <v>15</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>28</v>
@@ -38199,61 +38666,61 @@
       <c r="A313" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="B313" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D313">
+        <v>5</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>424</v>
+      <c r="A314" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D314">
+        <v>15</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>328</v>
+      <c r="A315" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>470</v>
+        <v>579</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D316">
-        <v>150</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>28</v>
+        <v>424</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>470</v>
+        <v>606</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D317">
-        <v>50</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -38261,196 +38728,202 @@
         <v>470</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D318">
+        <v>150</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>323</v>
+      <c r="A319" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D319">
+        <v>50</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B322" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C322" s="2" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D321">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>432</v>
+        <v>571</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D323">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D325">
         <v>30</v>
       </c>
-      <c r="E323" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D324">
-        <v>100</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>328</v>
+      <c r="E325" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D326">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>436</v>
+        <v>74</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D328">
+        <v>1000</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="C329" s="2" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>1947</v>
+        <v>464</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D332">
-        <v>1000</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>604</v>
+        <v>512</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>328</v>
@@ -38461,29 +38934,35 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>454</v>
+        <v>1947</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D334">
+        <v>1000</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B335" s="2" t="s">
+      <c r="A335" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C335" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>369</v>
+        <v>454</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>328</v>
@@ -38494,361 +38973,352 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>369</v>
+        <v>60</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D337">
-        <v>50</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E338" s="1"/>
+      <c r="A338" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D339">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="A340" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E340" s="1"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D341">
+        <v>80</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D343">
         <v>5</v>
       </c>
-      <c r="E341" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D342">
-        <v>15</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>546</v>
+      <c r="E343" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="D344">
+        <v>15</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>328</v>
+        <v>546</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>471</v>
+      <c r="A346" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>622</v>
+        <v>473</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D347">
-        <v>200</v>
+        <v>328</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>499</v>
+        <v>622</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>499</v>
+        <v>622</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D349">
-        <v>250</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D351">
+        <v>250</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C352" s="1" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D351">
-        <v>150</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D352">
-        <v>30</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D353">
+        <v>150</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B354" s="1" t="s">
+      <c r="A354" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>323</v>
+      <c r="C354" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D354">
+        <v>30</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>633</v>
+        <v>393</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D355" t="s">
-        <v>441</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>625</v>
+        <v>552</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>323</v>
+      <c r="A357" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D357" t="s">
+        <v>441</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B360" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D358">
+      <c r="D360">
         <v>1000</v>
       </c>
-      <c r="E358" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
+      <c r="E360" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B361" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C361" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D359">
+      <c r="D361">
         <v>100</v>
       </c>
-      <c r="E359" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
+      <c r="E361" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B362" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C362" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D360">
+      <c r="D362">
         <v>30</v>
       </c>
-      <c r="E360" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D361">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D362">
-        <v>1</v>
-      </c>
       <c r="E362" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -38856,15 +39326,18 @@
         <v>564</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D363">
+        <v>400</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>328</v>
@@ -38880,186 +39353,186 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>448</v>
+      <c r="A365" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D365">
+        <v>30</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>529</v>
+        <v>448</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>529</v>
+      <c r="A368" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D368">
-        <v>200</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>28</v>
+        <v>471</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>360</v>
+        <v>533</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D370">
-        <v>3</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>22</v>
+      <c r="A370" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>376</v>
+      <c r="A371" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D371">
+        <v>200</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>328</v>
+        <v>360</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>320</v>
+      <c r="A373" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D373">
+        <v>3</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>594</v>
+        <v>630</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>1934</v>
+        <v>547</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D376">
-        <v>15</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D377">
-        <v>1000</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>22</v>
+      <c r="A377" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>471</v>
+        <v>594</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>471</v>
+        <v>594</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>1906</v>
+        <v>1934</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>323</v>
@@ -39068,69 +39541,69 @@
         <v>328</v>
       </c>
       <c r="D379">
+        <v>15</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D380">
+        <v>1000</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D382">
         <v>30</v>
       </c>
-      <c r="E379" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+      <c r="E382" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B383" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C383" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D380">
+      <c r="D383">
         <v>50</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D382">
-        <v>10</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D383">
-        <v>10</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>28</v>
@@ -39138,353 +39611,398 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D384">
-        <v>200</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>471</v>
+      <c r="A385" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D385">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D386">
+        <v>10</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B387" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C386" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="D387">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>1879</v>
+        <v>377</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>328</v>
+        <v>518</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E388" s="1"/>
+        <v>471</v>
+      </c>
+      <c r="D388">
+        <v>1000</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>1920</v>
+        <v>377</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1921</v>
+        <v>471</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D389">
-        <v>200</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>28</v>
+        <v>471</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>603</v>
+        <v>377</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D390">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>404</v>
+        <v>1879</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D391">
-        <v>10</v>
-      </c>
-      <c r="E391" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E391" s="1"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>471</v>
+      <c r="A392" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="D392">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>471</v>
+      <c r="A393" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="D393">
-        <v>200</v>
-      </c>
-      <c r="E393" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>538</v>
+        <v>404</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>471</v>
+        <v>332</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D394">
+        <v>10</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D395">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>338</v>
+        <v>538</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>328</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="D396">
+        <v>200</v>
+      </c>
+      <c r="E396" s="1"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>338</v>
+        <v>538</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D397">
-        <v>30</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>28</v>
+        <v>471</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="B398" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D398">
+        <v>200</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C399" s="1" t="s">
+      <c r="A399" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D399">
-        <v>20</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>28</v>
+      <c r="C399" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>414</v>
+        <v>338</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D400">
+        <v>30</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D401">
-        <v>20</v>
-      </c>
-      <c r="E401" s="1" t="s">
-        <v>28</v>
+      <c r="A401" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>517</v>
+        <v>1993</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="D402">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>628</v>
+        <v>414</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D404">
+        <v>20</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>595</v>
+        <v>517</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>332</v>
+        <v>518</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="D405">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>595</v>
+        <v>517</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="B410" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C407" s="1" t="s">
+      <c r="C410" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B411" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="C411" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -39698,10 +40216,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40629,6 +41147,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>111</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>112</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -40637,10 +41171,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278"/>
+    <sheetView topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43680,6 +44214,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>112</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>112</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>112</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>112</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -43688,10 +44263,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46991,7 +47566,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>422</v>
+        <v>2020</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>22</v>
@@ -47013,8 +47588,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>591</v>
+      <c r="A145" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>22</v>
@@ -47029,268 +47604,268 @@
         <v>22</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>496</v>
+        <v>602</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" s="1" t="s">
+      <c r="B149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" s="1" t="s">
+      <c r="B150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" s="1" t="s">
+      <c r="B152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G153" s="1" t="s">
+      <c r="B154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
         <v>2002</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" s="1" t="s">
+      <c r="B155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G155" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>724</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>339</v>
+        <v>1869</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>22</v>
@@ -47308,12 +47883,12 @@
         <v>28</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1899</v>
+        <v>339</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>22</v>
@@ -47328,38 +47903,38 @@
         <v>22</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>22</v>
@@ -47381,54 +47956,54 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G161" s="1" t="s">
+      <c r="B162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>22</v>
@@ -47451,7 +48026,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>22</v>
@@ -47463,30 +48038,30 @@
         <v>22</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>2003</v>
+        <v>562</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>28</v>
@@ -47497,13 +48072,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>440</v>
+        <v>2003</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>22</v>
@@ -47515,12 +48090,12 @@
         <v>28</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>567</v>
+        <v>440</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>22</v>
@@ -47538,12 +48113,12 @@
         <v>28</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>1936</v>
+        <v>567</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>22</v>
@@ -47561,12 +48136,12 @@
         <v>28</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>514</v>
+        <v>1936</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>22</v>
@@ -47581,15 +48156,15 @@
         <v>22</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>22</v>
@@ -47604,7 +48179,7 @@
         <v>22</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>715</v>
@@ -47612,13 +48187,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>626</v>
+        <v>535</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>22</v>
@@ -47630,18 +48205,18 @@
         <v>28</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>22</v>
@@ -47650,38 +48225,38 @@
         <v>22</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>130</v>
+        <v>584</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>22</v>
@@ -47704,36 +48279,36 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>22</v>
@@ -47745,18 +48320,18 @@
         <v>28</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>1919</v>
+        <v>117</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>22</v>
@@ -47768,18 +48343,18 @@
         <v>28</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>233</v>
+        <v>1919</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>22</v>
@@ -47791,15 +48366,15 @@
         <v>28</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>536</v>
+        <v>233</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>28</v>
@@ -47814,18 +48389,18 @@
         <v>28</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>22</v>
@@ -47837,12 +48412,12 @@
         <v>28</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>22</v>
@@ -47860,36 +48435,36 @@
         <v>28</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="B183" s="1" t="s">
         <v>22</v>
       </c>
@@ -47903,38 +48478,38 @@
         <v>22</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>22</v>
@@ -47956,8 +48531,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>300</v>
+      <c r="A186" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>22</v>
@@ -47975,12 +48550,12 @@
         <v>28</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>515</v>
+        <v>300</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>22</v>
@@ -48003,7 +48578,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>22</v>
@@ -48026,7 +48601,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>22</v>
@@ -48044,104 +48619,104 @@
         <v>28</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G190" s="1" t="s">
+      <c r="B191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" s="1" t="s">
+      <c r="B192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G192" s="1" t="s">
+      <c r="B193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>721</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>609</v>
+        <v>327</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>22</v>
@@ -48156,7 +48731,7 @@
         <v>22</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>720</v>
@@ -48164,53 +48739,53 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G195" s="1" t="s">
+      <c r="B196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>22</v>
@@ -48228,58 +48803,58 @@
         <v>28</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>457</v>
+        <v>631</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>22</v>
@@ -48297,12 +48872,12 @@
         <v>28</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>22</v>
@@ -48320,12 +48895,12 @@
         <v>28</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>22</v>
@@ -48348,7 +48923,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>22</v>
@@ -48366,12 +48941,12 @@
         <v>28</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>2004</v>
+        <v>450</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>22</v>
@@ -48393,8 +48968,8 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>361</v>
+      <c r="A205" s="1" t="s">
+        <v>2004</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>22</v>
@@ -48412,36 +48987,36 @@
         <v>28</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="B207" s="1" t="s">
         <v>22</v>
       </c>
@@ -48449,7 +49024,7 @@
         <v>22</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>22</v>
@@ -48463,7 +49038,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>601</v>
+        <v>142</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>22</v>
@@ -48478,15 +49053,15 @@
         <v>22</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>498</v>
+        <v>601</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>22</v>
@@ -48501,15 +49076,15 @@
         <v>22</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>22</v>
@@ -48527,12 +49102,12 @@
         <v>28</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>1918</v>
+        <v>447</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>22</v>
@@ -48547,15 +49122,15 @@
         <v>22</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>359</v>
+        <v>1918</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>22</v>
@@ -48570,61 +49145,61 @@
         <v>22</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G213" s="1" t="s">
+      <c r="B214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>717</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>22</v>
@@ -48647,53 +49222,53 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G216" s="1" t="s">
+      <c r="B217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G217" s="1" t="s">
         <v>732</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>1905</v>
+        <v>97</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>22</v>
@@ -48715,31 +49290,31 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>55</v>
+      <c r="A219" s="1" t="s">
+        <v>1905</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>607</v>
+        <v>55</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>22</v>
@@ -48762,352 +49337,352 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G221" s="1" t="s">
+      <c r="B222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G223" s="1" t="s">
+      <c r="B224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G224" s="1" t="s">
+      <c r="B225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G225" s="1" t="s">
+      <c r="B226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G226" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G226" s="1" t="s">
+      <c r="B227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G227" s="1" t="s">
+      <c r="B228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G228" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G228" s="1" t="s">
+      <c r="B229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G229" s="1" t="s">
+      <c r="B230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G230" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G230" s="1" t="s">
+      <c r="B231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G231" s="1" t="s">
+      <c r="B232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G232" s="1" t="s">
+      <c r="B233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G233" s="1" t="s">
+      <c r="B234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>22</v>
@@ -49130,7 +49705,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>22</v>
@@ -49145,15 +49720,15 @@
         <v>22</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>1937</v>
+        <v>463</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>22</v>
@@ -49168,15 +49743,15 @@
         <v>22</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>1948</v>
+        <v>1937</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>22</v>
@@ -49194,12 +49769,12 @@
         <v>28</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>464</v>
+        <v>1948</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>22</v>
@@ -49222,7 +49797,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>22</v>
@@ -49240,12 +49815,12 @@
         <v>28</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>1947</v>
+        <v>512</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>22</v>
@@ -49254,7 +49829,7 @@
         <v>22</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>22</v>
@@ -49263,21 +49838,21 @@
         <v>28</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>604</v>
+        <v>1947</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>22</v>
@@ -49286,58 +49861,58 @@
         <v>28</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G244" s="1" t="s">
+      <c r="B245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>369</v>
+        <v>60</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>22</v>
@@ -49346,7 +49921,7 @@
         <v>22</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>22</v>
@@ -49355,12 +49930,12 @@
         <v>28</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>610</v>
+        <v>369</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>22</v>
@@ -49369,44 +49944,44 @@
         <v>22</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>22</v>
@@ -49428,54 +50003,54 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G250" s="1" t="s">
+      <c r="B251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>715</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>622</v>
+        <v>473</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>22</v>
@@ -49493,12 +50068,12 @@
         <v>28</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>499</v>
+        <v>622</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>22</v>
@@ -49516,12 +50091,12 @@
         <v>28</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>22</v>
@@ -49539,219 +50114,219 @@
         <v>28</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G255" s="1" t="s">
+      <c r="B256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>732</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G257" s="1" t="s">
+      <c r="B258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G258" s="1" t="s">
         <v>721</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>633</v>
+        <v>552</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G261" s="1" t="s">
+      <c r="B262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G262" s="1" t="s">
         <v>715</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>22</v>
@@ -49774,7 +50349,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>22</v>
@@ -49797,76 +50372,76 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>533</v>
+        <v>448</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G267" s="1" t="s">
+      <c r="B268" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G268" s="1" t="s">
         <v>726</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>22</v>
@@ -49884,105 +50459,105 @@
         <v>28</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G270" s="1" t="s">
+      <c r="B271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G271" s="1" t="s">
         <v>715</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G272" s="1" t="s">
+      <c r="B273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G273" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="B274" s="1" t="s">
         <v>22</v>
       </c>
@@ -49996,7 +50571,7 @@
         <v>22</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>722</v>
@@ -50004,7 +50579,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>1934</v>
+        <v>593</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>22</v>
@@ -50019,15 +50594,15 @@
         <v>22</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>501</v>
+        <v>1934</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>22</v>
@@ -50045,12 +50620,12 @@
         <v>28</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>583</v>
+        <v>501</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>22</v>
@@ -50068,58 +50643,58 @@
         <v>28</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G278" s="1" t="s">
+      <c r="B279" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G279" s="1" t="s">
         <v>726</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>22</v>
@@ -50137,12 +50712,12 @@
         <v>28</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>377</v>
+        <v>716</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>1879</v>
+        <v>377</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>22</v>
@@ -50160,12 +50735,12 @@
         <v>28</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>720</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>1920</v>
+        <v>1879</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>22</v>
@@ -50174,7 +50749,7 @@
         <v>22</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>22</v>
@@ -50183,12 +50758,12 @@
         <v>28</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>603</v>
+        <v>1920</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>22</v>
@@ -50197,7 +50772,7 @@
         <v>22</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>22</v>
@@ -50206,110 +50781,110 @@
         <v>28</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G284" s="1" t="s">
+      <c r="B285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G285" s="1" t="s">
+      <c r="B286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G286" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G286" s="1" t="s">
+      <c r="B287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="13" t="s">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="13" t="s">
         <v>1993</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="B288" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>28</v>
@@ -50326,53 +50901,53 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>628</v>
+        <v>517</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>22</v>
@@ -50381,7 +50956,7 @@
         <v>22</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>22</v>
@@ -50390,52 +50965,75 @@
         <v>28</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G292" s="1" t="s">
+      <c r="B293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G293" s="1" t="s">
+      <c r="B294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G294" s="1" t="s">
         <v>720</v>
       </c>
     </row>
@@ -50447,10 +51045,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1011"/>
+  <dimension ref="A1:J1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A1007" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1018" sqref="B1018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65642,6 +66240,54 @@
       </c>
       <c r="B1011" s="1" t="s">
         <v>2008</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" s="13" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12588" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="2027">
   <si>
     <t>id</t>
   </si>
@@ -5927,9 +5927,6 @@
     <t>spezzettato; tostato</t>
   </si>
   <si>
-    <t>Torta alla crema</t>
-  </si>
-  <si>
     <t>uova; farina; zucchero</t>
   </si>
   <si>
@@ -6095,13 +6092,31 @@
     <t>Biber dolmasi</t>
   </si>
   <si>
-    <t>bosnia</t>
-  </si>
-  <si>
     <t>tool_id</t>
   </si>
   <si>
     <t>it/ricette/paesi-mediterranei/italia/torta-con-crema-pasticcera</t>
+  </si>
+  <si>
+    <t>Torta con crema pasticcera</t>
+  </si>
+  <si>
+    <t>Spinach puree</t>
+  </si>
+  <si>
+    <t>recipes/europe/serbia/spinach-puree</t>
+  </si>
+  <si>
+    <t>vegetable stock cube</t>
+  </si>
+  <si>
+    <t>dado per brodo vegetale</t>
+  </si>
+  <si>
+    <t>Pure' di spinaci</t>
+  </si>
+  <si>
+    <t>it/ricette/europa/serbia/pure-di-spinaci</t>
   </si>
 </sst>
 </file>
@@ -6577,10 +6592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="B114" sqref="B114:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11581,6 +11596,50 @@
         <v>28</v>
       </c>
     </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D114" s="1">
+        <v>20</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11605,7 +11664,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>844</v>
@@ -11622,7 +11681,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11633,7 +11692,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11644,7 +11703,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11655,7 +11714,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11666,7 +11725,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11677,7 +11736,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11688,7 +11747,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11699,7 +11758,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11710,7 +11769,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11721,7 +11780,7 @@
         <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11732,7 +11791,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11743,7 +11802,7 @@
         <v>1103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11754,7 +11813,7 @@
         <v>1247</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11765,7 +11824,7 @@
         <v>1241</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11776,7 +11835,7 @@
         <v>735</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11787,7 +11846,7 @@
         <v>1271</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -11798,7 +11857,7 @@
         <v>1021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -11809,7 +11868,7 @@
         <v>1054</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
   </sheetData>
@@ -11839,19 +11898,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1997</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1999</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2000</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2001</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11859,10 +11918,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2002</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2003</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -11876,10 +11935,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2004</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2005</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -11893,10 +11952,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2006</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2007</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -11910,10 +11969,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2008</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2009</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -11927,10 +11986,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2010</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2011</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -11944,10 +12003,10 @@
         <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2012</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2013</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -11964,10 +12023,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A113" activeCellId="1" sqref="A383:XFD383 A113"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11980,13 +12039,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>360</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -12098,7 +12157,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
@@ -12140,7 +12199,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>47</v>
@@ -13148,7 +13207,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>18</v>
@@ -13361,7 +13420,7 @@
         <v>317</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>2019</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -13558,6 +13617,20 @@
       </c>
       <c r="D113" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>99</v>
+      </c>
+      <c r="B114" s="1">
+        <v>113</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -13583,7 +13656,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -13997,10 +14070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1306"/>
+  <dimension ref="A1:G1312"/>
   <sheetViews>
-    <sheetView topLeftCell="A1249" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1268" sqref="A1268"/>
+    <sheetView topLeftCell="A1294" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1312" sqref="B1312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35166,6 +35239,78 @@
         <v>379</v>
       </c>
     </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1307" s="1">
+        <v>113</v>
+      </c>
+      <c r="B1307" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1307" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1307" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1308" s="1">
+        <v>113</v>
+      </c>
+      <c r="B1308" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1309" s="1">
+        <v>113</v>
+      </c>
+      <c r="B1309" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1309" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1309" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1310" s="1">
+        <v>113</v>
+      </c>
+      <c r="B1310" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1311" s="1">
+        <v>113</v>
+      </c>
+      <c r="B1311" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1311" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1311" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1312" s="1">
+        <v>113</v>
+      </c>
+      <c r="B1312" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1312" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D1312" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -35174,10 +35319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F411"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39496,99 +39641,96 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C337" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D338">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D339">
-        <v>50</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>659</v>
+        <v>418</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E340" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="D340">
+        <v>50</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E341" s="1"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B342" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C342" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D341">
+      <c r="D342">
         <v>80</v>
       </c>
-      <c r="E341" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="E342" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D343">
-        <v>5</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -39596,60 +39738,66 @@
         <v>380</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D344">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>596</v>
+      <c r="A345" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="D345">
+        <v>15</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B347" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C347" s="2" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>671</v>
+        <v>523</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -39657,24 +39805,24 @@
         <v>671</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>368</v>
+        <v>521</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D349">
-        <v>200</v>
-      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>549</v>
+        <v>671</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
+      </c>
+      <c r="D350">
+        <v>200</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -39682,44 +39830,38 @@
         <v>549</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D351">
-        <v>250</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D352">
+        <v>250</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D353">
-        <v>150</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -39727,13 +39869,13 @@
         <v>415</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D354">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>28</v>
@@ -39741,128 +39883,131 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="D355">
+        <v>30</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B358" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C358" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D358" t="s">
         <v>491</v>
       </c>
-      <c r="E357" s="2" t="s">
+      <c r="E358" s="2" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>533</v>
+        <v>673</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>372</v>
+        <v>568</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>372</v>
+        <v>568</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D360">
+      <c r="D361">
         <v>1000</v>
       </c>
-      <c r="E360" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D361">
-        <v>100</v>
-      </c>
       <c r="E361" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D362">
+        <v>100</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B363" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C363" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D362">
+      <c r="D363">
         <v>30</v>
       </c>
-      <c r="E362" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D363">
-        <v>400</v>
+      <c r="E363" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -39870,16 +40015,13 @@
         <v>614</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>377</v>
+        <v>580</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D364">
-        <v>1</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>28</v>
+        <v>400</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -39887,13 +40029,13 @@
         <v>614</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D365">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>28</v>
@@ -39904,54 +40046,60 @@
         <v>614</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D366">
+        <v>30</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>498</v>
+        <v>614</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D367">
-        <v>1</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>583</v>
+      <c r="A369" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>377</v>
@@ -39965,133 +40113,127 @@
         <v>579</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>580</v>
+        <v>377</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D371">
-        <v>200</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D372">
+        <v>200</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D373">
-        <v>3</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D374">
+        <v>3</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B375" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C375" s="2" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B377" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="C377" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B378" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C378" s="2" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>706</v>
+        <v>643</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>372</v>
+        <v>644</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D379">
-        <v>15</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>28</v>
+        <v>644</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>551</v>
+        <v>706</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>568</v>
+        <v>372</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="D380">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -40099,55 +40241,55 @@
         <v>551</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>521</v>
+        <v>568</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D381">
+        <v>1000</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B384" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C384" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D382">
+      <c r="D384">
         <v>30</v>
       </c>
-      <c r="E382" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D383">
-        <v>125</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>377</v>
+      <c r="E384" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -40155,47 +40297,41 @@
         <v>394</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D385">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C386" s="1" t="s">
+      <c r="B386" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D386">
-        <v>10</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>28</v>
+      <c r="C386" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="D387">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>28</v>
@@ -40203,30 +40339,36 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D388">
+        <v>10</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C388" s="1" t="s">
+      <c r="B389" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D388">
-        <v>1000</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>521</v>
+      <c r="D389">
+        <v>200</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -40234,13 +40376,13 @@
         <v>427</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>372</v>
+        <v>568</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D390">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>22</v>
@@ -40248,150 +40390,150 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>693</v>
+        <v>427</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E391" s="1"/>
+        <v>521</v>
+      </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>702</v>
+        <v>427</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>703</v>
+        <v>372</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="D392">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D393">
-        <v>100</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E393" s="1"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D394">
+        <v>200</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D395">
+        <v>100</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="B396" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="C396" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D394">
+      <c r="D396">
         <v>10</v>
       </c>
-      <c r="E394" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
+      <c r="E396" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B397" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C397" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D395">
+      <c r="D397">
         <v>30</v>
       </c>
-      <c r="E395" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D396">
-        <v>200</v>
-      </c>
-      <c r="E396" s="1"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>521</v>
+      <c r="E397" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>387</v>
+        <v>588</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>368</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="D398">
         <v>200</v>
       </c>
-      <c r="E398" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E398" s="1"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
+      <c r="A399" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B400" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C399" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="D400">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>28</v>
@@ -40401,10 +40543,16 @@
       <c r="A401" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="B401" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>718</v>
+        <v>387</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>372</v>
@@ -40413,26 +40561,20 @@
         <v>377</v>
       </c>
       <c r="D402">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>377</v>
+      <c r="A403" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>464</v>
+        <v>718</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>372</v>
@@ -40449,90 +40591,118 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>567</v>
+        <v>464</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>568</v>
+        <v>377</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D405">
-        <v>1000</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>22</v>
+        <v>377</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>567</v>
+        <v>464</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
+      </c>
+      <c r="D406">
+        <v>20</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>676</v>
+        <v>567</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>377</v>
+        <v>568</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
+      </c>
+      <c r="D407">
+        <v>1000</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>645</v>
+        <v>567</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D408">
-        <v>1</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>28</v>
+        <v>521</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>644</v>
+        <v>377</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>644</v>
+        <v>377</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="B412" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="C412" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B413" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="C413" s="2" t="s">
         <v>369</v>
       </c>
     </row>
@@ -40746,10 +40916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A117" activeCellId="1" sqref="A383:XFD383 A117"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41693,6 +41863,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>113</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -41701,10 +41879,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A282" activeCellId="1" sqref="A383:XFD383 A282"/>
+    <sheetView topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44788,6 +44966,39 @@
         <v>763</v>
       </c>
     </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>113</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>113</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>113</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -44796,10 +45007,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" activeCellId="1" sqref="A383:XFD383 A23"/>
+    <sheetView topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51181,7 +51392,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>633</v>
+        <v>2023</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>22</v>
@@ -51199,58 +51410,58 @@
         <v>28</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G279" s="1" t="s">
+      <c r="B280" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G280" s="1" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>22</v>
@@ -51268,12 +51479,12 @@
         <v>28</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>427</v>
+        <v>811</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>693</v>
+        <v>427</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>22</v>
@@ -51291,12 +51502,12 @@
         <v>28</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>816</v>
+        <v>427</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>22</v>
@@ -51305,7 +51516,7 @@
         <v>22</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>22</v>
@@ -51314,12 +51525,12 @@
         <v>28</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>22</v>
@@ -51328,7 +51539,7 @@
         <v>22</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>22</v>
@@ -51337,110 +51548,110 @@
         <v>28</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G285" s="1" t="s">
+      <c r="B286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G286" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G286" s="1" t="s">
+      <c r="B287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="B289" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>28</v>
@@ -51457,53 +51668,53 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>567</v>
+        <v>464</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>676</v>
+        <v>567</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>22</v>
@@ -51512,7 +51723,7 @@
         <v>22</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>22</v>
@@ -51521,52 +51732,75 @@
         <v>28</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G293" s="1" t="s">
+      <c r="B294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G294" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G294" s="1" t="s">
+      <c r="B295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G295" s="1" t="s">
         <v>816</v>
       </c>
     </row>
@@ -51578,10 +51812,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1017"/>
+  <dimension ref="A1:J1020"/>
   <sheetViews>
-    <sheetView topLeftCell="A999" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1004" sqref="B1004"/>
+    <sheetView topLeftCell="A1000" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1019" sqref="A1019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66700,7 +66934,7 @@
         <v>353</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>1963</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
@@ -66708,7 +66942,7 @@
         <v>354</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
@@ -66716,7 +66950,7 @@
         <v>355</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
@@ -66724,7 +66958,7 @@
         <v>806</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
@@ -66732,7 +66966,7 @@
         <v>718</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
@@ -66740,7 +66974,7 @@
         <v>356</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
@@ -66748,7 +66982,7 @@
         <v>357</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
@@ -66756,7 +66990,7 @@
         <v>719</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
@@ -66764,7 +66998,7 @@
         <v>721</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
@@ -66772,7 +67006,7 @@
         <v>720</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
@@ -66780,7 +67014,7 @@
         <v>358</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
@@ -66788,7 +67022,7 @@
         <v>359</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
@@ -66796,7 +67030,7 @@
         <v>722</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
@@ -66804,7 +67038,7 @@
         <v>807</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
@@ -66812,7 +67046,7 @@
         <v>724</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
@@ -66820,7 +67054,31 @@
         <v>723</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1020" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -66847,13 +67105,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -66864,7 +67122,7 @@
         <v>1285</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -66876,7 +67134,7 @@
         <v>1287</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -66888,7 +67146,7 @@
         <v>1289</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -66900,7 +67158,7 @@
         <v>1291</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -66912,7 +67170,7 @@
         <v>1293</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -66924,7 +67182,7 @@
         <v>1295</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -66936,7 +67194,7 @@
         <v>1297</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -66948,7 +67206,7 @@
         <v>1299</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -66960,7 +67218,7 @@
         <v>1301</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -66972,7 +67230,7 @@
         <v>1303</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -66984,7 +67242,7 @@
         <v>1305</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -66996,7 +67254,7 @@
         <v>1307</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -67008,7 +67266,7 @@
         <v>1309</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -67020,7 +67278,7 @@
         <v>1311</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -67032,7 +67290,7 @@
         <v>1313</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -67044,7 +67302,7 @@
         <v>1314</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -67056,7 +67314,7 @@
         <v>1316</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -67068,7 +67326,7 @@
         <v>1318</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -67080,7 +67338,7 @@
         <v>1320</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -67092,7 +67350,7 @@
         <v>1322</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -67104,7 +67362,7 @@
         <v>1324</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -67116,7 +67374,7 @@
         <v>1326</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -67128,7 +67386,7 @@
         <v>1328</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -67140,7 +67398,7 @@
         <v>1330</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -67152,7 +67410,7 @@
         <v>1332</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -67164,7 +67422,7 @@
         <v>1334</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -67176,7 +67434,7 @@
         <v>1336</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -67188,7 +67446,7 @@
         <v>1338</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -67200,7 +67458,7 @@
         <v>1340</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -67212,7 +67470,7 @@
         <v>1342</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -67224,7 +67482,7 @@
         <v>1344</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -67236,7 +67494,7 @@
         <v>1346</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -67248,7 +67506,7 @@
         <v>1348</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -67260,7 +67518,7 @@
         <v>1350</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -67272,7 +67530,7 @@
         <v>1352</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -67284,7 +67542,7 @@
         <v>1354</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -67296,7 +67554,7 @@
         <v>1356</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -67308,7 +67566,7 @@
         <v>1358</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -67320,7 +67578,7 @@
         <v>1360</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -67332,7 +67590,7 @@
         <v>1362</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -67344,7 +67602,7 @@
         <v>1364</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -67356,7 +67614,7 @@
         <v>1366</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -67368,7 +67626,7 @@
         <v>1368</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -67380,7 +67638,7 @@
         <v>1370</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -67392,7 +67650,7 @@
         <v>1372</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -67404,7 +67662,7 @@
         <v>1374</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -67416,7 +67674,7 @@
         <v>1376</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -67428,7 +67686,7 @@
         <v>1378</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -67440,7 +67698,7 @@
         <v>1380</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -67452,7 +67710,7 @@
         <v>1382</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -67464,7 +67722,7 @@
         <v>1384</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -67476,7 +67734,7 @@
         <v>1386</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -67488,7 +67746,7 @@
         <v>1388</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -67500,7 +67758,7 @@
         <v>1390</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -67512,7 +67770,7 @@
         <v>1392</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -67524,7 +67782,7 @@
         <v>1394</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -67536,7 +67794,7 @@
         <v>1396</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -67548,7 +67806,7 @@
         <v>1398</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -67560,7 +67818,7 @@
         <v>1400</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -67572,7 +67830,7 @@
         <v>1402</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -67584,7 +67842,7 @@
         <v>1404</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -67596,7 +67854,7 @@
         <v>1406</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -67608,7 +67866,7 @@
         <v>1408</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -67620,7 +67878,7 @@
         <v>1410</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -67632,7 +67890,7 @@
         <v>1412</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -67644,7 +67902,7 @@
         <v>1414</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -67656,7 +67914,7 @@
         <v>1416</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -67668,7 +67926,7 @@
         <v>1418</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -67680,7 +67938,7 @@
         <v>1420</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -67692,7 +67950,7 @@
         <v>1422</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -67704,7 +67962,7 @@
         <v>1424</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -67716,7 +67974,7 @@
         <v>1426</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -67728,7 +67986,7 @@
         <v>1428</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -67740,7 +67998,7 @@
         <v>1430</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -67752,7 +68010,7 @@
         <v>1432</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -67764,7 +68022,7 @@
         <v>1434</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -67776,7 +68034,7 @@
         <v>1436</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -67788,7 +68046,7 @@
         <v>1438</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -67800,7 +68058,7 @@
         <v>1440</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -67812,7 +68070,7 @@
         <v>1442</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -67824,7 +68082,7 @@
         <v>1444</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -67836,7 +68094,7 @@
         <v>1446</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -67848,7 +68106,7 @@
         <v>1448</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -67860,7 +68118,7 @@
         <v>1450</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -67872,7 +68130,7 @@
         <v>1452</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -67884,7 +68142,7 @@
         <v>1454</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -67896,7 +68154,7 @@
         <v>1456</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -67908,7 +68166,7 @@
         <v>1458</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -67920,7 +68178,7 @@
         <v>1460</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -67932,7 +68190,7 @@
         <v>1462</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -67944,7 +68202,7 @@
         <v>1464</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -67956,7 +68214,7 @@
         <v>1466</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -67968,7 +68226,7 @@
         <v>1468</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -67980,7 +68238,7 @@
         <v>1470</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -67992,7 +68250,7 @@
         <v>1472</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -68004,7 +68262,7 @@
         <v>1474</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -68016,7 +68274,7 @@
         <v>1476</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -68028,7 +68286,7 @@
         <v>1478</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -68040,7 +68298,7 @@
         <v>1480</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -68052,7 +68310,7 @@
         <v>1482</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -68064,7 +68322,7 @@
         <v>1484</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -68076,7 +68334,7 @@
         <v>1486</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -68088,7 +68346,7 @@
         <v>1488</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -68100,7 +68358,7 @@
         <v>1490</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -68112,7 +68370,7 @@
         <v>1492</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -68124,7 +68382,7 @@
         <v>1494</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -68136,7 +68394,7 @@
         <v>1496</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -68148,7 +68406,7 @@
         <v>1498</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -68160,7 +68418,7 @@
         <v>1500</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -68172,7 +68430,7 @@
         <v>1502</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -68184,7 +68442,7 @@
         <v>1504</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -68196,7 +68454,7 @@
         <v>1506</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -68208,7 +68466,7 @@
         <v>1508</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -68220,7 +68478,7 @@
         <v>1510</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -68232,7 +68490,7 @@
         <v>1512</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -68244,7 +68502,7 @@
         <v>1514</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -68256,7 +68514,7 @@
         <v>1516</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -68268,7 +68526,7 @@
         <v>1518</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -68280,7 +68538,7 @@
         <v>1520</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -68292,7 +68550,7 @@
         <v>1522</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -68304,7 +68562,7 @@
         <v>1524</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -68316,7 +68574,7 @@
         <v>1526</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -68328,7 +68586,7 @@
         <v>1528</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -68340,7 +68598,7 @@
         <v>1530</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -68352,7 +68610,7 @@
         <v>1532</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -68364,7 +68622,7 @@
         <v>1534</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -68376,7 +68634,7 @@
         <v>1536</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -68388,7 +68646,7 @@
         <v>1538</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -68400,7 +68658,7 @@
         <v>1540</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -68412,7 +68670,7 @@
         <v>1542</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -68424,7 +68682,7 @@
         <v>1544</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -68436,7 +68694,7 @@
         <v>1546</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -68448,7 +68706,7 @@
         <v>1548</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -68460,7 +68718,7 @@
         <v>1550</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -68472,7 +68730,7 @@
         <v>1552</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -68484,7 +68742,7 @@
         <v>1554</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -68496,7 +68754,7 @@
         <v>1556</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -68508,7 +68766,7 @@
         <v>1557</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -68520,7 +68778,7 @@
         <v>1559</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -68532,7 +68790,7 @@
         <v>1561</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -68544,7 +68802,7 @@
         <v>1563</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -68556,7 +68814,7 @@
         <v>1565</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -68568,7 +68826,7 @@
         <v>1567</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -68580,7 +68838,7 @@
         <v>1569</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -68592,7 +68850,7 @@
         <v>1571</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -68604,7 +68862,7 @@
         <v>1573</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -68616,7 +68874,7 @@
         <v>1575</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -68628,7 +68886,7 @@
         <v>1577</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -68640,7 +68898,7 @@
         <v>1579</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -68652,7 +68910,7 @@
         <v>1581</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -68664,7 +68922,7 @@
         <v>1583</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -68676,7 +68934,7 @@
         <v>1585</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -68688,7 +68946,7 @@
         <v>1587</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -68700,7 +68958,7 @@
         <v>1589</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -68712,7 +68970,7 @@
         <v>1591</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -68724,7 +68982,7 @@
         <v>1593</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -68736,7 +68994,7 @@
         <v>1595</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -68748,7 +69006,7 @@
         <v>1597</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -68760,7 +69018,7 @@
         <v>1599</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -68772,7 +69030,7 @@
         <v>1601</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -68784,7 +69042,7 @@
         <v>1603</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -68796,7 +69054,7 @@
         <v>1605</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -68808,7 +69066,7 @@
         <v>1607</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -68820,7 +69078,7 @@
         <v>1609</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -68832,7 +69090,7 @@
         <v>1611</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -68844,7 +69102,7 @@
         <v>1613</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -68856,7 +69114,7 @@
         <v>1615</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -68868,7 +69126,7 @@
         <v>1617</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -68880,7 +69138,7 @@
         <v>1619</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -68892,7 +69150,7 @@
         <v>1621</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -68904,7 +69162,7 @@
         <v>1623</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -68916,7 +69174,7 @@
         <v>1625</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -68928,7 +69186,7 @@
         <v>1627</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -68940,7 +69198,7 @@
         <v>1629</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -68952,7 +69210,7 @@
         <v>1631</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -68964,7 +69222,7 @@
         <v>1633</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -68976,7 +69234,7 @@
         <v>1635</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -68988,7 +69246,7 @@
         <v>1637</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -69000,7 +69258,7 @@
         <v>1639</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -69012,7 +69270,7 @@
         <v>1641</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -69024,7 +69282,7 @@
         <v>1643</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -69036,7 +69294,7 @@
         <v>1645</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -69048,7 +69306,7 @@
         <v>1647</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -69060,7 +69318,7 @@
         <v>1649</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -69072,7 +69330,7 @@
         <v>1651</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -69084,7 +69342,7 @@
         <v>1653</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -69096,7 +69354,7 @@
         <v>1655</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -69108,7 +69366,7 @@
         <v>1657</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -69120,7 +69378,7 @@
         <v>1659</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -69132,7 +69390,7 @@
         <v>1661</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -69144,7 +69402,7 @@
         <v>1663</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -69156,7 +69414,7 @@
         <v>1665</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -69168,7 +69426,7 @@
         <v>1667</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -69180,7 +69438,7 @@
         <v>1669</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -69192,7 +69450,7 @@
         <v>1671</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -69204,7 +69462,7 @@
         <v>1673</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -69216,7 +69474,7 @@
         <v>1675</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -69228,7 +69486,7 @@
         <v>1677</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -69240,7 +69498,7 @@
         <v>1679</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -69252,7 +69510,7 @@
         <v>1681</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -69264,7 +69522,7 @@
         <v>1683</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -69276,7 +69534,7 @@
         <v>1685</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -69288,7 +69546,7 @@
         <v>1687</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -69300,7 +69558,7 @@
         <v>1689</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -69312,7 +69570,7 @@
         <v>1691</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -69324,7 +69582,7 @@
         <v>1693</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -69336,7 +69594,7 @@
         <v>1695</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -69348,7 +69606,7 @@
         <v>1697</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -69360,7 +69618,7 @@
         <v>1699</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -69372,7 +69630,7 @@
         <v>1701</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -69384,7 +69642,7 @@
         <v>1703</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -69396,7 +69654,7 @@
         <v>1705</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -69408,7 +69666,7 @@
         <v>1707</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -69420,7 +69678,7 @@
         <v>1709</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -69432,7 +69690,7 @@
         <v>1711</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -69444,7 +69702,7 @@
         <v>1713</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -69456,7 +69714,7 @@
         <v>1715</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -69468,7 +69726,7 @@
         <v>1717</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -69480,7 +69738,7 @@
         <v>1719</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -69492,7 +69750,7 @@
         <v>1721</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -69504,7 +69762,7 @@
         <v>1723</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -69516,7 +69774,7 @@
         <v>1725</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -69528,7 +69786,7 @@
         <v>1727</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -69540,7 +69798,7 @@
         <v>1729</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -69552,7 +69810,7 @@
         <v>1731</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -69564,7 +69822,7 @@
         <v>1733</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -69576,7 +69834,7 @@
         <v>1735</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -14072,8 +14072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1312"/>
   <sheetViews>
-    <sheetView topLeftCell="A1294" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1312" sqref="B1312"/>
+    <sheetView tabSelected="1" topLeftCell="A1294" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1311" sqref="C1311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35291,7 +35291,7 @@
         <v>567</v>
       </c>
       <c r="C1311" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D1311" s="1" t="s">
         <v>521</v>
@@ -35321,7 +35321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12631" uniqueCount="2027">
   <si>
     <t>id</t>
   </si>
@@ -6594,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114:C114"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14072,8 +14072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1294" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1311" sqref="C1311"/>
+    <sheetView topLeftCell="A779" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B784" sqref="B784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26900,7 +26900,7 @@
         <v>68</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C784" s="1">
         <v>1</v>
@@ -31580,8 +31580,12 @@
       <c r="B1072" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C1072"/>
-      <c r="D1072"/>
+      <c r="C1072" s="1">
+        <v>150</v>
+      </c>
+      <c r="D1072" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="E1072" s="1" t="s">
         <v>689</v>
       </c>
@@ -31638,8 +31642,12 @@
       <c r="B1076" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C1076"/>
-      <c r="D1076"/>
+      <c r="C1076" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1076" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="E1076"/>
       <c r="F1076"/>
     </row>
@@ -31650,8 +31658,12 @@
       <c r="B1077" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C1077"/>
-      <c r="D1077"/>
+      <c r="C1077" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1077" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="E1077"/>
       <c r="F1077" s="1" t="s">
         <v>537</v>
@@ -31741,7 +31753,7 @@
         <v>570</v>
       </c>
       <c r="C1083" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D1083" s="1" t="s">
         <v>377</v>
@@ -33851,7 +33863,7 @@
         <v>64</v>
       </c>
       <c r="C1217" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D1217" s="1" t="s">
         <v>377</v>
@@ -33867,7 +33879,7 @@
         <v>427</v>
       </c>
       <c r="C1218" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D1218" s="1" t="s">
         <v>521</v>
@@ -34686,7 +34698,7 @@
         <v>20</v>
       </c>
       <c r="C1269" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1269" s="1" t="s">
         <v>369</v>
@@ -35319,10 +35331,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F413"/>
+  <dimension ref="A1:F412"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249:XFD249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38535,141 +38547,138 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>233</v>
+        <v>586</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D249">
-        <v>1000</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>595</v>
+        <v>531</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>521</v>
+      <c r="A252" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D252">
+        <v>0.3</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D253">
-        <v>0.3</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>22</v>
+      <c r="C253" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>381</v>
-      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>441</v>
+        <v>91</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D256">
+        <v>1000</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C257" s="1" t="s">
+      <c r="B257" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D257">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B258" s="2" t="s">
+      <c r="A258" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D258">
-        <v>150</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>28</v>
+      <c r="C258" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>300</v>
+        <v>565</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
+      </c>
+      <c r="D259">
+        <v>200</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -38677,40 +38686,37 @@
         <v>565</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>368</v>
+        <v>521</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D260">
-        <v>200</v>
-      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>521</v>
@@ -38720,25 +38726,25 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>521</v>
+      <c r="A264" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>381</v>
+      <c r="A265" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -38746,24 +38752,30 @@
         <v>632</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D266">
+        <v>20</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C267" s="1" t="s">
+      <c r="A267" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D267">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>28</v>
@@ -38774,13 +38786,13 @@
         <v>376</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D268">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>28</v>
@@ -38791,16 +38803,10 @@
         <v>376</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="D269">
-        <v>30</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -38808,24 +38814,30 @@
         <v>376</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="D270">
+        <v>10</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C271" s="2" t="s">
+      <c r="B271" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D271">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>28</v>
@@ -38835,78 +38847,72 @@
       <c r="A272" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D272">
-        <v>30</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>376</v>
+        <v>658</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
+      </c>
+      <c r="D274">
+        <v>200</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D275">
-        <v>200</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>28</v>
+        <v>381</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
+      </c>
+      <c r="D276">
+        <v>200</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>650</v>
+        <v>507</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D277">
-        <v>200</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -38914,32 +38920,32 @@
         <v>507</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>508</v>
+        <v>369</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>508</v>
+        <v>369</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -38947,32 +38953,32 @@
         <v>558</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D281">
+        <v>20</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>558</v>
+        <v>495</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D282">
-        <v>20</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>28</v>
+        <v>372</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>372</v>
@@ -38983,100 +38989,100 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>521</v>
+      <c r="D285">
+        <v>30</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D286">
-        <v>30</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>22</v>
+      <c r="A286" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>377</v>
-      </c>
+      <c r="D287">
+        <v>1000</v>
+      </c>
+      <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>474</v>
+        <v>369</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D288">
-        <v>1000</v>
-      </c>
-      <c r="E288" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B289" s="2" t="s">
+      <c r="A289" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D289">
-        <v>200</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>28</v>
+      <c r="C289" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>142</v>
+        <v>651</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>651</v>
+        <v>548</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>377</v>
@@ -39090,76 +39096,76 @@
         <v>548</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D292">
+        <v>10</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D293">
-        <v>10</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>28</v>
+        <v>497</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>497</v>
+        <v>700</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D294">
+        <v>10</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>700</v>
+        <v>408</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D295">
-        <v>10</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>28</v>
+        <v>369</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>408</v>
+        <v>628</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C297" s="2" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>369</v>
@@ -39170,13 +39176,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>449</v>
+        <v>647</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -39184,24 +39190,30 @@
         <v>647</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>521</v>
+        <v>368</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>521</v>
       </c>
+      <c r="D300">
+        <v>200</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B301" s="2" t="s">
+      <c r="A301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>521</v>
+      <c r="C301" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D301">
         <v>200</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -39209,21 +39221,15 @@
         <v>97</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D302">
-        <v>200</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>97</v>
+        <v>696</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>377</v>
@@ -39233,14 +39239,20 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B304" s="1" t="s">
+      <c r="A304" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>377</v>
+      <c r="D304">
+        <v>200</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -39248,21 +39260,15 @@
         <v>55</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D305">
-        <v>200</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>55</v>
+        <v>657</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>377</v>
@@ -39273,59 +39279,65 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
-        <v>432</v>
+      <c r="A308" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>587</v>
+      <c r="A309" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>430</v>
+      <c r="A310" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>186</v>
+        <v>379</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
+      </c>
+      <c r="D311">
+        <v>3</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C312" s="1" t="s">
+      <c r="B312" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C312" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D312">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>28</v>
@@ -39336,13 +39348,13 @@
         <v>379</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D313">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>28</v>
@@ -39352,44 +39364,44 @@
       <c r="A314" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D314">
-        <v>15</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>379</v>
+      <c r="A315" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>656</v>
+        <v>520</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>377</v>
+      </c>
+      <c r="D317">
+        <v>150</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -39397,13 +39409,13 @@
         <v>520</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D318">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>28</v>
@@ -39414,74 +39426,74 @@
         <v>520</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D319">
-        <v>50</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B320" s="1" t="s">
+      <c r="A320" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C321" s="2" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="D322">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D323">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>381</v>
+      <c r="D324">
+        <v>30</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -39489,138 +39501,132 @@
         <v>482</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D325">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B326" s="1" t="s">
+      <c r="A326" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D327">
+        <v>1000</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D326">
-        <v>100</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D328">
-        <v>1000</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>22</v>
+      <c r="C328" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B329" s="2" t="s">
+      <c r="A329" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>562</v>
+        <v>709</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D333">
+        <v>1000</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>709</v>
+        <v>654</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D334">
-        <v>1000</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>654</v>
+        <v>504</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>377</v>
@@ -39631,7 +39637,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>504</v>
+        <v>60</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>377</v>
@@ -39641,96 +39647,102 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C338" s="2" t="s">
+      <c r="C338" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D338">
-        <v>1000</v>
-      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>377</v>
+      <c r="D339">
+        <v>50</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>418</v>
+        <v>659</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D340">
-        <v>50</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="E340" s="1"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>659</v>
+        <v>380</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E341" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="D341">
+        <v>80</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C342" s="2" t="s">
+      <c r="B342" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D342">
-        <v>80</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>28</v>
+      <c r="C342" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>377</v>
+      <c r="D343">
+        <v>5</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -39738,66 +39750,60 @@
         <v>380</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D344">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>380</v>
+      <c r="A345" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D345">
-        <v>15</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>596</v>
+      <c r="A346" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C347" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>523</v>
+        <v>671</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -39805,24 +39811,24 @@
         <v>671</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>521</v>
+        <v>368</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D349">
+        <v>200</v>
+      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>671</v>
+        <v>549</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D350">
-        <v>200</v>
+        <v>377</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -39830,38 +39836,44 @@
         <v>549</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D351">
+        <v>250</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C352" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D352">
-        <v>250</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>381</v>
+      <c r="D353">
+        <v>150</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -39869,13 +39881,13 @@
         <v>415</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D354">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>28</v>
@@ -39883,131 +39895,128 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D355">
-        <v>30</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>377</v>
+      <c r="A356" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>372</v>
+      <c r="A357" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D357" t="s">
+        <v>491</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D358" t="s">
-        <v>491</v>
-      </c>
-      <c r="E358" s="2" t="s">
-        <v>491</v>
+      <c r="A358" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>673</v>
+        <v>533</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>568</v>
+        <v>372</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>568</v>
+        <v>372</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>533</v>
+        <v>44</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
+      </c>
+      <c r="D360">
+        <v>1000</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C361" s="1" t="s">
+      <c r="B361" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D361">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="D362">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C363" s="2" t="s">
+      <c r="A363" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D363">
-        <v>30</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>22</v>
+        <v>400</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -40015,13 +40024,16 @@
         <v>614</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>580</v>
+        <v>377</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D364">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -40029,13 +40041,13 @@
         <v>614</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>28</v>
@@ -40046,60 +40058,54 @@
         <v>614</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D366">
-        <v>30</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>614</v>
+        <v>498</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="2" t="s">
         <v>498</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D368">
-        <v>1</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
-        <v>498</v>
+      <c r="A369" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>377</v>
@@ -40113,127 +40119,133 @@
         <v>579</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>377</v>
+        <v>580</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D371">
+        <v>200</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>579</v>
+        <v>409</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>580</v>
+        <v>381</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D372">
-        <v>200</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>28</v>
+        <v>381</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B373" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C373" s="1" t="s">
-        <v>381</v>
+      <c r="D373">
+        <v>3</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D374">
-        <v>3</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>22</v>
+        <v>426</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>425</v>
+      <c r="A375" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>377</v>
+        <v>597</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>369</v>
+      <c r="A377" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>459</v>
+      <c r="A378" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>643</v>
+        <v>706</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>644</v>
+        <v>372</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>644</v>
+        <v>377</v>
+      </c>
+      <c r="D379">
+        <v>15</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>706</v>
+        <v>551</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>372</v>
+        <v>568</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="D380">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -40241,52 +40253,52 @@
         <v>551</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D381">
-        <v>1000</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>551</v>
+        <v>2023</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>521</v>
+        <v>613</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>521</v>
+        <v>613</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>2023</v>
+        <v>697</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>613</v>
+        <v>372</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>613</v>
+        <v>377</v>
+      </c>
+      <c r="D383">
+        <v>30</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C384" s="1" t="s">
+      <c r="A384" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D384">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>28</v>
@@ -40297,16 +40309,10 @@
         <v>394</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="D385">
-        <v>125</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -40314,20 +40320,26 @@
         <v>394</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="D386">
+        <v>10</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C387" s="2" t="s">
+      <c r="B387" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D387">
@@ -40338,37 +40350,37 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>377</v>
+      <c r="A388" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="D388">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B389" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C389" s="2" t="s">
+      <c r="B389" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D389">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -40376,16 +40388,10 @@
         <v>427</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="D390">
-        <v>1000</v>
-      </c>
-      <c r="E390" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -40393,53 +40399,59 @@
         <v>427</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D391">
+        <v>30</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>427</v>
+        <v>693</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D392">
-        <v>30</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="E392" s="1"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>377</v>
+        <v>703</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E393" s="1"/>
+      <c r="D393">
+        <v>200</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>703</v>
+        <v>369</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D394">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>28</v>
@@ -40447,33 +40459,33 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>653</v>
+        <v>454</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="D395">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B396" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C396" s="1" t="s">
+      <c r="B396" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>521</v>
       </c>
       <c r="D396">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>22</v>
@@ -40481,45 +40493,45 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>454</v>
+        <v>588</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>521</v>
       </c>
       <c r="D397">
-        <v>30</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E397" s="1"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D398">
+      <c r="C399" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D399">
         <v>200</v>
       </c>
-      <c r="E398" s="1"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>521</v>
+      <c r="E399" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -40527,66 +40539,60 @@
         <v>387</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D400">
-        <v>200</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
+      <c r="A401" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C401" s="2" t="s">
+      <c r="D401">
+        <v>30</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D402">
-        <v>30</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>387</v>
+      <c r="D403">
+        <v>20</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>718</v>
+        <v>464</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D404">
-        <v>20</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -40594,27 +40600,33 @@
         <v>464</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D405">
+        <v>20</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>372</v>
+        <v>568</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="D406">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -40622,38 +40634,38 @@
         <v>567</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D407">
-        <v>1000</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>567</v>
+        <v>676</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>377</v>
+        <v>644</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -40661,48 +40673,31 @@
         <v>645</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>381</v>
+        <v>644</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D410">
-        <v>1</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>645</v>
+        <v>451</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>644</v>
+        <v>369</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>644</v>
+        <v>369</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B412" s="1" t="s">
+      <c r="A412" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C412" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C413" s="2" t="s">
+      <c r="C412" s="2" t="s">
         <v>369</v>
       </c>
     </row>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12631" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12819" uniqueCount="2056">
   <si>
     <t>id</t>
   </si>
@@ -6117,6 +6117,93 @@
   </si>
   <si>
     <t>it/ricette/europa/serbia/pure-di-spinaci</t>
+  </si>
+  <si>
+    <t>Cantarelle (sweet crepes with olive oil)</t>
+  </si>
+  <si>
+    <t>recipes/mediterranea/italy/cantarelle-sweet-crepes-with-olive-oil/</t>
+  </si>
+  <si>
+    <t>flour; sugar</t>
+  </si>
+  <si>
+    <t>Salsa verde e bollito (boiled meat with green sauce)</t>
+  </si>
+  <si>
+    <t>recipes/mediterranea/italy/salsa-verde-e-bollito-boiled-meat-with-green-sauce/</t>
+  </si>
+  <si>
+    <t>Sarmale (veg version with walnuts)</t>
+  </si>
+  <si>
+    <t>recipes/europe/romania/sarmale-veg-version-with-walnuts/</t>
+  </si>
+  <si>
+    <t>romania</t>
+  </si>
+  <si>
+    <t>cabbage; walnuts</t>
+  </si>
+  <si>
+    <t>veal head</t>
+  </si>
+  <si>
+    <t>veal tongue</t>
+  </si>
+  <si>
+    <t>veal leg</t>
+  </si>
+  <si>
+    <t>vegetable soup concentrate</t>
+  </si>
+  <si>
+    <t>xMas is coming</t>
+  </si>
+  <si>
+    <t>Ravenna; Italy</t>
+  </si>
+  <si>
+    <t>17/12/2017</t>
+  </si>
+  <si>
+    <t>Cantarelle (crepes fritte dolci)</t>
+  </si>
+  <si>
+    <t>it/ricette/paesi-mediterranei/italia/cantarelle/</t>
+  </si>
+  <si>
+    <t>Natale sta arrivando</t>
+  </si>
+  <si>
+    <t>farina; zucchero</t>
+  </si>
+  <si>
+    <t>Salsa verde e bollito</t>
+  </si>
+  <si>
+    <t>it/ricette/paesi-mediterranei/italia/salsa-verde-e-bollito/</t>
+  </si>
+  <si>
+    <t>testa di vitello</t>
+  </si>
+  <si>
+    <t>lingua di vitello</t>
+  </si>
+  <si>
+    <t>zampa di vitello</t>
+  </si>
+  <si>
+    <t>Sarmale (versione veg con noci)</t>
+  </si>
+  <si>
+    <t>it/ricette/europa/romania/sarmale-versione-veg-con-noci/</t>
+  </si>
+  <si>
+    <t>cavolo; noci</t>
+  </si>
+  <si>
+    <t>brodo vegetale concentrato</t>
   </si>
 </sst>
 </file>
@@ -6592,10 +6679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11638,6 +11725,138 @@
       </c>
       <c r="P114" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D115" s="1">
+        <v>30</v>
+      </c>
+      <c r="E115" s="1">
+        <v>6</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D116" s="1">
+        <v>180</v>
+      </c>
+      <c r="E116" s="1">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1">
+        <v>4</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D117" s="1">
+        <v>210</v>
+      </c>
+      <c r="E117" s="1">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1">
+        <v>4</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -12023,10 +12242,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13633,6 +13852,48 @@
         <v>319</v>
       </c>
     </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>99</v>
+      </c>
+      <c r="B115" s="1">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>99</v>
+      </c>
+      <c r="B116" s="1">
+        <v>115</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>99</v>
+      </c>
+      <c r="B117" s="1">
+        <v>116</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13644,7 +13905,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="A383:XFD383 B11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14070,10 +14331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1312"/>
+  <dimension ref="A1:G1348"/>
   <sheetViews>
-    <sheetView topLeftCell="A779" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B784" sqref="B784"/>
+    <sheetView topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1313" sqref="A1313:XFD1348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35323,6 +35584,486 @@
         <v>613</v>
       </c>
     </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1313" s="1">
+        <v>114</v>
+      </c>
+      <c r="B1313" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1313" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1313" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1314" s="1">
+        <v>114</v>
+      </c>
+      <c r="B1314" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1314" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1314" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1315" s="1">
+        <v>114</v>
+      </c>
+      <c r="B1315" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1315" s="1">
+        <v>500</v>
+      </c>
+      <c r="D1315" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1316" s="1">
+        <v>114</v>
+      </c>
+      <c r="B1316" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1317" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1317" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1317" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1317" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1318" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1318" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1318" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1319" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1319" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1319" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1319" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1320" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1320" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1320" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1321" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1321" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1321" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1322" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1322" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1322" s="1">
+        <v>50</v>
+      </c>
+      <c r="D1322" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1323" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1323" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1323" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1323" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1324" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1324" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1325" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1325" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1326" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1326" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1326" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1326" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1327" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1327" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1327" s="1">
+        <v>500</v>
+      </c>
+      <c r="D1327" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1328" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1328" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1328" s="1">
+        <v>150</v>
+      </c>
+      <c r="D1328" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1329" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1329" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C1329" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1329" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1330" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1330" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C1330" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1330" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1331" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1331" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1331" s="1">
+        <v>75</v>
+      </c>
+      <c r="D1331" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1332" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1332" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1332" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D1332" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1333" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1333" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1333" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1334" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1334" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1334" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D1334" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1335" s="1">
+        <v>115</v>
+      </c>
+      <c r="B1335" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1336" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1336" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1336" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1336" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1337" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1337" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1337" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1337" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1337" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1338" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1338" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1338" s="1">
+        <v>250</v>
+      </c>
+      <c r="D1338" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1339" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1339" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1339" s="1">
+        <v>150</v>
+      </c>
+      <c r="D1339" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1340" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1340" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1340" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1340" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1341" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1341" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1342" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1342" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C1342" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1343" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1343" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1343" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1343" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1344" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1344" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1344" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D1344" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1345" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1345" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1346" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1346" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1346" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1346" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1347" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1347" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1347" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1347" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1347" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1348" s="1">
+        <v>116</v>
+      </c>
+      <c r="B1348" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1348" s="1">
+        <v>400</v>
+      </c>
+      <c r="D1348" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -35331,10 +36072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F412"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249:XFD249"/>
+    <sheetView topLeftCell="A371" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A386" sqref="A386:XFD386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37054,27 +37795,33 @@
         <v>371</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>368</v>
+        <v>568</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>521</v>
       </c>
       <c r="D132">
+        <v>1000</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D133">
         <v>200</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>521</v>
+      <c r="E133" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -37082,72 +37829,66 @@
         <v>371</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D134">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D135">
         <v>10</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="E135" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>30</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>371</v>
+      <c r="E136" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D137">
-        <v>1000</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D138">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -37155,10 +37896,16 @@
         <v>81</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>377</v>
+      </c>
+      <c r="D139">
+        <v>150</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -37166,21 +37913,15 @@
         <v>81</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D140">
-        <v>20</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>662</v>
+        <v>81</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>372</v>
@@ -37189,21 +37930,27 @@
         <v>377</v>
       </c>
       <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D142">
         <v>15</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>377</v>
+      <c r="E142" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -37211,16 +37958,10 @@
         <v>563</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D143">
-        <v>1000</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -37228,49 +37969,55 @@
         <v>563</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D144">
+        <v>1000</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D145">
         <v>10</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="E145" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -37278,27 +38025,21 @@
         <v>544</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>687</v>
+        <v>544</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>28</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -37306,26 +38047,32 @@
         <v>687</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>467</v>
+        <v>687</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>627</v>
+        <v>467</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>369</v>
@@ -37336,19 +38083,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>429</v>
+        <v>627</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D153">
-        <v>40</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>28</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -37356,94 +38097,94 @@
         <v>429</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D154">
+        <v>40</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D155">
+      <c r="D156">
         <v>5</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="E156" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D156">
+      <c r="D157">
         <v>10</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="E157" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D157">
+      <c r="D158">
         <v>30</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>429</v>
+      <c r="E158" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>28</v>
+      <c r="C160" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -37451,13 +38192,13 @@
         <v>557</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D161">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>28</v>
@@ -37467,66 +38208,66 @@
       <c r="A162" s="1" t="s">
         <v>557</v>
       </c>
+      <c r="B162" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D162">
+        <v>15</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>705</v>
+        <v>571</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>494</v>
+        <v>698</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>28</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -37534,13 +38275,13 @@
         <v>494</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>28</v>
@@ -37550,33 +38291,33 @@
       <c r="A169" s="1" t="s">
         <v>494</v>
       </c>
+      <c r="B169" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D169">
+        <v>15</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>377</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D171">
-        <v>30</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -37584,84 +38325,90 @@
         <v>468</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D172">
+        <v>30</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D173">
         <v>10</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="E173" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>714</v>
+        <v>373</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E175" s="1"/>
+        <v>374</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>470</v>
+        <v>714</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>518</v>
+        <v>377</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D176">
-        <v>10</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>377</v>
+        <v>518</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>377</v>
+      </c>
+      <c r="D177">
+        <v>10</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -37669,16 +38416,10 @@
         <v>470</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D178">
-        <v>10</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -37686,13 +38427,13 @@
         <v>470</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>28</v>
@@ -37703,13 +38444,13 @@
         <v>470</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D180">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>28</v>
@@ -37717,19 +38458,24 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>664</v>
+        <v>470</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E181" s="1"/>
+      <c r="D181">
+        <v>100</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>377</v>
@@ -37741,42 +38487,42 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>712</v>
+        <v>655</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>369</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E185" s="1"/>
+        <v>369</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>377</v>
@@ -37788,7 +38534,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>377</v>
@@ -37799,175 +38545,176 @@
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C188" s="2" t="s">
+      <c r="A188" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D188">
-        <v>200</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C188" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="D189">
+        <v>200</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D190">
-        <v>30</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>28</v>
+      <c r="C190" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>581</v>
+        <v>385</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D191">
+        <v>30</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>477</v>
+        <v>581</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>694</v>
+        <v>477</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D193">
-        <v>50</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>28</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>582</v>
+        <v>694</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D194">
+        <v>50</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>377</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>391</v>
+        <v>573</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D196">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D197">
         <v>20</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D197">
-        <v>100</v>
-      </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>369</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D198">
+        <v>100</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>402</v>
+        <v>574</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>543</v>
+        <v>402</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>381</v>
@@ -37978,7 +38725,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>381</v>
@@ -37989,7 +38736,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>381</v>
@@ -38000,79 +38747,79 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>723</v>
+        <v>412</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>472</v>
+        <v>723</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>688</v>
+        <v>472</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>546</v>
+        <v>652</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -38080,79 +38827,79 @@
         <v>511</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D211">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D212">
         <v>30</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="E212" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D214">
-        <v>10</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>381</v>
+        <v>508</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D216">
         <v>3</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>381</v>
+      <c r="E216" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -38160,55 +38907,55 @@
         <v>392</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D217">
-        <v>3</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D219">
+      <c r="D220">
         <v>10</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>377</v>
+      <c r="E220" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -38216,32 +38963,32 @@
         <v>481</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D221">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D222">
         <v>1000</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>369</v>
+      <c r="E222" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>369</v>
@@ -38254,35 +39001,29 @@
       <c r="A224" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
+      <c r="B224" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>413</v>
+        <v>695</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D226">
-        <v>150</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>22</v>
+        <v>433</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -38290,13 +39031,13 @@
         <v>413</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>521</v>
       </c>
       <c r="D227">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>22</v>
@@ -38306,21 +39047,27 @@
       <c r="A228" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="B228" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D228">
+        <v>30</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>369</v>
+      <c r="A229" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>431</v>
+        <v>598</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>369</v>
@@ -38330,24 +39077,24 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="1" t="s">
         <v>431</v>
       </c>
+      <c r="B231" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>369</v>
+      <c r="A232" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>369</v>
@@ -38358,46 +39105,46 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>612</v>
+        <v>538</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>613</v>
+        <v>369</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>613</v>
+        <v>369</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>720</v>
+        <v>612</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>372</v>
+        <v>613</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D235">
-        <v>20</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>28</v>
+        <v>613</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>490</v>
+        <v>720</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
+      </c>
+      <c r="D236">
+        <v>20</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>617</v>
+        <v>490</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>369</v>
@@ -38408,13 +39155,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>564</v>
+        <v>617</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -38422,54 +39169,54 @@
         <v>564</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D239">
-        <v>5</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>508</v>
+        <v>381</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>508</v>
+        <v>381</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>130</v>
+        <v>634</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>377</v>
@@ -38480,7 +39227,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>377</v>
@@ -38494,60 +39241,60 @@
         <v>68</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D245">
-        <v>1000</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>474</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
+      </c>
+      <c r="D246">
+        <v>1000</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>701</v>
+        <v>117</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D247">
-        <v>10</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>28</v>
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>233</v>
+        <v>701</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D248">
+        <v>10</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>586</v>
+        <v>233</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>377</v>
@@ -38558,127 +39305,124 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B253" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D252">
+      <c r="D253">
         <v>0.3</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>381</v>
+      <c r="E253" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="B254" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>393</v>
+        <v>91</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D256">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D257">
         <v>1000</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+      <c r="E257" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D257">
+      <c r="D258">
         <v>150</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>369</v>
+      <c r="E258" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>565</v>
+        <v>300</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D259">
-        <v>200</v>
+        <v>369</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -38686,37 +39430,40 @@
         <v>565</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>521</v>
+        <v>368</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D260">
+        <v>200</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>521</v>
@@ -38726,25 +39473,25 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -38752,30 +39499,24 @@
         <v>632</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D266">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D267">
         <v>20</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D267">
-        <v>50</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>28</v>
@@ -38786,13 +39527,13 @@
         <v>376</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D268">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>28</v>
@@ -38803,10 +39544,16 @@
         <v>376</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>377</v>
+      </c>
+      <c r="D269">
+        <v>30</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -38814,30 +39561,24 @@
         <v>376</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D270">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D271">
         <v>10</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D271">
-        <v>30</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>28</v>
@@ -38847,72 +39588,78 @@
       <c r="A272" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="B272" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D272">
+        <v>30</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D274">
-        <v>200</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>28</v>
+        <v>369</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
+      </c>
+      <c r="D275">
+        <v>200</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D276">
-        <v>200</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>28</v>
+        <v>381</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>507</v>
+        <v>650</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>377</v>
+      </c>
+      <c r="D277">
+        <v>200</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -38920,32 +39667,32 @@
         <v>507</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>508</v>
+        <v>377</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>508</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>369</v>
+        <v>508</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>369</v>
+        <v>508</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -38953,32 +39700,32 @@
         <v>558</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D281">
-        <v>20</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
+      </c>
+      <c r="D282">
+        <v>20</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>372</v>
@@ -38989,100 +39736,100 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B286" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C286" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D285">
+      <c r="D286">
         <v>30</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="E286" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D287">
-        <v>1000</v>
-      </c>
-      <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>369</v>
+        <v>474</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D288">
+        <v>1000</v>
+      </c>
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D289">
         <v>200</v>
       </c>
-      <c r="E288" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>369</v>
+      <c r="E289" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>651</v>
+        <v>142</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>548</v>
+        <v>651</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>377</v>
@@ -39096,76 +39843,76 @@
         <v>548</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D292">
-        <v>10</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>497</v>
+        <v>548</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D293">
+        <v>10</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D294">
-        <v>10</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>28</v>
+        <v>497</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>408</v>
+        <v>700</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
+      </c>
+      <c r="D295">
+        <v>10</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B297" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>369</v>
@@ -39176,13 +39923,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>647</v>
+        <v>449</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -39190,30 +39937,24 @@
         <v>647</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>368</v>
+        <v>521</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D300">
-        <v>200</v>
-      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B301" s="1" t="s">
+      <c r="A301" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>377</v>
+      <c r="C301" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="D301">
         <v>200</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -39221,15 +39962,21 @@
         <v>97</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D302">
+        <v>200</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>696</v>
+        <v>97</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>377</v>
@@ -39239,20 +39986,14 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C304" s="2" t="s">
+      <c r="A304" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D304">
-        <v>200</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>28</v>
+      <c r="C304" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -39260,15 +40001,21 @@
         <v>55</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="D305">
+        <v>200</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>657</v>
+        <v>55</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>377</v>
@@ -39279,65 +40026,59 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B310" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C310" s="2" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D311">
+      <c r="D312">
         <v>3</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D312">
-        <v>5</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>28</v>
@@ -39348,13 +40089,13 @@
         <v>379</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D313">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>28</v>
@@ -39364,44 +40105,44 @@
       <c r="A314" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="B314" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D314">
+        <v>15</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>474</v>
+      <c r="A315" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>520</v>
+        <v>656</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D317">
-        <v>150</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -39409,13 +40150,13 @@
         <v>520</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D318">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>28</v>
@@ -39426,74 +40167,74 @@
         <v>520</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D319">
+        <v>50</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B321" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C321" s="2" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D322">
+      <c r="D323">
         <v>1000</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B324" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C324" s="2" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D324">
-        <v>30</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -39501,132 +40242,138 @@
         <v>482</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D325">
+        <v>30</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D326">
         <v>100</v>
       </c>
-      <c r="E325" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+      <c r="E326" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B327" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C327" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="C328" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D327">
+      <c r="D328">
         <v>1000</v>
       </c>
-      <c r="E327" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
+      <c r="E328" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B329" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C328" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C329" s="1" t="s">
+      <c r="C329" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>709</v>
+        <v>562</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D333">
-        <v>1000</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D334">
+        <v>1000</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>504</v>
+        <v>654</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>377</v>
@@ -39637,7 +40384,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>60</v>
+        <v>504</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>377</v>
@@ -39647,102 +40394,96 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C338" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D337">
+      <c r="D338">
         <v>1000</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D339">
-        <v>50</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>659</v>
+        <v>418</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E340" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="D340">
+        <v>50</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E341" s="1"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B342" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C342" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D341">
+      <c r="D342">
         <v>80</v>
       </c>
-      <c r="E341" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="E342" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D343">
-        <v>5</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -39750,60 +40491,66 @@
         <v>380</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D344">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>596</v>
+      <c r="A345" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="D345">
+        <v>15</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B347" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C347" s="2" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>671</v>
+        <v>523</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -39811,24 +40558,24 @@
         <v>671</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>368</v>
+        <v>521</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D349">
-        <v>200</v>
-      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>549</v>
+        <v>671</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
+      </c>
+      <c r="D350">
+        <v>200</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -39836,44 +40583,38 @@
         <v>549</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D351">
-        <v>250</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D352">
+        <v>250</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D353">
-        <v>150</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -39881,13 +40622,13 @@
         <v>415</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D354">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>28</v>
@@ -39895,128 +40636,131 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="D355">
+        <v>30</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B358" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C358" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D358" t="s">
         <v>491</v>
       </c>
-      <c r="E357" s="2" t="s">
+      <c r="E358" s="2" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>533</v>
+        <v>673</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>372</v>
+        <v>568</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>372</v>
+        <v>568</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D360">
+      <c r="D361">
         <v>1000</v>
       </c>
-      <c r="E360" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D361">
-        <v>100</v>
-      </c>
       <c r="E361" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D362">
+        <v>100</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B363" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C363" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D362">
+      <c r="D363">
         <v>30</v>
       </c>
-      <c r="E362" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D363">
-        <v>400</v>
+      <c r="E363" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -40024,16 +40768,13 @@
         <v>614</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>377</v>
+        <v>580</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D364">
-        <v>1</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>28</v>
+        <v>400</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -40041,13 +40782,13 @@
         <v>614</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D365">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>28</v>
@@ -40058,54 +40799,60 @@
         <v>614</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D366">
+        <v>30</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>498</v>
+        <v>614</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D367">
-        <v>1</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>583</v>
+      <c r="A369" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>377</v>
@@ -40119,160 +40866,148 @@
         <v>579</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>580</v>
+        <v>377</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D371">
-        <v>200</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D372">
+        <v>200</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D373">
-        <v>3</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D374">
+        <v>3</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B375" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C375" s="2" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B377" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="C377" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B378" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C378" s="2" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>706</v>
+        <v>643</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>372</v>
+        <v>644</v>
       </c>
       <c r="C379" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D379">
-        <v>15</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D380">
-        <v>1000</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>22</v>
+      <c r="C380" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>521</v>
+      <c r="A381" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>613</v>
+      <c r="A382" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>372</v>
@@ -40281,157 +41016,150 @@
         <v>377</v>
       </c>
       <c r="D383">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>377</v>
+      <c r="A384" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="D384">
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>377</v>
+      <c r="A385" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B386" s="2" t="s">
+      <c r="A386" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D386">
-        <v>10</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>28</v>
+      <c r="C386" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D388">
+        <v>30</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C387" s="1" t="s">
+      <c r="B389" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D387">
+      <c r="D389">
+        <v>125</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D391">
         <v>10</v>
       </c>
-      <c r="E387" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D388">
-        <v>200</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D389">
-        <v>1000</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D391">
-        <v>30</v>
-      </c>
       <c r="E391" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>693</v>
+        <v>394</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E392" s="1"/>
+      <c r="D392">
+        <v>10</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>377</v>
+      <c r="A393" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="D393">
         <v>200</v>
@@ -40442,46 +41170,40 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>653</v>
+        <v>427</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>369</v>
+        <v>568</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="D394">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D395">
-        <v>10</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B396" s="2" t="s">
+      <c r="A396" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="C396" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D396">
@@ -40492,212 +41214,292 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D397">
-        <v>200</v>
+      <c r="A397" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="E397" s="1"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="B398" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D398">
+        <v>200</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D399">
+        <v>100</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="D400">
+        <v>10</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D399">
-        <v>200</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D401">
         <v>30</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D402">
+        <v>200</v>
+      </c>
+      <c r="E402" s="1"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>718</v>
+        <v>588</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="C403" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D403">
-        <v>20</v>
-      </c>
-      <c r="E403" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B404" s="1" t="s">
+      <c r="D404">
+        <v>200</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="C405" s="2" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D405">
-        <v>20</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>567</v>
+        <v>387</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>568</v>
+        <v>372</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="D406">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>521</v>
+      <c r="A407" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D408">
+        <v>20</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>645</v>
+        <v>464</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D409">
-        <v>1</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>645</v>
+        <v>464</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>644</v>
+        <v>372</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>644</v>
+        <v>377</v>
+      </c>
+      <c r="D410">
+        <v>20</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D411">
+        <v>1000</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="B416" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C411" s="1" t="s">
+      <c r="C416" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B417" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C417" s="2" t="s">
         <v>369</v>
       </c>
     </row>
@@ -40709,10 +41511,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="1" sqref="A383:XFD383 B9"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40903,6 +41705,26 @@
         <v>735</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -40911,10 +41733,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41866,6 +42688,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>114</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>115</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>116</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -41874,10 +42720,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A286" sqref="A286"/>
+    <sheetView topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286:XFD290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44994,6 +45840,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>114</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>115</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>115</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>116</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>116</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -45002,10 +45903,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281:XFD281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51341,13 +52242,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>706</v>
+        <v>2036</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>22</v>
@@ -51359,18 +52260,18 @@
         <v>28</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>551</v>
+        <v>2038</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>22</v>
@@ -51382,18 +52283,18 @@
         <v>28</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>2023</v>
+        <v>2037</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>22</v>
@@ -51405,12 +52306,12 @@
         <v>28</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>22</v>
@@ -51428,18 +52329,18 @@
         <v>28</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>697</v>
+        <v>551</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>22</v>
@@ -51456,7 +52357,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>394</v>
+        <v>2039</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>22</v>
@@ -51474,12 +52375,12 @@
         <v>28</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>427</v>
+      <c r="A282" s="1" t="s">
+        <v>2023</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>22</v>
@@ -51497,12 +52398,12 @@
         <v>28</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>427</v>
+        <v>815</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>693</v>
+      <c r="A283" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>22</v>
@@ -51520,21 +52421,21 @@
         <v>28</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>702</v>
+      <c r="A284" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>22</v>
@@ -51543,12 +52444,12 @@
         <v>28</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>653</v>
+        <v>394</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>22</v>
@@ -51566,12 +52467,12 @@
         <v>28</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>22</v>
@@ -51589,12 +52490,12 @@
         <v>28</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>814</v>
+        <v>427</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>588</v>
+      <c r="A287" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>22</v>
@@ -51612,44 +52513,44 @@
         <v>28</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>387</v>
+        <v>702</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>718</v>
+        <v>653</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>22</v>
@@ -51658,12 +52559,12 @@
         <v>28</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>464</v>
+      <c r="A290" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>22</v>
@@ -51672,7 +52573,7 @@
         <v>22</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>22</v>
@@ -51681,121 +52582,213 @@
         <v>28</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G291" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G292" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G292" s="1" t="s">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" s="1" t="s">
         <v>823</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G294" s="1" t="s">
+      <c r="B298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G298" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G295" s="1" t="s">
+      <c r="B299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G299" s="1" t="s">
         <v>816</v>
       </c>
     </row>
@@ -51807,10 +52800,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1020"/>
+  <dimension ref="A1:J1034"/>
   <sheetViews>
     <sheetView topLeftCell="A1000" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1019" sqref="A1019"/>
+      <selection activeCell="A1021" sqref="A1021:XFD1034"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67074,6 +68067,118 @@
       </c>
       <c r="B1020" s="1" t="s">
         <v>2024</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1021" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1022" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1023" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1024" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1025" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1026" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1027" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1028" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1029" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1030" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1032" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1034" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>2055</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13808" uniqueCount="2198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13849" uniqueCount="2200">
   <si>
     <t>id</t>
   </si>
@@ -6630,6 +6630,12 @@
   </si>
   <si>
     <t>zenzero in polvere</t>
+  </si>
+  <si>
+    <t>goat meet</t>
+  </si>
+  <si>
+    <t>carne di capra</t>
   </si>
 </sst>
 </file>
@@ -7105,10 +7111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView topLeftCell="D112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12854,6 +12860,50 @@
         <v>22</v>
       </c>
       <c r="P130" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D131" s="1">
+        <v>45</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1">
+        <v>3</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P131" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -13240,10 +13290,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15072,6 +15122,20 @@
       </c>
       <c r="D130" s="1" t="s">
         <v>2185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>99</v>
+      </c>
+      <c r="B131" s="1">
+        <v>130</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -15511,10 +15575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1522"/>
+  <dimension ref="A1:G1530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1503" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1523" sqref="A1523"/>
+    <sheetView topLeftCell="A1521" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1524" sqref="A1524:A1530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39487,7 +39551,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1521" s="1">
         <v>129</v>
       </c>
@@ -39501,7 +39565,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1522" s="1">
         <v>129</v>
       </c>
@@ -39513,6 +39577,120 @@
       </c>
       <c r="D1522" s="1" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1523" s="1">
+        <v>130</v>
+      </c>
+      <c r="B1523" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1523" s="1">
+        <v>300</v>
+      </c>
+      <c r="D1523" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1523" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1524" s="1">
+        <v>130</v>
+      </c>
+      <c r="B1524" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1524" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1524" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1524"/>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1525" s="1">
+        <v>130</v>
+      </c>
+      <c r="B1525" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1525" s="1">
+        <v>600</v>
+      </c>
+      <c r="D1525" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1525"/>
+      <c r="F1525" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1526" s="1">
+        <v>130</v>
+      </c>
+      <c r="B1526" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1526" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1526" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1526"/>
+    </row>
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1527" s="1">
+        <v>130</v>
+      </c>
+      <c r="B1527" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1527"/>
+    </row>
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1528" s="1">
+        <v>130</v>
+      </c>
+      <c r="B1528" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1528" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1528" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1528" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1529" s="1">
+        <v>130</v>
+      </c>
+      <c r="B1529" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1529" s="1">
+        <v>200</v>
+      </c>
+      <c r="D1529" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1529"/>
+    </row>
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1530" s="1">
+        <v>130</v>
+      </c>
+      <c r="B1530" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -45716,10 +45894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46799,6 +46977,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>130</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -46807,10 +46993,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C326"/>
+  <dimension ref="A1:C329"/>
   <sheetViews>
-    <sheetView topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A326" sqref="A326"/>
+    <sheetView topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A327" sqref="A327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50375,6 +50561,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>130</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C327" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>130</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>130</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -50383,10 +50602,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53478,11 +53697,11 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>664</v>
+      <c r="A135" s="1" t="s">
+        <v>2198</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>28</v>
@@ -53491,18 +53710,18 @@
         <v>22</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>22</v>
@@ -53525,76 +53744,76 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G137" s="1" t="s">
+      <c r="B138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" s="1" t="s">
+      <c r="B139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>22</v>
@@ -53617,7 +53836,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>22</v>
@@ -53640,7 +53859,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>22</v>
@@ -53663,7 +53882,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>385</v>
+        <v>661</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>22</v>
@@ -53685,31 +53904,31 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>581</v>
+      <c r="A144" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>477</v>
+        <v>581</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>22</v>
@@ -53724,15 +53943,15 @@
         <v>22</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>694</v>
+        <v>477</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>22</v>
@@ -53747,15 +53966,15 @@
         <v>22</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>582</v>
+        <v>694</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>22</v>
@@ -53773,35 +53992,35 @@
         <v>28</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>22</v>
@@ -53824,7 +54043,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>22</v>
@@ -53846,8 +54065,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>574</v>
+      <c r="A151" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>22</v>
@@ -53869,8 +54088,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>402</v>
+      <c r="A152" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>22</v>
@@ -53885,15 +54104,15 @@
         <v>22</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>2188</v>
+        <v>402</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>22</v>
@@ -53916,7 +54135,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>543</v>
+        <v>2188</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>22</v>
@@ -53939,7 +54158,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>22</v>
@@ -53962,7 +54181,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>22</v>
@@ -53985,7 +54204,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>723</v>
+        <v>412</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>22</v>
@@ -54008,7 +54227,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>2189</v>
+        <v>723</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>22</v>
@@ -54031,7 +54250,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>2151</v>
+        <v>2189</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>22</v>
@@ -54054,7 +54273,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>472</v>
+        <v>2151</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>22</v>
@@ -54076,8 +54295,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>641</v>
+      <c r="A161" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>22</v>
@@ -54092,291 +54311,291 @@
         <v>22</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>546</v>
+        <v>652</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" s="1" t="s">
+      <c r="B165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G165" s="1" t="s">
+      <c r="B166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" s="1" t="s">
+      <c r="B167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>2161</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" s="1" t="s">
+      <c r="B168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G168" s="1" t="s">
+      <c r="B169" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G170" s="1" t="s">
+      <c r="B171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" s="1" t="s">
+      <c r="B172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G172" s="1" t="s">
+      <c r="B173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>820</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>22</v>
@@ -54394,12 +54613,12 @@
         <v>28</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>695</v>
+        <v>388</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>22</v>
@@ -54414,38 +54633,38 @@
         <v>22</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>22</v>
@@ -54467,54 +54686,54 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G178" s="1" t="s">
+      <c r="B179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>22</v>
@@ -54537,7 +54756,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>612</v>
+        <v>538</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>22</v>
@@ -54549,30 +54768,30 @@
         <v>22</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>720</v>
+        <v>612</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>28</v>
@@ -54583,13 +54802,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>2070</v>
+        <v>720</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>22</v>
@@ -54601,12 +54820,12 @@
         <v>28</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>490</v>
+        <v>2070</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>22</v>
@@ -54629,7 +54848,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>617</v>
+        <v>490</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>22</v>
@@ -54647,12 +54866,12 @@
         <v>28</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>708</v>
+        <v>617</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>22</v>
@@ -54670,12 +54889,12 @@
         <v>28</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>564</v>
+        <v>708</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>22</v>
@@ -54690,15 +54909,15 @@
         <v>22</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>22</v>
@@ -54713,7 +54932,7 @@
         <v>22</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>810</v>
@@ -54721,13 +54940,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>674</v>
+        <v>585</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>22</v>
@@ -54739,18 +54958,18 @@
         <v>28</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>619</v>
+        <v>674</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>22</v>
@@ -54759,38 +54978,38 @@
         <v>22</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>130</v>
+        <v>634</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>22</v>
@@ -54813,36 +55032,36 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>22</v>
@@ -54854,18 +55073,18 @@
         <v>28</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>701</v>
+        <v>117</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>22</v>
@@ -54877,18 +55096,18 @@
         <v>28</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>233</v>
+        <v>701</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>22</v>
@@ -54900,15 +55119,15 @@
         <v>28</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>586</v>
+        <v>233</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>28</v>
@@ -54923,18 +55142,18 @@
         <v>28</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>22</v>
@@ -54946,12 +55165,12 @@
         <v>28</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>22</v>
@@ -54969,36 +55188,36 @@
         <v>28</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="B201" s="1" t="s">
         <v>22</v>
       </c>
@@ -55012,38 +55231,38 @@
         <v>22</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>22</v>
@@ -55065,8 +55284,8 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>300</v>
+      <c r="A204" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>22</v>
@@ -55084,12 +55303,12 @@
         <v>28</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>565</v>
+        <v>300</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>22</v>
@@ -55112,7 +55331,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>22</v>
@@ -55135,7 +55354,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>22</v>
@@ -55153,104 +55372,104 @@
         <v>28</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G208" s="1" t="s">
+      <c r="B209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" s="1" t="s">
+      <c r="B210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G210" s="1" t="s">
+      <c r="B211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>817</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>658</v>
+        <v>376</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>22</v>
@@ -55265,7 +55484,7 @@
         <v>22</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>816</v>
@@ -55273,53 +55492,53 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G213" s="1" t="s">
+      <c r="B214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>826</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>615</v>
+        <v>2157</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>22</v>
@@ -55337,12 +55556,12 @@
         <v>28</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>22</v>
@@ -55360,58 +55579,58 @@
         <v>28</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>507</v>
+        <v>679</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>2098</v>
+        <v>507</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>22</v>
@@ -55434,7 +55653,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>2116</v>
+        <v>2098</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>22</v>
@@ -55452,12 +55671,12 @@
         <v>28</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>555</v>
+        <v>2116</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>22</v>
@@ -55475,12 +55694,12 @@
         <v>28</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>1232</v>
+        <v>555</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>22</v>
@@ -55495,15 +55714,15 @@
         <v>22</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>558</v>
+        <v>1232</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>22</v>
@@ -55518,15 +55737,15 @@
         <v>22</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>22</v>
@@ -55549,7 +55768,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>22</v>
@@ -55567,12 +55786,12 @@
         <v>28</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>721</v>
+        <v>500</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>22</v>
@@ -55594,8 +55813,8 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>410</v>
+      <c r="A227" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>22</v>
@@ -55613,36 +55832,36 @@
         <v>28</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="B229" s="1" t="s">
         <v>22</v>
       </c>
@@ -55650,7 +55869,7 @@
         <v>22</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>22</v>
@@ -55664,7 +55883,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>651</v>
+        <v>142</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>22</v>
@@ -55679,15 +55898,15 @@
         <v>22</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>548</v>
+        <v>651</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>22</v>
@@ -55702,15 +55921,15 @@
         <v>22</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>22</v>
@@ -55728,12 +55947,12 @@
         <v>28</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>700</v>
+        <v>497</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>22</v>
@@ -55748,15 +55967,15 @@
         <v>22</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>408</v>
+        <v>700</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>22</v>
@@ -55771,15 +55990,15 @@
         <v>22</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>2126</v>
+        <v>408</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>22</v>
@@ -55802,53 +56021,53 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G236" s="1" t="s">
+      <c r="B237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>812</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>22</v>
@@ -55871,53 +56090,53 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G239" s="1" t="s">
+      <c r="B240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G240" s="1" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>696</v>
+        <v>97</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>22</v>
@@ -55939,31 +56158,31 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>55</v>
+      <c r="A242" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>657</v>
+        <v>55</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>22</v>
@@ -55986,76 +56205,76 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G244" s="1" t="s">
+      <c r="B245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>2085</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>22</v>
@@ -56078,283 +56297,283 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G248" s="1" t="s">
+      <c r="B249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G249" s="1" t="s">
+      <c r="B250" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G250" s="1" t="s">
+      <c r="B251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G251" s="1" t="s">
+      <c r="B252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G252" s="1" t="s">
+      <c r="B253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G253" s="1" t="s">
+      <c r="B254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G254" s="1" t="s">
+      <c r="B255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G255" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G255" s="1" t="s">
+      <c r="B256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G256" s="1" t="s">
+      <c r="B257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G257" s="1" t="s">
+      <c r="B258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G258" s="1" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>22</v>
@@ -56377,7 +56596,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>22</v>
@@ -56392,15 +56611,15 @@
         <v>22</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>705</v>
+        <v>513</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>22</v>
@@ -56415,15 +56634,15 @@
         <v>22</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>22</v>
@@ -56441,12 +56660,12 @@
         <v>28</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>514</v>
+        <v>710</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>22</v>
@@ -56469,7 +56688,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>22</v>
@@ -56487,12 +56706,12 @@
         <v>28</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>709</v>
+        <v>562</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>22</v>
@@ -56501,7 +56720,7 @@
         <v>22</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>22</v>
@@ -56510,21 +56729,21 @@
         <v>28</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>22</v>
@@ -56533,58 +56752,58 @@
         <v>28</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G268" s="1" t="s">
+      <c r="B269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G269" s="1" t="s">
         <v>823</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>418</v>
+        <v>60</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>22</v>
@@ -56593,7 +56812,7 @@
         <v>22</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>22</v>
@@ -56602,81 +56821,81 @@
         <v>28</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G271" s="1" t="s">
+      <c r="B272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G272" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>2163</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G272" s="1" t="s">
+      <c r="B273" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G273" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>22</v>
@@ -56698,54 +56917,54 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G275" s="1" t="s">
+      <c r="B276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G276" s="1" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G276" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>671</v>
+        <v>523</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>22</v>
@@ -56763,12 +56982,12 @@
         <v>28</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>549</v>
+        <v>671</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>22</v>
@@ -56786,12 +57005,12 @@
         <v>28</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>22</v>
@@ -56809,219 +57028,219 @@
         <v>28</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G280" s="1" t="s">
+      <c r="B281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G281" s="1" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G282" s="1" t="s">
+      <c r="B283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G283" s="1" t="s">
         <v>817</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>681</v>
+        <v>602</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G286" s="1" t="s">
+      <c r="B287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>22</v>
@@ -57044,7 +57263,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>498</v>
+        <v>614</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>22</v>
@@ -57067,76 +57286,76 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>583</v>
+        <v>498</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G292" s="1" t="s">
+      <c r="B293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" s="1" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>22</v>
@@ -57154,105 +57373,105 @@
         <v>28</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G295" s="1" t="s">
+      <c r="B296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G297" s="1" t="s">
+      <c r="B298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G298" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="B299" s="1" t="s">
         <v>22</v>
       </c>
@@ -57266,7 +57485,7 @@
         <v>22</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>818</v>
@@ -57274,13 +57493,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>2036</v>
+        <v>643</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>22</v>
@@ -57289,15 +57508,15 @@
         <v>22</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>28</v>
@@ -57320,7 +57539,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>2109</v>
+        <v>2038</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>28</v>
@@ -57343,7 +57562,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>2037</v>
+        <v>2109</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>28</v>
@@ -57366,13 +57585,13 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>706</v>
+        <v>2037</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>22</v>
@@ -57384,81 +57603,81 @@
         <v>28</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F305" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G305" s="1" t="s">
+      <c r="B306" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G306" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F306" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G306" s="1" t="s">
+      <c r="B307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G307" s="1" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G307" s="1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>633</v>
+        <v>2023</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>22</v>
@@ -57476,58 +57695,58 @@
         <v>28</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G309" s="1" t="s">
+      <c r="B310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>2084</v>
+        <v>394</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>22</v>
@@ -57550,7 +57769,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>427</v>
+        <v>2084</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>22</v>
@@ -57568,12 +57787,12 @@
         <v>28</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>427</v>
+        <v>811</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>693</v>
+        <v>427</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>22</v>
@@ -57591,12 +57810,12 @@
         <v>28</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>816</v>
+        <v>427</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>22</v>
@@ -57605,7 +57824,7 @@
         <v>22</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>22</v>
@@ -57614,12 +57833,12 @@
         <v>28</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>22</v>
@@ -57628,7 +57847,7 @@
         <v>22</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>22</v>
@@ -57637,110 +57856,110 @@
         <v>28</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G316" s="1" t="s">
+      <c r="B317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G317" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G317" s="1" t="s">
+      <c r="B318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G318" s="1" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G318" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G319" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="B320" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>28</v>
@@ -57757,53 +57976,53 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>567</v>
+        <v>464</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>676</v>
+        <v>567</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>2099</v>
+        <v>676</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>22</v>
@@ -57812,21 +58031,21 @@
         <v>22</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>645</v>
+        <v>2099</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>22</v>
@@ -57841,55 +58060,78 @@
         <v>22</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G325" s="1" t="s">
+      <c r="B326" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G326" s="1" t="s">
+      <c r="B327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G327" s="1" t="s">
         <v>816</v>
       </c>
     </row>
@@ -57901,10 +58143,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1107"/>
+  <dimension ref="A1:J1108"/>
   <sheetViews>
     <sheetView topLeftCell="A1090" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1106" sqref="A1106"/>
+      <selection activeCell="A1108" sqref="A1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73864,6 +74106,14 @@
       </c>
       <c r="B1107" s="1" t="s">
         <v>2185</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1108" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>2199</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14373" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14394" uniqueCount="2278">
   <si>
     <t>id</t>
   </si>
@@ -6680,9 +6680,6 @@
     <t>recipes/africa/morocco/fish-batter</t>
   </si>
   <si>
-    <t>shrimp; calamari; sea bream</t>
-  </si>
-  <si>
     <t>fried; baked</t>
   </si>
   <si>
@@ -6695,9 +6692,6 @@
     <t>fritto; al forno</t>
   </si>
   <si>
-    <t>gamberi; calamari; orata</t>
-  </si>
-  <si>
     <t>recipes/africa/morocco/tagin-beef-stew</t>
   </si>
   <si>
@@ -6854,9 +6848,6 @@
     <t>coconut; semolina</t>
   </si>
   <si>
-    <t>scented water</t>
-  </si>
-  <si>
     <t>Karb igzhal (dessert di semolino e cocco)</t>
   </si>
   <si>
@@ -6866,7 +6857,19 @@
     <t>cocco; semolino</t>
   </si>
   <si>
-    <t>acqua profumata</t>
+    <t>shrimp; calamari; sea bream; surimi</t>
+  </si>
+  <si>
+    <t>gamberi; calamari; orata; surimi</t>
+  </si>
+  <si>
+    <t>surimi</t>
+  </si>
+  <si>
+    <t>rose water</t>
+  </si>
+  <si>
+    <t>acqua di rose</t>
   </si>
 </sst>
 </file>
@@ -7344,8 +7347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="H133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13193,13 +13196,13 @@
         <v>2213</v>
       </c>
       <c r="D133" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E133" s="1">
         <v>4</v>
       </c>
       <c r="F133" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>151</v>
@@ -13208,10 +13211,10 @@
         <v>148</v>
       </c>
       <c r="K133" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="L133" s="1" t="s">
         <v>2214</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>2215</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>28</v>
@@ -13231,10 +13234,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="D134" s="1">
         <v>90</v>
@@ -13252,7 +13255,7 @@
         <v>19</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>21</v>
@@ -13275,10 +13278,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D135" s="1">
         <v>90</v>
@@ -13296,7 +13299,7 @@
         <v>19</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>2091</v>
@@ -13319,10 +13322,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D136" s="1">
         <v>60</v>
@@ -13340,7 +13343,7 @@
         <v>19</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>2091</v>
@@ -13363,10 +13366,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="D137" s="1">
         <v>90</v>
@@ -13387,7 +13390,7 @@
         <v>20</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>22</v>
@@ -13407,10 +13410,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="D138" s="1">
         <v>120</v>
@@ -13422,7 +13425,7 @@
         <v>4</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>19</v>
@@ -13451,10 +13454,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="D139" s="1">
         <v>45</v>
@@ -13472,7 +13475,7 @@
         <v>84</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>61</v>
@@ -13495,10 +13498,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="D140" s="1">
         <v>60</v>
@@ -13516,7 +13519,7 @@
         <v>84</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>61</v>
@@ -13531,7 +13534,7 @@
         <v>28</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -15801,7 +15804,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>151</v>
@@ -15815,7 +15818,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>234</v>
@@ -15829,7 +15832,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>218</v>
@@ -15843,7 +15846,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>2142</v>
@@ -15857,10 +15860,10 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>2258</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -15871,7 +15874,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>2142</v>
@@ -15885,7 +15888,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>151</v>
@@ -16325,7 +16328,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
   </sheetData>
@@ -16336,10 +16339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1635"/>
+  <dimension ref="A1:G1636"/>
   <sheetViews>
-    <sheetView topLeftCell="A1610" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1621" sqref="A1621"/>
+    <sheetView topLeftCell="A1621" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1636" sqref="D1636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40618,10 +40621,10 @@
         <v>132</v>
       </c>
       <c r="B1543" s="2" t="s">
-        <v>503</v>
+        <v>2275</v>
       </c>
       <c r="C1543" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D1543" s="1" t="s">
         <v>373</v>
@@ -40632,10 +40635,10 @@
         <v>132</v>
       </c>
       <c r="B1544" s="2" t="s">
-        <v>692</v>
+        <v>503</v>
       </c>
       <c r="C1544" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D1544" s="1" t="s">
         <v>373</v>
@@ -40646,10 +40649,10 @@
         <v>132</v>
       </c>
       <c r="B1545" s="2" t="s">
-        <v>68</v>
+        <v>692</v>
       </c>
       <c r="C1545" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D1545" s="1" t="s">
         <v>373</v>
@@ -40660,7 +40663,13 @@
         <v>132</v>
       </c>
       <c r="B1546" s="2" t="s">
-        <v>432</v>
+        <v>68</v>
+      </c>
+      <c r="C1546" s="1">
+        <v>500</v>
+      </c>
+      <c r="D1546" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
@@ -40668,13 +40677,7 @@
         <v>132</v>
       </c>
       <c r="B1547" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C1547" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1547" s="1" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
@@ -40682,13 +40685,13 @@
         <v>132</v>
       </c>
       <c r="B1548" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C1548" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D1548" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
@@ -40696,10 +40699,10 @@
         <v>132</v>
       </c>
       <c r="B1549" s="2" t="s">
-        <v>502</v>
+        <v>384</v>
       </c>
       <c r="C1549" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D1549" s="1" t="s">
         <v>373</v>
@@ -40710,7 +40713,13 @@
         <v>132</v>
       </c>
       <c r="B1550" s="2" t="s">
-        <v>468</v>
+        <v>502</v>
+      </c>
+      <c r="C1550" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1550" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
@@ -40718,7 +40727,7 @@
         <v>132</v>
       </c>
       <c r="B1551" s="2" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
@@ -40726,21 +40735,15 @@
         <v>132</v>
       </c>
       <c r="B1552" s="2" t="s">
-        <v>2146</v>
+        <v>398</v>
       </c>
     </row>
     <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1553" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1553" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1553" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1553" s="1" t="s">
-        <v>470</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
@@ -40748,13 +40751,13 @@
         <v>133</v>
       </c>
       <c r="B1554" s="2" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C1554" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1554" s="1" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
@@ -40762,10 +40765,10 @@
         <v>133</v>
       </c>
       <c r="B1555" s="2" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="C1555" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1555" s="1" t="s">
         <v>365</v>
@@ -40776,13 +40779,13 @@
         <v>133</v>
       </c>
       <c r="B1556" s="2" t="s">
-        <v>367</v>
+        <v>104</v>
       </c>
       <c r="C1556" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D1556" s="1" t="s">
-        <v>564</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
@@ -40790,13 +40793,13 @@
         <v>133</v>
       </c>
       <c r="B1557" s="2" t="s">
-        <v>466</v>
+        <v>367</v>
       </c>
       <c r="C1557" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D1557" s="1" t="s">
-        <v>365</v>
+        <v>564</v>
       </c>
     </row>
     <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
@@ -40804,10 +40807,10 @@
         <v>133</v>
       </c>
       <c r="B1558" s="2" t="s">
-        <v>389</v>
+        <v>466</v>
       </c>
       <c r="C1558" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1558" s="1" t="s">
         <v>365</v>
@@ -40818,13 +40821,13 @@
         <v>133</v>
       </c>
       <c r="B1559" s="2" t="s">
-        <v>2097</v>
+        <v>389</v>
       </c>
       <c r="C1559" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D1559" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
@@ -40832,13 +40835,13 @@
         <v>133</v>
       </c>
       <c r="B1560" s="2" t="s">
-        <v>369</v>
+        <v>2097</v>
       </c>
       <c r="C1560" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D1560" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
@@ -40846,13 +40849,13 @@
         <v>133</v>
       </c>
       <c r="B1561" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C1561" s="1">
         <v>1</v>
       </c>
       <c r="D1561" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
@@ -40860,13 +40863,13 @@
         <v>133</v>
       </c>
       <c r="B1562" s="2" t="s">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="C1562" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1562" s="1" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
@@ -40874,13 +40877,13 @@
         <v>133</v>
       </c>
       <c r="B1563" s="2" t="s">
-        <v>423</v>
+        <v>44</v>
       </c>
       <c r="C1563" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D1563" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
@@ -40888,7 +40891,13 @@
         <v>133</v>
       </c>
       <c r="B1564" s="2" t="s">
-        <v>375</v>
+        <v>423</v>
+      </c>
+      <c r="C1564" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D1564" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
@@ -40896,7 +40905,7 @@
         <v>133</v>
       </c>
       <c r="B1565" s="2" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
@@ -40904,21 +40913,15 @@
         <v>133</v>
       </c>
       <c r="B1566" s="2" t="s">
-        <v>2108</v>
+        <v>398</v>
       </c>
     </row>
     <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1567" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1567" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1567" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1567" s="1" t="s">
-        <v>470</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
@@ -40926,13 +40929,13 @@
         <v>134</v>
       </c>
       <c r="B1568" s="2" t="s">
-        <v>526</v>
+        <v>97</v>
       </c>
       <c r="C1568" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="D1568" s="1" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
@@ -40940,13 +40943,13 @@
         <v>134</v>
       </c>
       <c r="B1569" s="2" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
       <c r="C1569" s="1">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D1569" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
@@ -40954,10 +40957,10 @@
         <v>134</v>
       </c>
       <c r="B1570" s="2" t="s">
-        <v>104</v>
+        <v>570</v>
       </c>
       <c r="C1570" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1570" s="1" t="s">
         <v>365</v>
@@ -40968,10 +40971,10 @@
         <v>134</v>
       </c>
       <c r="B1571" s="2" t="s">
-        <v>2231</v>
+        <v>104</v>
       </c>
       <c r="C1571" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1571" s="1" t="s">
         <v>365</v>
@@ -40982,7 +40985,13 @@
         <v>134</v>
       </c>
       <c r="B1572" s="2" t="s">
-        <v>479</v>
+        <v>2229</v>
+      </c>
+      <c r="C1572" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1572" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
@@ -40990,7 +40999,7 @@
         <v>134</v>
       </c>
       <c r="B1573" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
@@ -40998,7 +41007,7 @@
         <v>134</v>
       </c>
       <c r="B1574" s="2" t="s">
-        <v>629</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
@@ -41006,7 +41015,7 @@
         <v>134</v>
       </c>
       <c r="B1575" s="2" t="s">
-        <v>375</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
@@ -41014,13 +41023,7 @@
         <v>134</v>
       </c>
       <c r="B1576" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1576" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1576" s="1" t="s">
-        <v>470</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
@@ -41028,13 +41031,13 @@
         <v>134</v>
       </c>
       <c r="B1577" s="2" t="s">
-        <v>667</v>
+        <v>201</v>
       </c>
       <c r="C1577" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D1577" s="1" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
@@ -41042,27 +41045,27 @@
         <v>134</v>
       </c>
       <c r="B1578" s="2" t="s">
-        <v>2232</v>
+        <v>667</v>
       </c>
       <c r="C1578" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D1578" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1579" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1579" s="2" t="s">
-        <v>97</v>
+        <v>2230</v>
       </c>
       <c r="C1579" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D1579" s="1" t="s">
-        <v>470</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
@@ -41070,7 +41073,7 @@
         <v>135</v>
       </c>
       <c r="B1580" s="2" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="C1580" s="1">
         <v>1</v>
@@ -41084,13 +41087,13 @@
         <v>135</v>
       </c>
       <c r="B1581" s="2" t="s">
-        <v>389</v>
+        <v>201</v>
       </c>
       <c r="C1581" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1581" s="1" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
@@ -41098,13 +41101,13 @@
         <v>135</v>
       </c>
       <c r="B1582" s="2" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="C1582" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D1582" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
@@ -41112,7 +41115,13 @@
         <v>135</v>
       </c>
       <c r="B1583" s="2" t="s">
-        <v>469</v>
+        <v>37</v>
+      </c>
+      <c r="C1583" s="1">
+        <v>500</v>
+      </c>
+      <c r="D1583" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
@@ -41120,13 +41129,7 @@
         <v>135</v>
       </c>
       <c r="B1584" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C1584" s="1">
-        <v>700</v>
-      </c>
-      <c r="D1584" s="1" t="s">
-        <v>373</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1585" spans="1:6" x14ac:dyDescent="0.25">
@@ -41134,7 +41137,13 @@
         <v>135</v>
       </c>
       <c r="B1585" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
+      </c>
+      <c r="C1585" s="1">
+        <v>700</v>
+      </c>
+      <c r="D1585" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="1586" spans="1:6" x14ac:dyDescent="0.25">
@@ -41142,7 +41151,7 @@
         <v>135</v>
       </c>
       <c r="B1586" s="2" t="s">
-        <v>667</v>
+        <v>608</v>
       </c>
     </row>
     <row r="1587" spans="1:6" x14ac:dyDescent="0.25">
@@ -41150,21 +41159,15 @@
         <v>135</v>
       </c>
       <c r="B1587" s="2" t="s">
-        <v>375</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1588" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1588" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1588" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1588" s="1" t="s">
-        <v>470</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1589" spans="1:6" x14ac:dyDescent="0.25">
@@ -41172,13 +41175,13 @@
         <v>136</v>
       </c>
       <c r="B1589" s="2" t="s">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="C1589" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1589" s="1" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1590" spans="1:6" x14ac:dyDescent="0.25">
@@ -41186,13 +41189,13 @@
         <v>136</v>
       </c>
       <c r="B1590" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C1590" s="1">
         <v>4</v>
       </c>
       <c r="D1590" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1591" spans="1:6" x14ac:dyDescent="0.25">
@@ -41200,16 +41203,13 @@
         <v>136</v>
       </c>
       <c r="B1591" s="2" t="s">
-        <v>2246</v>
+        <v>369</v>
       </c>
       <c r="C1591" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D1591" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F1591" s="1" t="s">
-        <v>2247</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1592" spans="1:6" x14ac:dyDescent="0.25">
@@ -41217,13 +41217,16 @@
         <v>136</v>
       </c>
       <c r="B1592" s="2" t="s">
-        <v>383</v>
+        <v>2244</v>
       </c>
       <c r="C1592" s="1">
-        <v>250</v>
+        <v>0.5</v>
       </c>
       <c r="D1592" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
+      </c>
+      <c r="F1592" s="1" t="s">
+        <v>2245</v>
       </c>
     </row>
     <row r="1593" spans="1:6" x14ac:dyDescent="0.25">
@@ -41231,13 +41234,13 @@
         <v>136</v>
       </c>
       <c r="B1593" s="2" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C1593" s="1">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="D1593" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1594" spans="1:6" x14ac:dyDescent="0.25">
@@ -41245,13 +41248,13 @@
         <v>136</v>
       </c>
       <c r="B1594" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C1594" s="1">
         <v>0.5</v>
       </c>
       <c r="D1594" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1595" spans="1:6" x14ac:dyDescent="0.25">
@@ -41259,10 +41262,10 @@
         <v>136</v>
       </c>
       <c r="B1595" s="2" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="C1595" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D1595" s="1" t="s">
         <v>377</v>
@@ -41273,10 +41276,10 @@
         <v>136</v>
       </c>
       <c r="B1596" s="2" t="s">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="C1596" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D1596" s="1" t="s">
         <v>377</v>
@@ -41287,10 +41290,10 @@
         <v>136</v>
       </c>
       <c r="B1597" s="2" t="s">
-        <v>2145</v>
+        <v>468</v>
       </c>
       <c r="C1597" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D1597" s="1" t="s">
         <v>377</v>
@@ -41301,7 +41304,13 @@
         <v>136</v>
       </c>
       <c r="B1598" s="2" t="s">
-        <v>379</v>
+        <v>2145</v>
+      </c>
+      <c r="C1598" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D1598" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="1599" spans="1:6" x14ac:dyDescent="0.25">
@@ -41309,16 +41318,7 @@
         <v>136</v>
       </c>
       <c r="B1599" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C1599" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1599" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1599" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1600" spans="1:6" x14ac:dyDescent="0.25">
@@ -41326,24 +41326,24 @@
         <v>136</v>
       </c>
       <c r="B1600" s="2" t="s">
-        <v>2254</v>
+        <v>390</v>
+      </c>
+      <c r="C1600" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1600" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1600" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="1601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1601" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1601" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C1601" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1601" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1601" s="1" t="s">
-        <v>2068</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1602" spans="1:6" x14ac:dyDescent="0.25">
@@ -41351,13 +41351,16 @@
         <v>137</v>
       </c>
       <c r="B1602" s="2" t="s">
-        <v>97</v>
+        <v>477</v>
       </c>
       <c r="C1602" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1602" s="1" t="s">
         <v>470</v>
+      </c>
+      <c r="F1602" s="1" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="1603" spans="1:6" x14ac:dyDescent="0.25">
@@ -41365,7 +41368,7 @@
         <v>137</v>
       </c>
       <c r="B1603" s="2" t="s">
-        <v>389</v>
+        <v>97</v>
       </c>
       <c r="C1603" s="1">
         <v>1</v>
@@ -41379,13 +41382,13 @@
         <v>137</v>
       </c>
       <c r="B1604" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C1604" s="1">
         <v>1</v>
       </c>
       <c r="D1604" s="1" t="s">
-        <v>370</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1605" spans="1:6" x14ac:dyDescent="0.25">
@@ -41393,13 +41396,13 @@
         <v>137</v>
       </c>
       <c r="B1605" s="2" t="s">
-        <v>570</v>
+        <v>369</v>
       </c>
       <c r="C1605" s="1">
         <v>1</v>
       </c>
       <c r="D1605" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1606" spans="1:6" x14ac:dyDescent="0.25">
@@ -41407,7 +41410,13 @@
         <v>137</v>
       </c>
       <c r="B1606" s="2" t="s">
-        <v>398</v>
+        <v>570</v>
+      </c>
+      <c r="C1606" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1606" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="1607" spans="1:6" x14ac:dyDescent="0.25">
@@ -41415,7 +41424,7 @@
         <v>137</v>
       </c>
       <c r="B1607" s="2" t="s">
-        <v>667</v>
+        <v>398</v>
       </c>
     </row>
     <row r="1608" spans="1:6" x14ac:dyDescent="0.25">
@@ -41423,13 +41432,7 @@
         <v>137</v>
       </c>
       <c r="B1608" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C1608" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1608" s="1" t="s">
-        <v>368</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1609" spans="1:6" x14ac:dyDescent="0.25">
@@ -41437,7 +41440,13 @@
         <v>137</v>
       </c>
       <c r="B1609" s="2" t="s">
-        <v>450</v>
+        <v>697</v>
+      </c>
+      <c r="C1609" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1609" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="1610" spans="1:6" x14ac:dyDescent="0.25">
@@ -41445,7 +41454,7 @@
         <v>137</v>
       </c>
       <c r="B1610" s="2" t="s">
-        <v>577</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1611" spans="1:6" x14ac:dyDescent="0.25">
@@ -41453,7 +41462,7 @@
         <v>137</v>
       </c>
       <c r="B1611" s="2" t="s">
-        <v>2232</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1612" spans="1:6" x14ac:dyDescent="0.25">
@@ -41461,7 +41470,7 @@
         <v>137</v>
       </c>
       <c r="B1612" s="2" t="s">
-        <v>2097</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1613" spans="1:6" x14ac:dyDescent="0.25">
@@ -41469,7 +41478,7 @@
         <v>137</v>
       </c>
       <c r="B1613" s="2" t="s">
-        <v>571</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1614" spans="1:6" x14ac:dyDescent="0.25">
@@ -41477,21 +41486,15 @@
         <v>137</v>
       </c>
       <c r="B1614" s="2" t="s">
-        <v>2120</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1615" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1615" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C1615" s="1">
-        <v>300</v>
-      </c>
-      <c r="D1615" s="1" t="s">
-        <v>373</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1616" spans="1:6" x14ac:dyDescent="0.25">
@@ -41499,205 +41502,211 @@
         <v>138</v>
       </c>
       <c r="B1616" s="2" t="s">
-        <v>376</v>
+        <v>559</v>
       </c>
       <c r="C1616" s="1">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="D1616" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1617" s="1">
         <v>138</v>
       </c>
       <c r="B1617" s="2" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="C1617" s="1">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="D1617" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1618" s="1">
         <v>138</v>
       </c>
       <c r="B1618" s="2" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C1618" s="1">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="D1618" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1619" s="1">
         <v>138</v>
       </c>
       <c r="B1619" s="2" t="s">
-        <v>563</v>
+        <v>417</v>
       </c>
       <c r="C1619" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D1619" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1620" s="1">
         <v>138</v>
       </c>
       <c r="B1620" s="2" t="s">
-        <v>384</v>
+        <v>563</v>
       </c>
       <c r="C1620" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D1620" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1621" s="1">
         <v>138</v>
       </c>
       <c r="B1621" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="C1621" s="1">
         <v>1</v>
       </c>
       <c r="D1621" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1622" s="1">
         <v>138</v>
       </c>
       <c r="B1622" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="C1622" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1622" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1623" s="1">
         <v>138</v>
       </c>
       <c r="B1623" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1623" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1623" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1624" s="1">
         <v>138</v>
       </c>
       <c r="B1624" s="2" t="s">
-        <v>2264</v>
-      </c>
-      <c r="C1624" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1624" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1625" s="1">
         <v>138</v>
       </c>
       <c r="B1625" s="2" t="s">
-        <v>563</v>
+        <v>2262</v>
       </c>
       <c r="C1625" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D1625" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1626" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1626" s="2" t="s">
-        <v>617</v>
+        <v>563</v>
       </c>
       <c r="C1626" s="1">
-        <v>70</v>
+        <v>0.5</v>
       </c>
       <c r="D1626" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1627" s="1">
         <v>139</v>
       </c>
       <c r="B1627" s="2" t="s">
-        <v>85</v>
+        <v>617</v>
       </c>
       <c r="C1627" s="1">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D1627" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1628" s="1">
         <v>139</v>
       </c>
       <c r="B1628" s="2" t="s">
-        <v>376</v>
+        <v>85</v>
       </c>
       <c r="C1628" s="1">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D1628" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1629" s="1">
         <v>139</v>
       </c>
       <c r="B1629" s="2" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="C1629" s="1">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D1629" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1630" s="1">
         <v>139</v>
       </c>
       <c r="B1630" s="2" t="s">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="C1630" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1630" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1631" s="1">
         <v>139</v>
       </c>
       <c r="B1631" s="2" t="s">
-        <v>433</v>
+        <v>667</v>
       </c>
       <c r="C1631" s="1">
         <v>1</v>
@@ -41706,12 +41715,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1632" s="1">
         <v>139</v>
       </c>
       <c r="B1632" s="2" t="s">
-        <v>2272</v>
+        <v>367</v>
+      </c>
+      <c r="C1632" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1632" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
@@ -41719,13 +41734,13 @@
         <v>139</v>
       </c>
       <c r="B1633" s="2" t="s">
-        <v>594</v>
+        <v>2276</v>
       </c>
       <c r="C1633" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D1633" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
@@ -41733,10 +41748,10 @@
         <v>139</v>
       </c>
       <c r="B1634" s="2" t="s">
-        <v>451</v>
+        <v>594</v>
       </c>
       <c r="C1634" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D1634" s="1" t="s">
         <v>373</v>
@@ -41747,12 +41762,26 @@
         <v>139</v>
       </c>
       <c r="B1635" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1635" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1635" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1636" s="1">
+        <v>139</v>
+      </c>
+      <c r="B1636" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C1635" s="1">
+      <c r="C1636" s="1">
         <v>125</v>
       </c>
-      <c r="D1635" s="1" t="s">
+      <c r="D1636" s="1" t="s">
         <v>373</v>
       </c>
     </row>
@@ -41764,10 +41793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F468"/>
+  <dimension ref="A1:F470"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A348" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42132,7 +42161,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>365</v>
@@ -42578,7 +42607,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>373</v>
@@ -42691,7 +42720,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>364</v>
@@ -45781,7 +45810,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>364</v>
@@ -46308,61 +46337,61 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D350">
+        <v>30</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B352" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C352" s="2" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="C354" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D353">
+      <c r="D354">
         <v>3</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D354">
-        <v>5</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>28</v>
@@ -46373,13 +46402,13 @@
         <v>375</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D355">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>28</v>
@@ -46389,44 +46418,44 @@
       <c r="A356" s="2" t="s">
         <v>375</v>
       </c>
+      <c r="B356" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D356">
+        <v>15</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>470</v>
+      <c r="A357" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>516</v>
+        <v>652</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="D359">
-        <v>150</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -46434,13 +46463,13 @@
         <v>516</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D360">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>28</v>
@@ -46451,85 +46480,85 @@
         <v>516</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="D361">
+        <v>50</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B363" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B364" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="C364" s="2" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B365" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D365">
+      <c r="D366">
         <v>1000</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B367" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="C367" s="2" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D367">
-        <v>30</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -46537,132 +46566,138 @@
         <v>478</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D368">
+        <v>30</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D369">
         <v>100</v>
       </c>
-      <c r="E368" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+      <c r="E369" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B370" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C370" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D370">
+      <c r="D371">
         <v>1000</v>
       </c>
-      <c r="E370" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
+      <c r="E371" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B372" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C372" s="1" t="s">
+      <c r="C372" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>705</v>
+        <v>558</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>470</v>
+        <v>373</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D376">
-        <v>1000</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>650</v>
+        <v>705</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="D377">
+        <v>1000</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>373</v>
@@ -46673,7 +46708,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>373</v>
@@ -46687,115 +46722,109 @@
         <v>60</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D380">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D381">
         <v>150</v>
       </c>
-      <c r="E380" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+      <c r="E381" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B382" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C382" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D381">
+      <c r="D382">
         <v>1000</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D383">
-        <v>50</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>655</v>
+        <v>414</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E384" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="D384">
+        <v>50</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E385" s="1"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B386" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C386" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D385">
+      <c r="D386">
         <v>80</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+      <c r="E386" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B387" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D387">
-        <v>5</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -46803,63 +46832,66 @@
         <v>376</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D388">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>592</v>
+      <c r="A389" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="D389">
+        <v>15</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
+      <c r="A390" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B391" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C391" s="2" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>667</v>
+        <v>519</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>564</v>
+        <v>373</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D392">
-        <v>1000</v>
+        <v>373</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -46867,16 +46899,13 @@
         <v>667</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>368</v>
+        <v>564</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D393">
-        <v>30</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -46884,10 +46913,16 @@
         <v>667</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>517</v>
+        <v>368</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>517</v>
+      </c>
+      <c r="D394">
+        <v>30</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -46895,229 +46930,220 @@
         <v>667</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>364</v>
+        <v>517</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D395">
-        <v>200</v>
-      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>545</v>
+        <v>667</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
+      </c>
+      <c r="D396">
+        <v>200</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>545</v>
+        <v>2275</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D397">
-        <v>250</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D399">
+        <v>250</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="B400" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="C400" s="1" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D399">
-        <v>150</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D400">
-        <v>30</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="D401">
+        <v>150</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B402" s="1" t="s">
+      <c r="A402" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C402" s="1" t="s">
-        <v>368</v>
+      <c r="C402" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D402">
+        <v>30</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>677</v>
+        <v>439</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D403" t="s">
-        <v>487</v>
-      </c>
-      <c r="E403" s="2" t="s">
-        <v>487</v>
+        <v>373</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>669</v>
+        <v>598</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>564</v>
+        <v>368</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>564</v>
+        <v>368</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>368</v>
+      <c r="A405" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D405" t="s">
+        <v>487</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C406" s="1" t="s">
+      <c r="C408" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D406">
+      <c r="D408">
         <v>1000</v>
       </c>
-      <c r="E406" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
+      <c r="E408" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B409" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C407" s="2" t="s">
+      <c r="C409" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D407">
+      <c r="D409">
         <v>100</v>
       </c>
-      <c r="E407" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+      <c r="E409" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B410" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="C410" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D408">
+      <c r="D410">
         <v>30</v>
       </c>
-      <c r="E408" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D409">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D410">
-        <v>1</v>
-      </c>
       <c r="E410" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -47125,16 +47151,13 @@
         <v>610</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>368</v>
+        <v>576</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D411">
-        <v>30</v>
-      </c>
-      <c r="E411" s="1" t="s">
-        <v>28</v>
+        <v>400</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -47142,32 +47165,38 @@
         <v>610</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>517</v>
+        <v>373</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>494</v>
+        <v>610</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
-        <v>494</v>
+      <c r="A414" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>517</v>
@@ -47178,151 +47207,157 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>579</v>
+        <v>494</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>575</v>
+      <c r="A416" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>576</v>
+        <v>373</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D417">
-        <v>200</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D419">
+        <v>200</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="B420" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C418" s="1" t="s">
+      <c r="C420" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B421" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C419" s="2" t="s">
+      <c r="C421" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D419">
+      <c r="D421">
         <v>3</v>
       </c>
-      <c r="E419" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
+      <c r="E421" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B422" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C422" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B423" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="C423" s="2" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>639</v>
+        <v>593</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>640</v>
+        <v>365</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>640</v>
+        <v>365</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>2007</v>
+        <v>454</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>373</v>
+      <c r="A426" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>2068</v>
+        <v>2007</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>373</v>
@@ -47333,7 +47368,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>373</v>
@@ -47343,115 +47378,109 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C429" s="1" t="s">
+      <c r="A429" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D429">
-        <v>15</v>
-      </c>
-      <c r="E429" s="1" t="s">
-        <v>28</v>
+      <c r="C429" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D430">
-        <v>1000</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>22</v>
+      <c r="A430" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>547</v>
+        <v>702</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>517</v>
+        <v>368</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>517</v>
+        <v>373</v>
+      </c>
+      <c r="D431">
+        <v>15</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>2010</v>
+        <v>547</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>368</v>
+        <v>564</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>368</v>
+        <v>517</v>
+      </c>
+      <c r="D432">
+        <v>1000</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>1997</v>
+        <v>547</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>609</v>
+        <v>517</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>609</v>
+        <v>517</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>693</v>
+        <v>2010</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C434" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D434">
+      <c r="D436">
         <v>30</v>
       </c>
-      <c r="E434" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D435">
-        <v>125</v>
-      </c>
-      <c r="E435" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>373</v>
+      <c r="E436" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -47459,64 +47488,58 @@
         <v>390</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D437">
+        <v>125</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D439">
         <v>10</v>
       </c>
-      <c r="E437" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
+      <c r="E439" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D438">
+      <c r="D440">
         <v>10</v>
-      </c>
-      <c r="E438" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
-        <v>2047</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D439" t="s">
-        <v>487</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D440">
-        <v>200</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>28</v>
@@ -47524,30 +47547,36 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D441" t="s">
+        <v>487</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C441" s="1" t="s">
+      <c r="B442" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D441">
-        <v>1000</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>517</v>
+      <c r="D442">
+        <v>200</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -47555,13 +47584,13 @@
         <v>423</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>368</v>
+        <v>564</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D443">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>22</v>
@@ -47569,167 +47598,167 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>689</v>
+        <v>423</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E444" s="1"/>
+        <v>517</v>
+      </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>698</v>
+        <v>423</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>699</v>
+        <v>368</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
       <c r="D445">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D446">
-        <v>100</v>
-      </c>
-      <c r="E446" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E446" s="1"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D447">
+        <v>200</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D448">
+        <v>100</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C447" s="1" t="s">
+      <c r="C449" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D447">
+      <c r="D449">
         <v>10</v>
       </c>
-      <c r="E447" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
+      <c r="E449" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B450" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C448" s="2" t="s">
+      <c r="C450" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D448">
+      <c r="D450">
         <v>30</v>
       </c>
-      <c r="E448" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
+      <c r="E450" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B451" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C449" s="2" t="s">
+      <c r="C451" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D449">
+      <c r="D451">
         <v>200</v>
       </c>
-      <c r="E449" s="1"/>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
+      <c r="E451" s="1"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C450" s="1" t="s">
+      <c r="C452" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="C453" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D451">
+      <c r="D453">
         <v>30</v>
       </c>
-      <c r="E451" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
+      <c r="E453" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B454" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C452" s="2" t="s">
+      <c r="C454" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D452">
+      <c r="D454">
         <v>200</v>
-      </c>
-      <c r="E452" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D454">
-        <v>30</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>28</v>
@@ -47739,55 +47768,55 @@
       <c r="A455" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="B455" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>714</v>
+        <v>383</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D456">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D457">
-        <v>20</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>28</v>
+      <c r="A457" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>460</v>
+        <v>714</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="D458">
+        <v>1000</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>460</v>
+        <v>714</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>368</v>
@@ -47804,33 +47833,27 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>563</v>
+        <v>460</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>564</v>
+        <v>373</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D460">
-        <v>1000</v>
-      </c>
-      <c r="E460" s="1" t="s">
-        <v>22</v>
+        <v>373</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>563</v>
+        <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>517</v>
+        <v>373</v>
       </c>
       <c r="D461">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>28</v>
@@ -47841,87 +47864,121 @@
         <v>563</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="D462">
+        <v>1000</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>672</v>
+        <v>563</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
+      </c>
+      <c r="D463">
+        <v>200</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>2060</v>
+        <v>563</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>377</v>
+        <v>517</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D464">
-        <v>15</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D465">
-        <v>1</v>
-      </c>
-      <c r="E465" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>641</v>
+        <v>2060</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>640</v>
+        <v>377</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>640</v>
+        <v>517</v>
+      </c>
+      <c r="D466">
+        <v>15</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B469" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C467" s="1" t="s">
+      <c r="C469" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B470" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C468" s="2" t="s">
+      <c r="C470" s="2" t="s">
         <v>365</v>
       </c>
     </row>
@@ -49348,8 +49405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C352"/>
   <sheetViews>
-    <sheetView topLeftCell="A347" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A350" sqref="A350"/>
+    <sheetView topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53018,7 +53075,7 @@
         <v>133</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C336" s="1">
         <v>1</v>
@@ -53208,10 +53265,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G338"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
-    <sheetView topLeftCell="B179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F179" sqref="F179"/>
+    <sheetView topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255:XFD255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53728,7 +53785,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>28</v>
@@ -54188,7 +54245,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>28</v>
@@ -54280,7 +54337,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>22</v>
@@ -55775,7 +55832,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>22</v>
@@ -56442,7 +56499,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>22</v>
@@ -58305,7 +58362,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>22</v>
@@ -59064,7 +59121,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>583</v>
+        <v>2276</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>22</v>
@@ -59079,38 +59136,38 @@
         <v>22</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>2048</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>22</v>
@@ -59133,145 +59190,145 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G258" s="1" t="s">
+      <c r="B259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G259" s="1" t="s">
+      <c r="B260" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G260" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G260" s="1" t="s">
+      <c r="B261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G261" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G261" s="1" t="s">
+      <c r="B262" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G262" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G262" s="1" t="s">
+      <c r="B263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G263" s="1" t="s">
         <v>821</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>2272</v>
+        <v>516</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>22</v>
@@ -59289,7 +59346,7 @@
         <v>28</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -59869,30 +59926,30 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>545</v>
+        <v>2275</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>22</v>
@@ -59910,219 +59967,219 @@
         <v>28</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G292" s="1" t="s">
+      <c r="B293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" s="1" t="s">
         <v>823</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G294" s="1" t="s">
+      <c r="B295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G295" s="1" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>677</v>
+        <v>598</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G298" s="1" t="s">
+      <c r="B299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G299" s="1" t="s">
         <v>806</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>22</v>
@@ -60145,7 +60202,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>494</v>
+        <v>610</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>22</v>
@@ -60168,76 +60225,76 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>579</v>
+        <v>494</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G304" s="1" t="s">
+      <c r="B305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G305" s="1" t="s">
         <v>811</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F305" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>22</v>
@@ -60255,105 +60312,105 @@
         <v>28</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G307" s="1" t="s">
+      <c r="B308" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G308" s="1" t="s">
         <v>806</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G309" s="1" t="s">
+      <c r="B310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="B311" s="1" t="s">
         <v>22</v>
       </c>
@@ -60367,7 +60424,7 @@
         <v>22</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>814</v>
@@ -60375,13 +60432,13 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>2007</v>
+        <v>639</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>22</v>
@@ -60390,15 +60447,15 @@
         <v>22</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>28</v>
@@ -60421,7 +60478,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>2068</v>
+        <v>2009</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>28</v>
@@ -60444,7 +60501,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>2008</v>
+        <v>2068</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>28</v>
@@ -60467,13 +60524,13 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>702</v>
+        <v>2008</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>22</v>
@@ -60485,81 +60542,81 @@
         <v>28</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G317" s="1" t="s">
+      <c r="B318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G318" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G318" s="1" t="s">
+      <c r="B319" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G319" s="1" t="s">
         <v>814</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G319" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>629</v>
+        <v>1997</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>22</v>
@@ -60577,58 +60634,58 @@
         <v>28</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G321" s="1" t="s">
+      <c r="B322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>811</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>2047</v>
+        <v>390</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>22</v>
@@ -60651,7 +60708,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>423</v>
+        <v>2047</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>22</v>
@@ -60669,12 +60726,12 @@
         <v>28</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>423</v>
+        <v>807</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>689</v>
+        <v>423</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>22</v>
@@ -60692,12 +60749,12 @@
         <v>28</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>812</v>
+        <v>423</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>22</v>
@@ -60706,7 +60763,7 @@
         <v>22</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>22</v>
@@ -60715,12 +60772,12 @@
         <v>28</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>649</v>
+        <v>698</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>22</v>
@@ -60729,7 +60786,7 @@
         <v>22</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>22</v>
@@ -60738,110 +60795,110 @@
         <v>28</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G328" s="1" t="s">
+      <c r="B329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G329" s="1" t="s">
+      <c r="B330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>823</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="B332" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>28</v>
@@ -60858,53 +60915,53 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>563</v>
+        <v>460</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>672</v>
+        <v>563</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>2060</v>
+        <v>672</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>22</v>
@@ -60913,21 +60970,21 @@
         <v>22</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>641</v>
+        <v>2060</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>22</v>
@@ -60942,55 +60999,78 @@
         <v>22</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G337" s="1" t="s">
+      <c r="B338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G338" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G338" s="1" t="s">
+      <c r="B339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G339" s="1" t="s">
         <v>812</v>
       </c>
     </row>
@@ -61002,10 +61082,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1147"/>
+  <dimension ref="A1:J1148"/>
   <sheetViews>
-    <sheetView topLeftCell="A1129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1147" sqref="A1147"/>
+    <sheetView tabSelected="1" topLeftCell="A1127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1148" sqref="A1148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77028,7 +77108,7 @@
         <v>2212</v>
       </c>
       <c r="B1115" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
@@ -77036,255 +77116,263 @@
         <v>2213</v>
       </c>
       <c r="B1116" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
-        <v>2214</v>
+        <v>2273</v>
       </c>
       <c r="B1117" s="1" t="s">
-        <v>2219</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B1118" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B1119" s="1" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B1120" s="1" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1121" s="1" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1121" s="1" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1122" s="1" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B1123" s="1" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1124" s="1" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B1124" s="1" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B1125" s="1" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1126" s="1" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1127" s="1" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B1127" s="1" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1128" s="1" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B1128" s="1" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1129" s="1" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B1129" s="1" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1130" s="1" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1131" s="1" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B1131" s="1" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1132" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B1132" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1133" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1133" s="1" t="s">
         <v>2246</v>
-      </c>
-      <c r="B1133" s="1" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1134" s="1" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B1134" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1135" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B1135" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1136" s="1" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B1136" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1137" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B1137" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1138" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B1138" s="1" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1139" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B1139" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1140" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B1140" s="1" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1141" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B1141" s="1" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1142" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1143" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1144" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1145" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B1145" s="1" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1146" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B1146" s="1" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1147" s="1" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="B1147" s="1" t="s">
-        <v>2276</v>
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1148" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>2275</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14507" uniqueCount="2291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14508" uniqueCount="2291">
   <si>
     <t>id</t>
   </si>
@@ -7386,8 +7386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView topLeftCell="D133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16438,8 +16438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B451" sqref="B451"/>
+    <sheetView topLeftCell="A1534" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1545" sqref="B1545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39845,7 +39845,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1473" s="1">
         <v>125</v>
       </c>
@@ -39853,7 +39853,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1474" s="1">
         <v>125</v>
       </c>
@@ -39861,7 +39861,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1475" s="1">
         <v>125</v>
       </c>
@@ -39869,7 +39869,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1476" s="1">
         <v>125</v>
       </c>
@@ -39877,7 +39877,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1477" s="1">
         <v>125</v>
       </c>
@@ -39885,7 +39885,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1478" s="1">
         <v>125</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1479" s="1">
         <v>126</v>
       </c>
@@ -39907,7 +39907,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1480" s="1">
         <v>126</v>
       </c>
@@ -39921,7 +39921,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1481" s="1">
         <v>126</v>
       </c>
@@ -39935,7 +39935,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1482" s="1">
         <v>126</v>
       </c>
@@ -39949,7 +39949,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1483" s="1">
         <v>126</v>
       </c>
@@ -39962,8 +39962,11 @@
       <c r="D1483" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1483" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1484" s="1">
         <v>126</v>
       </c>
@@ -39977,7 +39980,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1485" s="1">
         <v>126</v>
       </c>
@@ -39991,7 +39994,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1486" s="1">
         <v>126</v>
       </c>
@@ -40005,7 +40008,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1487" s="1">
         <v>126</v>
       </c>
@@ -40019,7 +40022,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1488" s="1">
         <v>126</v>
       </c>
@@ -40562,7 +40565,7 @@
         <v>2176</v>
       </c>
       <c r="C1531" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D1531" s="1" t="s">
         <v>365</v>
@@ -41029,10 +41032,10 @@
         <v>97</v>
       </c>
       <c r="C1568" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D1568" s="1" t="s">
-        <v>470</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
@@ -41173,10 +41176,10 @@
         <v>97</v>
       </c>
       <c r="C1580" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D1580" s="1" t="s">
-        <v>470</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
@@ -41451,7 +41454,7 @@
         <v>477</v>
       </c>
       <c r="C1602" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1602" s="1" t="s">
         <v>470</v>
@@ -41468,10 +41471,10 @@
         <v>97</v>
       </c>
       <c r="C1603" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D1603" s="1" t="s">
-        <v>470</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1604" spans="1:6" x14ac:dyDescent="0.25">
@@ -41482,10 +41485,10 @@
         <v>389</v>
       </c>
       <c r="C1604" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D1604" s="1" t="s">
-        <v>470</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1605" spans="1:6" x14ac:dyDescent="0.25">
@@ -41890,7 +41893,7 @@
         <v>506</v>
       </c>
       <c r="C1637" s="1">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="D1637" s="1" t="s">
         <v>373</v>
@@ -41918,7 +41921,7 @@
         <v>74</v>
       </c>
       <c r="C1639" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D1639" s="1" t="s">
         <v>373</v>
@@ -41932,7 +41935,7 @@
         <v>68</v>
       </c>
       <c r="C1640" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1640" s="1" t="s">
         <v>365</v>
@@ -41946,7 +41949,7 @@
         <v>60</v>
       </c>
       <c r="C1641" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D1641" s="1" t="s">
         <v>373</v>
@@ -42212,8 +42215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F476"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C415" sqref="C415"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347:XFD347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45978,58 +45981,55 @@
         <v>389</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>470</v>
+        <v>373</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D290">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D291">
         <v>1000</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
+      <c r="E291" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B292" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C292" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D291">
+      <c r="D292">
         <v>150</v>
       </c>
-      <c r="E291" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>365</v>
+      <c r="E292" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>561</v>
+        <v>296</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D293">
-        <v>200</v>
+        <v>365</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -46037,37 +46037,40 @@
         <v>561</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>517</v>
+        <v>364</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="D294">
+        <v>200</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>365</v>
+        <v>517</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>365</v>
+        <v>517</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>517</v>
+        <v>365</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>517</v>
+        <v>365</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>517</v>
@@ -46077,25 +46080,25 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B299" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C299" s="2" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -46103,30 +46106,24 @@
         <v>628</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D300">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D301">
         <v>20</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D301">
-        <v>50</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>28</v>
@@ -46137,13 +46134,13 @@
         <v>372</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D302">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>28</v>
@@ -46154,10 +46151,16 @@
         <v>372</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>373</v>
+      </c>
+      <c r="D303">
+        <v>30</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -46165,30 +46168,24 @@
         <v>372</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D304">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D305">
         <v>10</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D305">
-        <v>30</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>28</v>
@@ -46198,110 +46195,116 @@
       <c r="A306" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="B306" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D306">
+        <v>30</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D308">
-        <v>200</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>28</v>
+        <v>365</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>2114</v>
+        <v>644</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D309">
-        <v>1000</v>
-      </c>
-      <c r="E309" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>2285</v>
+        <v>2114</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>517</v>
+        <v>373</v>
+      </c>
+      <c r="D310">
+        <v>1000</v>
       </c>
       <c r="E310" s="1"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>611</v>
+        <v>2285</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>377</v>
+        <v>517</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>377</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E311" s="1"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>2261</v>
+        <v>611</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>646</v>
+        <v>2261</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D313">
-        <v>200</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>28</v>
+        <v>364</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>503</v>
+        <v>646</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>373</v>
+      </c>
+      <c r="D314">
+        <v>200</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -46309,77 +46312,77 @@
         <v>503</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>504</v>
+        <v>373</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>504</v>
+        <v>373</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>2059</v>
+        <v>503</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>2075</v>
+        <v>2059</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>576</v>
+        <v>373</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D317">
-        <v>350</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>551</v>
+        <v>2075</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>365</v>
+        <v>576</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
+      </c>
+      <c r="D318">
+        <v>350</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>1228</v>
+        <v>551</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D319">
-        <v>5</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>28</v>
+        <v>365</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>554</v>
+        <v>1228</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>373</v>
+      </c>
+      <c r="D320">
+        <v>5</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -46387,170 +46390,170 @@
         <v>554</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D321">
-        <v>20</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
+      </c>
+      <c r="D322">
+        <v>20</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>2176</v>
+        <v>491</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>496</v>
+        <v>2176</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B327" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C327" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D326">
+      <c r="D327">
         <v>30</v>
       </c>
-      <c r="E326" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="E327" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="C328" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D328">
-        <v>1000</v>
-      </c>
-      <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D329">
+        <v>1000</v>
+      </c>
+      <c r="E329" s="1"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D330">
         <v>200</v>
       </c>
-      <c r="E329" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>365</v>
+      <c r="E330" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>647</v>
+        <v>142</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>2038</v>
+        <v>647</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D332">
-        <v>1</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>22</v>
+        <v>373</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>544</v>
+        <v>2038</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>373</v>
+        <v>517</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -46558,93 +46561,93 @@
         <v>544</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D334">
-        <v>10</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>493</v>
+        <v>544</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D335">
+        <v>10</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D336">
-        <v>10</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>28</v>
+        <v>493</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>404</v>
+        <v>696</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
+      </c>
+      <c r="D337">
+        <v>10</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>2083</v>
+        <v>404</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D338">
-        <v>100</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>28</v>
+        <v>365</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D339">
+        <v>100</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B340" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>365</v>
@@ -46655,13 +46658,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>643</v>
+        <v>445</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>517</v>
+        <v>365</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>517</v>
+        <v>365</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -46669,46 +46672,40 @@
         <v>643</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>364</v>
+        <v>517</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D343">
-        <v>200</v>
-      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>2048</v>
+        <v>643</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>517</v>
       </c>
       <c r="D344">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D345">
         <v>30</v>
       </c>
-      <c r="E344" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D345">
-        <v>200</v>
-      </c>
-      <c r="E345" s="1" t="s">
+      <c r="E345" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -46717,15 +46714,17 @@
         <v>97</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>470</v>
+        <v>364</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D346">
-        <v>1000</v>
-      </c>
-      <c r="E346" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -7749,8 +7749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView topLeftCell="D134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K154" sqref="K154"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14346,10 +14346,10 @@
         <v>2361</v>
       </c>
       <c r="D150" s="1">
+        <v>60</v>
+      </c>
+      <c r="E150" s="1">
         <v>4</v>
-      </c>
-      <c r="E150" s="1">
-        <v>60</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
@@ -14390,10 +14390,10 @@
         <v>2375</v>
       </c>
       <c r="D151" s="1">
+        <v>120</v>
+      </c>
+      <c r="E151" s="1">
         <v>4</v>
-      </c>
-      <c r="E151" s="1">
-        <v>120</v>
       </c>
       <c r="F151" s="1">
         <v>3</v>
@@ -14434,10 +14434,10 @@
         <v>2374</v>
       </c>
       <c r="D152" s="1">
+        <v>180</v>
+      </c>
+      <c r="E152" s="1">
         <v>4</v>
-      </c>
-      <c r="E152" s="1">
-        <v>180</v>
       </c>
       <c r="F152" s="1">
         <v>4</v>
@@ -14478,10 +14478,10 @@
         <v>2381</v>
       </c>
       <c r="D153" s="1">
+        <v>180</v>
+      </c>
+      <c r="E153" s="1">
         <v>5</v>
-      </c>
-      <c r="E153" s="1">
-        <v>180</v>
       </c>
       <c r="F153" s="1">
         <v>2</v>
@@ -14522,10 +14522,10 @@
         <v>2401</v>
       </c>
       <c r="D154" s="1">
+        <v>180</v>
+      </c>
+      <c r="E154" s="1">
         <v>20</v>
-      </c>
-      <c r="E154" s="1">
-        <v>180</v>
       </c>
       <c r="F154" s="1">
         <v>3</v>
@@ -46044,7 +46044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15331" uniqueCount="2412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15413" uniqueCount="2428">
   <si>
     <t>id</t>
   </si>
@@ -7241,9 +7241,6 @@
     <t>Strangolapreti alla trentina (spinach dumplings)</t>
   </si>
   <si>
-    <t>recipes/mediterranea/strangolapreti-alla-trentina-spinach-dumplings</t>
-  </si>
-  <si>
     <t>bread; spinach</t>
   </si>
   <si>
@@ -7272,6 +7269,57 @@
   </si>
   <si>
     <t>spaccatina</t>
+  </si>
+  <si>
+    <t>Zucchini and potatoes rosti</t>
+  </si>
+  <si>
+    <t>recipes/mediterranea/italy/zucchini-and-potatoes-rosti</t>
+  </si>
+  <si>
+    <t>recipes/mediterranea/italy/strangolapreti-alla-trentina-spinach-dumplings</t>
+  </si>
+  <si>
+    <t>potato; zucchini</t>
+  </si>
+  <si>
+    <t>grater</t>
+  </si>
+  <si>
+    <t>grattugia</t>
+  </si>
+  <si>
+    <t>Rosti di zucchine e patate</t>
+  </si>
+  <si>
+    <t>it/ricette/paesi-mediterranei/italia/rosti-di-zucchine-e-patate</t>
+  </si>
+  <si>
+    <t>patate; zucchine</t>
+  </si>
+  <si>
+    <t>Baked tagliatelle pasta with peas</t>
+  </si>
+  <si>
+    <t>recipes/mediterranea/italy/baked-tagliatelle-pasta-with-peas</t>
+  </si>
+  <si>
+    <t>pasta; peas</t>
+  </si>
+  <si>
+    <t>tagliatelle pasta</t>
+  </si>
+  <si>
+    <t>Tagliatelle al forno con piselli</t>
+  </si>
+  <si>
+    <t>it/ricette/paesi-mediterranei/italia/tagliatelle-al-forno-con-piselli</t>
+  </si>
+  <si>
+    <t>pasta; piselli</t>
+  </si>
+  <si>
+    <t>tagliatelle</t>
   </si>
 </sst>
 </file>
@@ -7747,10 +7795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P154"/>
+  <dimension ref="A1:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView topLeftCell="E95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14519,7 +14567,7 @@
         <v>2400</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>2401</v>
+        <v>2413</v>
       </c>
       <c r="D154" s="1">
         <v>180</v>
@@ -14537,7 +14585,7 @@
         <v>19</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>38</v>
@@ -14552,6 +14600,94 @@
         <v>28</v>
       </c>
       <c r="P154" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20</v>
+      </c>
+      <c r="E155" s="1">
+        <v>4</v>
+      </c>
+      <c r="F155" s="1">
+        <v>2</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D156" s="1">
+        <v>60</v>
+      </c>
+      <c r="E156" s="1">
+        <v>6</v>
+      </c>
+      <c r="F156" s="1">
+        <v>3</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P156" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14938,10 +15074,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17108,6 +17244,34 @@
         <v>195</v>
       </c>
     </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>99</v>
+      </c>
+      <c r="B155" s="1">
+        <v>154</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>99</v>
+      </c>
+      <c r="B156" s="1">
+        <v>155</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17116,10 +17280,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17566,7 +17730,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2415</v>
       </c>
     </row>
   </sheetData>
@@ -17577,10 +17749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1803"/>
+  <dimension ref="A1:G1817"/>
   <sheetViews>
-    <sheetView topLeftCell="A1784" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1792" sqref="D1792"/>
+    <sheetView tabSelected="1" topLeftCell="A1805" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1814" sqref="E1814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45898,7 +46070,7 @@
         <v>20</v>
       </c>
       <c r="D1792" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1793" spans="1:5" x14ac:dyDescent="0.25">
@@ -45906,7 +46078,7 @@
         <v>153</v>
       </c>
       <c r="B1793" s="2" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="C1793" s="1">
         <v>1500</v>
@@ -46031,6 +46203,163 @@
         <v>759</v>
       </c>
       <c r="E1803" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1804" s="1">
+        <v>154</v>
+      </c>
+      <c r="B1804" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1804" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1804" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1805" s="1">
+        <v>154</v>
+      </c>
+      <c r="B1805" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1805" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1805" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1806" s="1">
+        <v>154</v>
+      </c>
+      <c r="B1806" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1807" s="1">
+        <v>154</v>
+      </c>
+      <c r="B1807" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1808" s="1">
+        <v>154</v>
+      </c>
+      <c r="B1808" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1809" s="1">
+        <v>154</v>
+      </c>
+      <c r="B1809" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1810" s="1">
+        <v>155</v>
+      </c>
+      <c r="B1810" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C1810" s="1">
+        <v>500</v>
+      </c>
+      <c r="D1810" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1811" s="1">
+        <v>155</v>
+      </c>
+      <c r="B1811" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1811" s="1">
+        <v>700</v>
+      </c>
+      <c r="D1811" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1812" s="1">
+        <v>155</v>
+      </c>
+      <c r="B1812" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1812" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1812" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1812" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1813" s="1">
+        <v>155</v>
+      </c>
+      <c r="B1813" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C1813" s="1">
+        <v>300</v>
+      </c>
+      <c r="D1813" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1813" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1814" s="1">
+        <v>155</v>
+      </c>
+      <c r="B1814" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1815" s="1">
+        <v>155</v>
+      </c>
+      <c r="B1815" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1816" s="1">
+        <v>155</v>
+      </c>
+      <c r="B1816" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1817" s="1">
+        <v>155</v>
+      </c>
+      <c r="B1817" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E1817" s="1" t="s">
         <v>541</v>
       </c>
     </row>
@@ -46042,10 +46371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F504"/>
+  <dimension ref="A1:F505"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A424" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48760,7 +49089,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>461</v>
@@ -51374,7 +51703,7 @@
         <v>502</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>461</v>
@@ -51670,7 +51999,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>527</v>
+        <v>2423</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>461</v>
@@ -51678,143 +52007,141 @@
       <c r="C430" s="2" t="s">
         <v>461</v>
       </c>
+      <c r="E430" s="1"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B432" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="C432" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B433" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="C433" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D433" t="s">
         <v>575</v>
       </c>
-      <c r="E432" s="2" t="s">
+      <c r="E433" s="2" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>617</v>
+        <v>757</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>456</v>
+        <v>652</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>456</v>
+        <v>652</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>2300</v>
+        <v>617</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D436">
+      <c r="D437">
         <v>1000</v>
       </c>
-      <c r="E436" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D437">
-        <v>100</v>
-      </c>
       <c r="E437" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>519</v>
+        <v>44</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>605</v>
+        <v>453</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E438" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="D438">
+        <v>100</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>456</v>
+        <v>605</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D439">
+      <c r="E439" s="1"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D440">
         <v>30</v>
       </c>
-      <c r="E439" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D440">
-        <v>400</v>
+      <c r="E440" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -51822,16 +52149,13 @@
         <v>698</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>461</v>
+        <v>664</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>605</v>
       </c>
       <c r="D441">
-        <v>1</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>28</v>
+        <v>400</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -51839,13 +52163,13 @@
         <v>698</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>605</v>
       </c>
       <c r="D442">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>28</v>
@@ -51856,54 +52180,60 @@
         <v>698</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>605</v>
+        <v>456</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>605</v>
       </c>
+      <c r="D443">
+        <v>30</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>461</v>
+        <v>605</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D444">
-        <v>1</v>
-      </c>
-      <c r="E444" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>605</v>
       </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
-        <v>667</v>
+      <c r="A446" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>461</v>
+        <v>605</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>461</v>
+        <v>605</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>2356</v>
+        <v>667</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>461</v>
@@ -51914,7 +52244,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>663</v>
+        <v>2356</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>461</v>
@@ -51928,132 +52258,132 @@
         <v>663</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>664</v>
+        <v>461</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D449">
-        <v>200</v>
-      </c>
-      <c r="E449" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D450">
+        <v>200</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C450" s="1" t="s">
+      <c r="C451" s="1" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D451">
-        <v>3</v>
-      </c>
-      <c r="E451" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>510</v>
+        <v>465</v>
+      </c>
+      <c r="D452">
+        <v>3</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
         <v>2319</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B454" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D453">
-        <v>1000</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>461</v>
       </c>
+      <c r="D454">
+        <v>1000</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C455" s="1" t="s">
+      <c r="C456" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B457" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="C457" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C457" s="1" t="s">
+      <c r="C458" s="1" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>461</v>
@@ -52064,7 +52394,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>461</v>
@@ -52075,7 +52405,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>461</v>
@@ -52085,37 +52415,31 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C462" s="1" t="s">
+      <c r="A462" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D462">
-        <v>15</v>
-      </c>
-      <c r="E462" s="1" t="s">
-        <v>28</v>
+      <c r="C462" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>635</v>
+        <v>790</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>652</v>
+        <v>456</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="D463">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -52123,63 +52447,63 @@
         <v>635</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>605</v>
+        <v>652</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>605</v>
       </c>
+      <c r="D464">
+        <v>1000</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>813</v>
+        <v>635</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>456</v>
+        <v>605</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>456</v>
+        <v>605</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>697</v>
+        <v>456</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>697</v>
+        <v>456</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B468" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C467" s="1" t="s">
+      <c r="C468" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D467">
+      <c r="D468">
         <v>30</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D468">
-        <v>125</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>28</v>
@@ -52190,10 +52514,16 @@
         <v>478</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>461</v>
+      </c>
+      <c r="D469">
+        <v>125</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -52201,26 +52531,20 @@
         <v>478</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D470">
-        <v>10</v>
-      </c>
-      <c r="E470" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C471" s="1" t="s">
+      <c r="B471" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>461</v>
       </c>
       <c r="D471">
@@ -52232,53 +52556,53 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>821</v>
+        <v>478</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D472">
+        <v>10</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D473" t="s">
         <v>575</v>
       </c>
-      <c r="E472" s="1" t="s">
+      <c r="E473" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B474" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C473" s="2" t="s">
+      <c r="C474" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D473">
+      <c r="D474">
         <v>200</v>
       </c>
-      <c r="E473" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D474">
-        <v>1000</v>
-      </c>
       <c r="E474" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -52286,10 +52610,16 @@
         <v>511</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>605</v>
+        <v>652</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>605</v>
+      </c>
+      <c r="D475">
+        <v>1000</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -52297,105 +52627,99 @@
         <v>511</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>456</v>
+        <v>605</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D476">
-        <v>30</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>777</v>
+        <v>511</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E477" s="1"/>
+        <v>605</v>
+      </c>
+      <c r="D477">
+        <v>30</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>787</v>
+        <v>461</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D478">
-        <v>200</v>
-      </c>
-      <c r="E478" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E478" s="1"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>453</v>
+        <v>787</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E479" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="D479">
+        <v>200</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>737</v>
+        <v>857</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>453</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D480">
-        <v>100</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="E480" s="1"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D481">
+        <v>100</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C481" s="1" t="s">
+      <c r="C482" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D481">
+      <c r="D482">
         <v>10</v>
-      </c>
-      <c r="E481" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D482">
-        <v>30</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>22</v>
@@ -52403,30 +52727,36 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>672</v>
+        <v>538</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>605</v>
       </c>
       <c r="D483">
+        <v>30</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D484">
         <v>200</v>
       </c>
-      <c r="E483" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>605</v>
+      <c r="E484" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -52434,30 +52764,24 @@
         <v>672</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>456</v>
+        <v>605</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D485">
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D486">
         <v>30</v>
-      </c>
-      <c r="E485" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D486">
-        <v>200</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>28</v>
@@ -52468,49 +52792,49 @@
         <v>471</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>461</v>
       </c>
+      <c r="D487">
+        <v>200</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B488" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C488" s="1" t="s">
+      <c r="C489" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D488">
+      <c r="D489">
         <v>30</v>
       </c>
-      <c r="E488" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
+      <c r="E489" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D490">
-        <v>1000</v>
-      </c>
-      <c r="E490" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -52518,45 +52842,45 @@
         <v>802</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>461</v>
+        <v>558</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E491" s="1"/>
+      <c r="D491">
+        <v>1000</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>802</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D492">
-        <v>20</v>
-      </c>
-      <c r="E492" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E492" s="1"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>651</v>
+        <v>802</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>652</v>
+        <v>456</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="D493">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -52564,16 +52888,16 @@
         <v>651</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>456</v>
+        <v>652</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>605</v>
       </c>
       <c r="D494">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -52581,13 +52905,13 @@
         <v>651</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>605</v>
       </c>
       <c r="D495">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>28</v>
@@ -52598,52 +52922,52 @@
         <v>651</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>605</v>
+        <v>452</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>605</v>
       </c>
+      <c r="D496">
+        <v>200</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>461</v>
+        <v>605</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>461</v>
+        <v>605</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>825</v>
+        <v>760</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D498">
-        <v>15</v>
-      </c>
-      <c r="E498" s="1" t="s">
-        <v>28</v>
+        <v>461</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>729</v>
+        <v>825</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>728</v>
+        <v>605</v>
       </c>
       <c r="D499">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>28</v>
@@ -52654,15 +52978,21 @@
         <v>729</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>728</v>
+        <v>465</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>728</v>
       </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>2397</v>
+        <v>729</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>728</v>
@@ -52673,34 +53003,45 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>535</v>
+        <v>2397</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>453</v>
+        <v>728</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>453</v>
+        <v>728</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="B504" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C503" s="1" t="s">
+      <c r="C504" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="2" t="s">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B505" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C504" s="2" t="s">
+      <c r="C505" s="2" t="s">
         <v>453</v>
       </c>
     </row>
@@ -52974,10 +53315,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B160"/>
   <sheetViews>
     <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54249,6 +54590,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>154</v>
+      </c>
+      <c r="B159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>155</v>
+      </c>
+      <c r="B160">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -54257,10 +54614,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C392"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B392" sqref="B392"/>
+    <sheetView topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58541,9 +58898,94 @@
         <v>153</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C392" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>154</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C393" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>154</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C394" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>154</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C395" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>154</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C396" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>154</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>155</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C398" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>155</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C399" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>155</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C400" s="1">
         <v>1</v>
       </c>
     </row>
@@ -58555,10 +58997,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A297" sqref="A297"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61812,7 +62254,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>22</v>
@@ -65699,99 +66141,99 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G311" s="1" t="s">
+      <c r="B312" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>959</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>765</v>
+        <v>686</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>617</v>
+        <v>757</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>22</v>
@@ -65809,81 +66251,81 @@
         <v>28</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G316" s="1" t="s">
+      <c r="B317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G317" s="1" t="s">
         <v>967</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G318" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>22</v>
@@ -65906,7 +66348,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>22</v>
@@ -65929,99 +66371,99 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>2356</v>
+        <v>667</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G323" s="1" t="s">
+      <c r="B324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>957</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>22</v>
@@ -66039,12 +66481,12 @@
         <v>28</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>631</v>
+        <v>509</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>22</v>
@@ -66062,105 +66504,105 @@
         <v>28</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>2319</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G327" s="1" t="s">
+      <c r="B328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G328" s="1" t="s">
         <v>958</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G328" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G329" s="1" t="s">
+      <c r="B330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="B331" s="1" t="s">
         <v>22</v>
       </c>
@@ -66174,7 +66616,7 @@
         <v>22</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>960</v>
@@ -66182,13 +66624,13 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>810</v>
+        <v>727</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>22</v>
@@ -66197,15 +66639,15 @@
         <v>22</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>28</v>
@@ -66228,7 +66670,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>28</v>
@@ -66251,7 +66693,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>28</v>
@@ -66274,13 +66716,13 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>22</v>
@@ -66292,81 +66734,81 @@
         <v>28</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G337" s="1" t="s">
+      <c r="B338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G338" s="1" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G338" s="1" t="s">
+      <c r="B339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G339" s="1" t="s">
         <v>960</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>717</v>
+        <v>809</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>22</v>
@@ -66384,58 +66826,58 @@
         <v>28</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G341" s="1" t="s">
+      <c r="B342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G342" s="1" t="s">
         <v>957</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>821</v>
+        <v>478</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>22</v>
@@ -66458,7 +66900,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>511</v>
+        <v>821</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>22</v>
@@ -66476,12 +66918,12 @@
         <v>28</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>511</v>
+        <v>953</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>777</v>
+        <v>511</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>22</v>
@@ -66499,12 +66941,12 @@
         <v>28</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>958</v>
+        <v>511</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>22</v>
@@ -66513,7 +66955,7 @@
         <v>22</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>22</v>
@@ -66522,12 +66964,12 @@
         <v>28</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>22</v>
@@ -66536,7 +66978,7 @@
         <v>22</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>22</v>
@@ -66545,12 +66987,12 @@
         <v>28</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>737</v>
+        <v>857</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>22</v>
@@ -66573,145 +67015,145 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G349" s="1" t="s">
+      <c r="B350" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G350" s="1" t="s">
+      <c r="B351" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G351" s="1" t="s">
         <v>951</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G351" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G352" s="1" t="s">
+      <c r="B353" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G353" s="1" t="s">
         <v>965</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>825</v>
+        <v>760</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>22</v>
@@ -66720,21 +67162,21 @@
         <v>22</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>729</v>
+        <v>825</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>22</v>
@@ -66749,15 +67191,15 @@
         <v>22</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>2397</v>
+        <v>729</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>22</v>
@@ -66780,7 +67222,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>535</v>
+        <v>2397</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>22</v>
@@ -66798,12 +67240,12 @@
         <v>28</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>2386</v>
+        <v>535</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>22</v>
@@ -66825,25 +67267,48 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G360" s="1" t="s">
+      <c r="B361" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G361" s="1" t="s">
         <v>958</v>
       </c>
     </row>
@@ -66855,10 +67320,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1214"/>
+  <dimension ref="A1:J1222"/>
   <sheetViews>
-    <sheetView topLeftCell="A1196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1214" sqref="A1214"/>
+    <sheetView topLeftCell="B1203" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1223" sqref="B1223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83640,10 +84105,10 @@
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1209" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1209" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="B1209" s="1" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
@@ -83651,39 +84116,103 @@
         <v>2400</v>
       </c>
       <c r="B1210" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
-        <v>2401</v>
+        <v>2413</v>
       </c>
       <c r="B1211" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1212" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B1212" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1213" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1213" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="B1213" s="1" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1214" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1214" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="B1214" s="1" t="s">
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1215" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1215" s="1" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1216" s="1" t="s">
         <v>2411</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1217" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1217" s="1" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1218" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1218" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1219" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1219" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1220" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1221" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1222" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>2427</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -7809,7 +7809,7 @@
   <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17762,8 +17762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1090" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1102" sqref="B1102"/>
+    <sheetView tabSelected="1" topLeftCell="A1716" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1724" sqref="C1724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47143,7 +47143,7 @@
         <v>175</v>
       </c>
       <c r="C1724" s="4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D1724" s="4" t="s">
         <v>505</v>

--- a/data_sources/scripts/files/FoodConnectsPeople.xlsx
+++ b/data_sources/scripts/files/FoodConnectsPeople.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15421" uniqueCount="2428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15423" uniqueCount="2428">
   <si>
     <t>id</t>
   </si>
@@ -17760,10 +17760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1819"/>
+  <dimension ref="A1:G1820"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1716" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1724" sqref="C1724"/>
+      <selection activeCell="D1725" sqref="D1725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47113,7 +47113,7 @@
         <v>695</v>
       </c>
       <c r="C1722" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D1722" s="4" t="s">
         <v>649</v>
@@ -47128,7 +47128,7 @@
         <v>813</v>
       </c>
       <c r="C1723" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D1723" s="4" t="s">
         <v>649</v>
@@ -47143,7 +47143,7 @@
         <v>175</v>
       </c>
       <c r="C1724" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D1724" s="4" t="s">
         <v>505</v>
@@ -47160,7 +47160,7 @@
         <v>712</v>
       </c>
       <c r="C1725" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D1725" s="4" t="s">
         <v>497</v>
@@ -47169,7 +47169,7 @@
       <c r="F1725" s="4"/>
       <c r="G1725" s="5"/>
     </row>
-    <row r="1726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1726" s="4">
         <v>148</v>
       </c>
@@ -47177,24 +47177,26 @@
         <v>592</v>
       </c>
       <c r="C1726" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D1726" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="E1726" s="5"/>
       <c r="F1726" s="4"/>
-      <c r="G1726" s="5"/>
     </row>
     <row r="1727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1727" s="4">
         <v>148</v>
       </c>
       <c r="B1727" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1727" s="5"/>
-      <c r="D1727" s="5"/>
+        <v>592</v>
+      </c>
+      <c r="C1727" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1727" s="4" t="s">
+        <v>500</v>
+      </c>
       <c r="E1727" s="5"/>
       <c r="F1727" s="4"/>
       <c r="G1727" s="5"/>
@@ -47204,7 +47206,7 @@
         <v>148</v>
       </c>
       <c r="B1728" s="4" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C1728" s="5"/>
       <c r="D1728" s="5"/>
@@ -47217,17 +47219,11 @@
         <v>148</v>
       </c>
       <c r="B1729" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="C1729" s="4">
-        <v>100</v>
-      </c>
-      <c r="D1729" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E1729" s="4" t="s">
-        <v>584</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C1729" s="5"/>
+      <c r="D1729" s="5"/>
+      <c r="E1729" s="5"/>
       <c r="F1729" s="4"/>
       <c r="G1729" s="5"/>
     </row>
@@ -47236,11 +47232,17 @@
         <v>148</v>
       </c>
       <c r="B1730" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C1730" s="5"/>
-      <c r="D1730" s="5"/>
-      <c r="E1730" s="5"/>
+        <v>759</v>
+      </c>
+      <c r="C1730" s="4">
+        <v>50</v>
+      </c>
+      <c r="D1730" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1730" s="4" t="s">
+        <v>584</v>
+      </c>
       <c r="F1730" s="4"/>
       <c r="G1730" s="5"/>
     </row>
@@ -47249,17 +47251,11 @@
         <v>148</v>
       </c>
       <c r="B1731" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1731" s="4">
-        <v>100</v>
-      </c>
-      <c r="D1731" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E1731" s="4" t="s">
-        <v>503</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="C1731" s="5"/>
+      <c r="D1731" s="5"/>
+      <c r="E1731" s="5"/>
       <c r="F1731" s="4"/>
       <c r="G1731" s="5"/>
     </row>
@@ -47268,7 +47264,7 @@
         <v>148</v>
       </c>
       <c r="B1732" s="4" t="s">
-        <v>468</v>
+        <v>60</v>
       </c>
       <c r="C1732" s="4">
         <v>300</v>
@@ -47276,22 +47272,24 @@
       <c r="D1732" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="E1732" s="5"/>
+      <c r="E1732" s="4" t="s">
+        <v>503</v>
+      </c>
       <c r="F1732" s="4"/>
       <c r="G1732" s="5"/>
     </row>
     <row r="1733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1733" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1733" s="4" t="s">
-        <v>34</v>
+        <v>468</v>
       </c>
       <c r="C1733" s="4">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="D1733" s="4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E1733" s="5"/>
       <c r="F1733" s="4"/>
@@ -47302,10 +47300,10 @@
         <v>149</v>
       </c>
       <c r="B1734" s="4" t="s">
-        <v>531</v>
+        <v>34</v>
       </c>
       <c r="C1734" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D1734" s="4" t="s">
         <v>497</v>
@@ -47319,13 +47317,13 @@
         <v>149</v>
       </c>
       <c r="B1735" s="4" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="C1735" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D1735" s="4" t="s">
-        <v>649</v>
+        <v>497</v>
       </c>
       <c r="E1735" s="5"/>
       <c r="F1735" s="4"/>
@@ -47336,13 +47334,13 @@
         <v>149</v>
       </c>
       <c r="B1736" s="4" t="s">
-        <v>691</v>
+        <v>499</v>
       </c>
       <c r="C1736" s="4">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D1736" s="4" t="s">
-        <v>505</v>
+        <v>649</v>
       </c>
       <c r="E1736" s="5"/>
       <c r="F1736" s="4"/>
@@ -47353,13 +47351,13 @@
         <v>149</v>
       </c>
       <c r="B1737" s="4" t="s">
-        <v>909</v>
+        <v>691</v>
       </c>
       <c r="C1737" s="4">
-        <v>0.5</v>
+        <v>300</v>
       </c>
       <c r="D1737" s="4" t="s">
-        <v>771</v>
+        <v>505</v>
       </c>
       <c r="E1737" s="5"/>
       <c r="F1737" s="4"/>
@@ -47370,13 +47368,13 @@
         <v>149</v>
       </c>
       <c r="B1738" s="4" t="s">
-        <v>759</v>
+        <v>909</v>
       </c>
       <c r="C1738" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D1738" s="4" t="s">
-        <v>505</v>
+        <v>771</v>
       </c>
       <c r="E1738" s="5"/>
       <c r="F1738" s="4"/>
@@ -47387,13 +47385,13 @@
         <v>149</v>
       </c>
       <c r="B1739" s="4" t="s">
-        <v>507</v>
+        <v>759</v>
       </c>
       <c r="C1739" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D1739" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E1739" s="5"/>
       <c r="F1739" s="4"/>
@@ -47404,13 +47402,13 @@
         <v>149</v>
       </c>
       <c r="B1740" s="4" t="s">
-        <v>797</v>
+        <v>507</v>
       </c>
       <c r="C1740" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D1740" s="4" t="s">
-        <v>649</v>
+        <v>509</v>
       </c>
       <c r="E1740" s="5"/>
       <c r="F1740" s="4"/>
@@ -47421,13 +47419,13 @@
         <v>149</v>
       </c>
       <c r="B1741" s="4" t="s">
-        <v>549</v>
+        <v>797</v>
       </c>
       <c r="C1741" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D1741" s="4" t="s">
-        <v>497</v>
+        <v>649</v>
       </c>
       <c r="E1741" s="5"/>
       <c r="F1741" s="4"/>
@@ -47438,13 +47436,13 @@
         <v>149</v>
       </c>
       <c r="B1742" s="4" t="s">
-        <v>761</v>
+        <v>549</v>
       </c>
       <c r="C1742" s="4">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D1742" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E1742" s="5"/>
       <c r="F1742" s="4"/>
@@ -47455,13 +47453,13 @@
         <v>149</v>
       </c>
       <c r="B1743" s="4" t="s">
-        <v>521</v>
+        <v>761</v>
       </c>
       <c r="C1743" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D1743" s="4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E1743" s="5"/>
       <c r="F1743" s="4"/>
@@ -47472,7 +47470,7 @@
         <v>149</v>
       </c>
       <c r="B1744" s="4" t="s">
-        <v>104</v>
+        <v>521</v>
       </c>
       <c r="C1744" s="4">
         <v>1</v>
@@ -47489,7 +47487,7 @@
         <v>149</v>
       </c>
       <c r="B1745" s="4" t="s">
-        <v>2426</v>
+        <v>104</v>
       </c>
       <c r="C1745" s="4">
         <v>1</v>
@@ -47506,13 +47504,13 @@
         <v>149</v>
       </c>
       <c r="B1746" s="4" t="s">
-        <v>701</v>
+        <v>2426</v>
       </c>
       <c r="C1746" s="4">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D1746" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E1746" s="5"/>
       <c r="F1746" s="4"/>
@@ -47523,13 +47521,13 @@
         <v>149</v>
       </c>
       <c r="B1747" s="4" t="s">
-        <v>741</v>
+        <v>701</v>
       </c>
       <c r="C1747" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D1747" s="4" t="s">
-        <v>649</v>
+        <v>505</v>
       </c>
       <c r="E1747" s="5"/>
       <c r="F1747" s="4"/>
@@ -47540,10 +47538,10 @@
         <v>149</v>
       </c>
       <c r="B1748" s="4" t="s">
-        <v>499</v>
+        <v>741</v>
       </c>
       <c r="C1748" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D1748" s="4" t="s">
         <v>649</v>
@@ -47557,10 +47555,14 @@
         <v>149</v>
       </c>
       <c r="B1749" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C1749" s="5"/>
-      <c r="D1749" s="5"/>
+        <v>499</v>
+      </c>
+      <c r="C1749" s="4">
+        <v>50</v>
+      </c>
+      <c r="D1749" s="4" t="s">
+        <v>649</v>
+      </c>
       <c r="E1749" s="5"/>
       <c r="F1749" s="4"/>
       <c r="G1749" s="5"/>
@@ -47570,7 +47572,7 @@
         <v>149</v>
       </c>
       <c r="B1750" s="4" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="C1750" s="5"/>
       <c r="D1750" s="5"/>
@@ -47583,7 +47585,7 @@
         <v>149</v>
       </c>
       <c r="B1751" s="4" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="C1751" s="5"/>
       <c r="D1751" s="5"/>
@@ -47593,17 +47595,13 @@
     </row>
     <row r="1752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1752" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1752" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1752" s="4">
-        <v>250</v>
-      </c>
-      <c r="D1752" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C1752" s="5"/>
+      <c r="D1752" s="5"/>
       <c r="E1752" s="5"/>
       <c r="F1752" s="4"/>
       <c r="G1752" s="5"/>
@@ -47613,7 +47611,7 @@
         <v>150</v>
       </c>
       <c r="B1753" s="4" t="s">
-        <v>691</v>
+        <v>60</v>
       </c>
       <c r="C1753" s="4">
         <v>250</v>
@@ -47630,13 +47628,13 @@
         <v>150</v>
       </c>
       <c r="B1754" s="4" t="s">
-        <v>549</v>
+        <v>691</v>
       </c>
       <c r="C1754" s="4">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="D1754" s="4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E1754" s="5"/>
       <c r="F1754" s="4"/>
@@ -47647,13 +47645,13 @@
         <v>150</v>
       </c>
       <c r="B1755" s="4" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C1755" s="4">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D1755" s="4" t="s">
-        <v>649</v>
+        <v>497</v>
       </c>
       <c r="E1755" s="5"/>
       <c r="F1755" s="4"/>
@@ -47664,10 +47662,14 @@
         <v>150</v>
       </c>
       <c r="B1756" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1756" s="5"/>
-      <c r="D1756" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="C1756" s="4">
+        <v>100</v>
+      </c>
+      <c r="D1756" s="4" t="s">
+        <v>649</v>
+      </c>
       <c r="E1756" s="5"/>
       <c r="F1756" s="4"/>
       <c r="G1756" s="5"/>
@@ -47677,7 +47679,7 @@
         <v>150</v>
       </c>
       <c r="B1757" s="4" t="s">
-        <v>568</v>
+        <v>507</v>
       </c>
       <c r="C1757" s="5"/>
       <c r="D1757" s="5"/>
@@ -47690,17 +47692,11 @@
         <v>150</v>
       </c>
       <c r="B1758" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1758" s="4">
-        <v>100</v>
-      </c>
-      <c r="D1758" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E1758" s="4" t="s">
-        <v>762</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="C1758" s="5"/>
+      <c r="D1758" s="5"/>
+      <c r="E1758" s="5"/>
       <c r="F1758" s="4"/>
       <c r="G1758" s="5"/>
     </row>
@@ -47709,15 +47705,17 @@
         <v>150</v>
       </c>
       <c r="B1759" s="4" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
       <c r="C1759" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D1759" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="E1759" s="5"/>
+      <c r="E1759" s="4" t="s">
+        <v>762</v>
+      </c>
       <c r="F1759" s="4"/>
       <c r="G1759" s="5"/>
     </row>
@@ -47726,10 +47724,10 @@
         <v>150</v>
       </c>
       <c r="B1760" s="4" t="s">
-        <v>465</v>
+        <v>813</v>
       </c>
       <c r="C1760" s="4">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="D1760" s="4" t="s">
         <v>505</v>
@@ -47743,10 +47741,14 @@
         <v>150</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="C1761" s="5"/>
-      <c r="D1761" s="5"/>
+        <v>465</v>
+      </c>
+      <c r="C1761" s="4">
+        <v>30</v>
+      </c>
+      <c r="D1761" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="E1761" s="5"/>
       <c r="F1761" s="4"/>
       <c r="G1761" s="5"/>
@@ -47756,7 +47758,7 @@
         <v>150</v>
       </c>
       <c r="B1762" s="4" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="C1762" s="5"/>
       <c r="D1762" s="5"/>
@@ -47769,34 +47771,28 @@
         <v>150</v>
       </c>
       <c r="B1763" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C1763" s="4">
-        <v>3</v>
-      </c>
-      <c r="D1763" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="C1763" s="5"/>
+      <c r="D1763" s="5"/>
       <c r="E1763" s="5"/>
       <c r="F1763" s="4"/>
       <c r="G1763" s="5"/>
     </row>
     <row r="1764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1764" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1764" s="4" t="s">
-        <v>201</v>
+        <v>613</v>
       </c>
       <c r="C1764" s="4">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="D1764" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="E1764" s="4" t="s">
-        <v>597</v>
-      </c>
+      <c r="E1764" s="5"/>
       <c r="F1764" s="4"/>
       <c r="G1764" s="5"/>
     </row>
@@ -47805,15 +47801,17 @@
         <v>151</v>
       </c>
       <c r="B1765" s="4" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="C1765" s="4">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D1765" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="E1765" s="5"/>
+      <c r="E1765" s="4" t="s">
+        <v>597</v>
+      </c>
       <c r="F1765" s="4"/>
       <c r="G1765" s="5"/>
     </row>
@@ -47822,10 +47820,10 @@
         <v>151</v>
       </c>
       <c r="B1766" s="4" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C1766" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D1766" s="4" t="s">
         <v>505</v>
@@ -47839,10 +47837,10 @@
         <v>151</v>
       </c>
       <c r="B1767" s="4" t="s">
-        <v>759</v>
+        <v>97</v>
       </c>
       <c r="C1767" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D1767" s="4" t="s">
         <v>505</v>
@@ -47856,13 +47854,13 @@
         <v>151</v>
       </c>
       <c r="B1768" s="4" t="s">
-        <v>549</v>
+        <v>759</v>
       </c>
       <c r="C1768" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D1768" s="4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E1768" s="5"/>
       <c r="F1768" s="4"/>
@@ -47873,10 +47871,14 @@
         <v>151</v>
       </c>
       <c r="B1769" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1769" s="5"/>
-      <c r="D1769" s="5"/>
+        <v>549</v>
+      </c>
+      <c r="C1769" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1769" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="E1769" s="5"/>
       <c r="F1769" s="4"/>
       <c r="G1769" s="5"/>
@@ -47886,7 +47888,7 @@
         <v>151</v>
       </c>
       <c r="B1770" s="4" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C1770" s="5"/>
       <c r="D1770" s="5"/>
@@ -47899,14 +47901,10 @@
         <v>151</v>
       </c>
       <c r="B1771" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="C1771" s="4">
-        <v>400</v>
-      </c>
-      <c r="D1771" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C1771" s="5"/>
+      <c r="D1771" s="5"/>
       <c r="E1771" s="5"/>
       <c r="F1771" s="4"/>
       <c r="G1771" s="5"/>
@@ -47916,10 +47914,10 @@
         <v>151</v>
       </c>
       <c r="B1772" s="4" t="s">
-        <v>748</v>
+        <v>691</v>
       </c>
       <c r="C1772" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D1772" s="4" t="s">
         <v>505</v>
@@ -47933,13 +47931,13 @@
         <v>151</v>
       </c>
       <c r="B1773" s="4" t="s">
-        <v>549</v>
+        <v>748</v>
       </c>
       <c r="C1773" s="4">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D1773" s="4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E1773" s="5"/>
       <c r="F1773" s="4"/>
@@ -47950,13 +47948,13 @@
         <v>151</v>
       </c>
       <c r="B1774" s="4" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="C1774" s="4">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="D1774" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E1774" s="5"/>
       <c r="F1774" s="4"/>
@@ -47967,13 +47965,13 @@
         <v>151</v>
       </c>
       <c r="B1775" s="4" t="s">
-        <v>818</v>
+        <v>465</v>
       </c>
       <c r="C1775" s="4">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="D1775" s="4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E1775" s="5"/>
       <c r="F1775" s="4"/>
@@ -47984,13 +47982,13 @@
         <v>151</v>
       </c>
       <c r="B1776" s="4" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="C1776" s="4">
         <v>2</v>
       </c>
       <c r="D1776" s="4" t="s">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="E1776" s="5"/>
       <c r="F1776" s="4"/>
@@ -47998,16 +47996,16 @@
     </row>
     <row r="1777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1777" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1777" s="4" t="s">
-        <v>691</v>
+        <v>811</v>
       </c>
       <c r="C1777" s="4">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D1777" s="4" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="E1777" s="5"/>
       <c r="F1777" s="4"/>
@@ -48018,10 +48016,10 @@
         <v>152</v>
       </c>
       <c r="B1778" s="4" t="s">
-        <v>748</v>
+        <v>691</v>
       </c>
       <c r="C1778" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D1778" s="4" t="s">
         <v>505</v>
@@ -48035,10 +48033,10 @@
         <v>152</v>
       </c>
       <c r="B1779" s="4" t="s">
-        <v>910</v>
+        <v>748</v>
       </c>
       <c r="C1779" s="4">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="D1779" s="4" t="s">
         <v>505</v>
@@ -48052,13 +48050,13 @@
         <v>152</v>
       </c>
       <c r="B1780" s="4" t="s">
-        <v>508</v>
+        <v>910</v>
       </c>
       <c r="C1780" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1780" s="4" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E1780" s="5"/>
       <c r="F1780" s="4"/>
@@ -48069,7 +48067,7 @@
         <v>152</v>
       </c>
       <c r="B1781" s="4" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C1781" s="4">
         <v>1</v>
@@ -48086,10 +48084,10 @@
         <v>152</v>
       </c>
       <c r="B1782" s="4" t="s">
-        <v>695</v>
+        <v>499</v>
       </c>
       <c r="C1782" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1782" s="4" t="s">
         <v>500</v>
@@ -48103,10 +48101,14 @@
         <v>152</v>
       </c>
       <c r="B1783" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1783" s="5"/>
-      <c r="D1783" s="5"/>
+        <v>695</v>
+      </c>
+      <c r="C1783" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1783" s="4" t="s">
+        <v>500</v>
+      </c>
       <c r="E1783" s="5"/>
       <c r="F1783" s="4"/>
       <c r="G1783" s="5"/>
@@ -48116,14 +48118,10 @@
         <v>152</v>
       </c>
       <c r="B1784" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C1784" s="4">
-        <v>500</v>
-      </c>
-      <c r="D1784" s="4" t="s">
-        <v>649</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="C1784" s="5"/>
+      <c r="D1784" s="5"/>
       <c r="E1784" s="5"/>
       <c r="F1784" s="4"/>
       <c r="G1784" s="5"/>
@@ -48133,13 +48131,13 @@
         <v>152</v>
       </c>
       <c r="B1785" s="4" t="s">
-        <v>911</v>
+        <v>555</v>
       </c>
       <c r="C1785" s="4">
         <v>500</v>
       </c>
       <c r="D1785" s="4" t="s">
-        <v>505</v>
+        <v>649</v>
       </c>
       <c r="E1785" s="5"/>
       <c r="F1785" s="4"/>
@@ -48150,10 +48148,10 @@
         <v>152</v>
       </c>
       <c r="B1786" s="4" t="s">
-        <v>741</v>
+        <v>911</v>
       </c>
       <c r="C1786" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D1786" s="4" t="s">
         <v>505</v>
@@ -48167,10 +48165,10 @@
         <v>152</v>
       </c>
       <c r="B1787" s="4" t="s">
-        <v>912</v>
+        <v>741</v>
       </c>
       <c r="C1787" s="4">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="D1787" s="4" t="s">
         <v>505</v>
@@ -48184,10 +48182,10 @@
         <v>152</v>
       </c>
       <c r="B1788" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C1788" s="4">
-        <v>30</v>
+        <v>750</v>
       </c>
       <c r="D1788" s="4" t="s">
         <v>505</v>
@@ -48201,10 +48199,10 @@
         <v>152</v>
       </c>
       <c r="B1789" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C1789" s="4">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D1789" s="4" t="s">
         <v>505</v>
@@ -48218,10 +48216,10 @@
         <v>152</v>
       </c>
       <c r="B1790" s="4" t="s">
-        <v>583</v>
+        <v>914</v>
       </c>
       <c r="C1790" s="4">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D1790" s="4" t="s">
         <v>505</v>
@@ -48235,10 +48233,14 @@
         <v>152</v>
       </c>
       <c r="B1791" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="C1791" s="5"/>
-      <c r="D1791" s="5"/>
+        <v>583</v>
+      </c>
+      <c r="C1791" s="4">
+        <v>20</v>
+      </c>
+      <c r="D1791" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="E1791" s="5"/>
       <c r="F1791" s="4"/>
       <c r="G1791" s="5"/>
@@ -48248,7 +48250,7 @@
         <v>152</v>
       </c>
       <c r="B1792" s="4" t="s">
-        <v>499</v>
+        <v>684</v>
       </c>
       <c r="C1792" s="5"/>
       <c r="D1792" s="5"/>
@@ -48261,7 +48263,7 @@
         <v>152</v>
       </c>
       <c r="B1793" s="4" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C1793" s="5"/>
       <c r="D1793" s="5"/>
@@ -48271,17 +48273,13 @@
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1794" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1794" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C1794" s="4">
-        <v>10</v>
-      </c>
-      <c r="D1794" s="4" t="s">
-        <v>915</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="C1794" s="5"/>
+      <c r="D1794" s="5"/>
       <c r="E1794" s="5"/>
       <c r="F1794" s="4"/>
       <c r="G1794" s="5"/>
@@ -48291,13 +48289,13 @@
         <v>153</v>
       </c>
       <c r="B1795" s="4" t="s">
-        <v>916</v>
+        <v>546</v>
       </c>
       <c r="C1795" s="4">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D1795" s="4" t="s">
-        <v>505</v>
+        <v>915</v>
       </c>
       <c r="E1795" s="5"/>
       <c r="F1795" s="4"/>
@@ -48308,13 +48306,13 @@
         <v>153</v>
       </c>
       <c r="B1796" s="4" t="s">
-        <v>521</v>
+        <v>916</v>
       </c>
       <c r="C1796" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D1796" s="4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E1796" s="5"/>
       <c r="F1796" s="4"/>
@@ -48325,13 +48323,13 @@
         <v>153</v>
       </c>
       <c r="B1797" s="4" t="s">
-        <v>55</v>
+        <v>521</v>
       </c>
       <c r="C1797" s="4">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D1797" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E1797" s="5"/>
       <c r="F1797" s="4"/>
@@ -48342,13 +48340,13 @@
         <v>153</v>
       </c>
       <c r="B1798" s="4" t="s">
-        <v>549</v>
+        <v>55</v>
       </c>
       <c r="C1798" s="4">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="D1798" s="4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E1798" s="5"/>
       <c r="F1798" s="4"/>
@@ -48359,13 +48357,13 @@
         <v>153</v>
       </c>
       <c r="B1799" s="4" t="s">
-        <v>695</v>
+        <v>549</v>
       </c>
       <c r="C1799" s="4">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="D1799" s="4" t="s">
-        <v>649</v>
+        <v>497</v>
       </c>
       <c r="E1799" s="5"/>
       <c r="F1799" s="4"/>
@@ -48376,13 +48374,13 @@
         <v>153</v>
       </c>
       <c r="B1800" s="4" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C1800" s="4">
         <v>500</v>
       </c>
       <c r="D1800" s="4" t="s">
-        <v>505</v>
+        <v>649</v>
       </c>
       <c r="E1800" s="5"/>
       <c r="F1800" s="4"/>
@@ -48393,10 +48391,14 @@
         <v>153</v>
       </c>
       <c r="B1801" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C1801" s="5"/>
-      <c r="D1801" s="5"/>
+        <v>691</v>
+      </c>
+      <c r="C1801" s="4">
+        <v>500</v>
+      </c>
+      <c r="D1801" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="E1801" s="5"/>
       <c r="F1801" s="4"/>
       <c r="G1801" s="5"/>
@@ -48406,7 +48408,7 @@
         <v>153</v>
       </c>
       <c r="B1802" s="4" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="C1802" s="5"/>
       <c r="D1802" s="5"/>
@@ -48419,7 +48421,7 @@
         <v>153</v>
       </c>
       <c r="B1803" s="4" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C1803" s="5"/>
       <c r="D1803" s="5"/>
@@ -48432,14 +48434,10 @@
         <v>153</v>
       </c>
       <c r="B1804" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1804" s="4">
-        <v>250</v>
-      </c>
-      <c r="D1804" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C1804" s="5"/>
+      <c r="D1804" s="5"/>
       <c r="E1804" s="5"/>
       <c r="F1804" s="4"/>
       <c r="G1804" s="5"/>
@@ -48449,30 +48447,30 @@
         <v>153</v>
       </c>
       <c r="B1805" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="C1805" s="4"/>
-      <c r="D1805" s="4"/>
-      <c r="E1805" s="4" t="s">
-        <v>584</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C1805" s="4">
+        <v>250</v>
+      </c>
+      <c r="D1805" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1805" s="5"/>
       <c r="F1805" s="4"/>
       <c r="G1805" s="5"/>
     </row>
     <row r="1806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1806" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1806" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1806" s="4">
-        <v>4</v>
-      </c>
-      <c r="D1806" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1806" s="4"/>
+        <v>801</v>
+      </c>
+      <c r="C1806" s="4"/>
+      <c r="D1806" s="4"/>
+      <c r="E1806" s="4" t="s">
+        <v>584</v>
+      </c>
       <c r="F1806" s="4"/>
       <c r="G1806" s="5"/>
     </row>
@@ -48481,7 +48479,7 @@
         <v>154</v>
       </c>
       <c r="B1807" s="4" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="C1807" s="4">
         <v>4</v>
@@ -48498,10 +48496,14 @@
         <v>154</v>
       </c>
       <c r="B1808" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C1808" s="4"/>
-      <c r="D1808" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C1808" s="4">
+        <v>4</v>
+      </c>
+      <c r="D1808" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="E1808" s="4"/>
       <c r="F1808" s="4"/>
       <c r="G1808" s="5"/>
@@ -48511,7 +48513,7 @@
         <v>154</v>
       </c>
       <c r="B1809" s="4" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C1809" s="4"/>
       <c r="D1809" s="4"/>
@@ -48524,7 +48526,7 @@
         <v>154</v>
       </c>
       <c r="B1810" s="4" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C1810" s="4"/>
       <c r="D1810" s="4"/>
@@ -48537,7 +48539,7 @@
         <v>154</v>
       </c>
       <c r="B1811" s="4" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C1811" s="4"/>
       <c r="D1811" s="4"/>
@@ -48547,17 +48549,13 @@
     </row>
     <row r="1812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1812" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1812" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="C1812" s="4">
-        <v>500</v>
-      </c>
-      <c r="D1812" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C1812" s="4"/>
+      <c r="D1812" s="4"/>
       <c r="E1812" s="4"/>
       <c r="F1812" s="4"/>
       <c r="G1812" s="5"/>
@@ -48567,10 +48565,10 @@
         <v>155</v>
       </c>
       <c r="B1813" s="4" t="s">
-        <v>658</v>
+        <v>917</v>
       </c>
       <c r="C1813" s="4">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D1813" s="4" t="s">
         <v>505</v>
@@ -48584,17 +48582,15 @@
         <v>155</v>
       </c>
       <c r="B1814" s="4" t="s">
-        <v>521</v>
+        <v>658</v>
       </c>
       <c r="C1814" s="4">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="D1814" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1814" s="4" t="s">
-        <v>762</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="E1814" s="4"/>
       <c r="F1814" s="4"/>
       <c r="G1814" s="5"/>
     </row>
@@ -48603,16 +48599,16 @@
         <v>155</v>
       </c>
       <c r="B1815" s="4" t="s">
-        <v>761</v>
+        <v>521</v>
       </c>
       <c r="C1815" s="4">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="D1815" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E1815" s="4" t="s">
-        <v>510</v>
+        <v>762</v>
       </c>
       <c r="F1815" s="4"/>
       <c r="G1815" s="5"/>
@@ -48622,11 +48618,17 @@
         <v>155</v>
       </c>
       <c r="B1816" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1816" s="4"/>
-      <c r="D1816" s="4"/>
-      <c r="E1816" s="4"/>
+        <v>761</v>
+      </c>
+      <c r="C1816" s="4">
+        <v>300</v>
+      </c>
+      <c r="D1816" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1816" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="F1816" s="4"/>
       <c r="G1816" s="5"/>
     </row>
@@ -48635,7 +48637,7 @@
         <v>155</v>
       </c>
       <c r="B1817" s="4" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C1817" s="4"/>
       <c r="D1817" s="4"/>
@@ -48648,7 +48650,7 @@
         <v>155</v>
       </c>
       <c r="B1818" s="4" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="C1818" s="4"/>
       <c r="D1818" s="4"/>
@@ -48661,15 +48663,28 @@
         <v>155</v>
       </c>
       <c r="B1819" s="4" t="s">
-        <v>759</v>
+        <v>499</v>
       </c>
       <c r="C1819" s="4"/>
       <c r="D1819" s="4"/>
-      <c r="E1819" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="E1819" s="4"/>
       <c r="F1819" s="4"/>
       <c r="G1819" s="5"/>
+    </row>
+    <row r="1820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1820" s="4">
+        <v>155</v>
+      </c>
+      <c r="B1820" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C1820" s="4"/>
+      <c r="D1820" s="4"/>
+      <c r="E1820" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1820" s="4"/>
+      <c r="G1820" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
